--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9944446804029159</v>
+        <v>0.9944446804029141</v>
       </c>
       <c r="D2">
-        <v>1.013907644929751</v>
+        <v>1.01390764492975</v>
       </c>
       <c r="E2">
-        <v>1.00138373406867</v>
+        <v>1.001383734068669</v>
       </c>
       <c r="F2">
-        <v>1.009216037369981</v>
+        <v>1.00921603736998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043010639119216</v>
+        <v>1.043010639119215</v>
       </c>
       <c r="J2">
-        <v>1.016792829312496</v>
+        <v>1.016792829312494</v>
       </c>
       <c r="K2">
-        <v>1.025176565649593</v>
+        <v>1.025176565649591</v>
       </c>
       <c r="L2">
-        <v>1.01282382488156</v>
+        <v>1.012823824881558</v>
       </c>
       <c r="M2">
-        <v>1.02054845410913</v>
+        <v>1.020548454109129</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000537894862049</v>
+        <v>1.00053789486205</v>
       </c>
       <c r="D3">
         <v>1.018533547480631</v>
@@ -468,7 +468,7 @@
         <v>1.006375823475998</v>
       </c>
       <c r="F3">
-        <v>1.015881685753281</v>
+        <v>1.01588168575328</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.02893465535592</v>
       </c>
       <c r="L3">
-        <v>1.016927769310365</v>
+        <v>1.016927769310366</v>
       </c>
       <c r="M3">
-        <v>1.0263153115665</v>
+        <v>1.026315311566499</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046586940004477</v>
+        <v>1.046586940004478</v>
       </c>
       <c r="J4">
         <v>1.023668795930083</v>
@@ -541,10 +541,10 @@
         <v>1.022657262145791</v>
       </c>
       <c r="E5">
-        <v>1.010833319031575</v>
+        <v>1.010833319031576</v>
       </c>
       <c r="F5">
-        <v>1.021822065574841</v>
+        <v>1.02182206557484</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>1.032271769949054</v>
       </c>
       <c r="L5">
-        <v>1.020581364257329</v>
+        <v>1.02058136425733</v>
       </c>
       <c r="M5">
         <v>1.031445881089373</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006231914381852</v>
+        <v>1.006231914381851</v>
       </c>
       <c r="D6">
-        <v>1.022859074488923</v>
+        <v>1.022859074488922</v>
       </c>
       <c r="E6">
-        <v>1.01105165708413</v>
+        <v>1.011051657084129</v>
       </c>
       <c r="F6">
-        <v>1.022112767896284</v>
+        <v>1.022112767896283</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047246786591443</v>
+        <v>1.047246786591442</v>
       </c>
       <c r="J6">
-        <v>1.024950874362336</v>
+        <v>1.024950874362335</v>
       </c>
       <c r="K6">
-        <v>1.032434754428309</v>
+        <v>1.032434754428308</v>
       </c>
       <c r="L6">
-        <v>1.020760047787217</v>
+        <v>1.020760047787215</v>
       </c>
       <c r="M6">
-        <v>1.031696724371769</v>
+        <v>1.031696724371768</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.021465460832444</v>
       </c>
       <c r="E7">
-        <v>1.009544296556793</v>
+        <v>1.009544296556794</v>
       </c>
       <c r="F7">
         <v>1.02010530857513</v>
@@ -638,7 +638,7 @@
         <v>1.019525915866178</v>
       </c>
       <c r="M7">
-        <v>1.029964065927121</v>
+        <v>1.02996406592712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9965262378436904</v>
+        <v>0.9965262378436893</v>
       </c>
       <c r="D8">
-        <v>1.015487562429611</v>
+        <v>1.01548756242961</v>
       </c>
       <c r="E8">
-        <v>1.00308779162147</v>
+        <v>1.003087791621469</v>
       </c>
       <c r="F8">
-        <v>1.011492921903947</v>
+        <v>1.011492921903946</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043766023559517</v>
       </c>
       <c r="J8">
-        <v>1.018235688680515</v>
+        <v>1.018235688680514</v>
       </c>
       <c r="K8">
-        <v>1.02646175319827</v>
+        <v>1.026461753198269</v>
       </c>
       <c r="L8">
-        <v>1.01422609863293</v>
+        <v>1.014226098632929</v>
       </c>
       <c r="M8">
-        <v>1.022519432580099</v>
+        <v>1.022519432580098</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,22 +687,22 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9817990151857778</v>
+        <v>0.9817990151857786</v>
       </c>
       <c r="D9">
-        <v>1.004319646660442</v>
+        <v>1.004319646660443</v>
       </c>
       <c r="E9">
-        <v>0.9910609287311767</v>
+        <v>0.9910609287311772</v>
       </c>
       <c r="F9">
-        <v>0.995387302254829</v>
+        <v>0.9953873022548299</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03836371980142</v>
+        <v>1.038363719801421</v>
       </c>
       <c r="J9">
         <v>1.008011284189954</v>
@@ -711,10 +711,10 @@
         <v>1.017343027234317</v>
       </c>
       <c r="L9">
-        <v>1.004300720408829</v>
+        <v>1.00430072040883</v>
       </c>
       <c r="M9">
-        <v>1.008555663224303</v>
+        <v>1.008555663224304</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713148000130823</v>
+        <v>0.971314800013082</v>
       </c>
       <c r="D10">
-        <v>0.9963864106373008</v>
+        <v>0.9963864106373007</v>
       </c>
       <c r="E10">
-        <v>0.9825407387470035</v>
+        <v>0.9825407387470031</v>
       </c>
       <c r="F10">
-        <v>0.9839244421147817</v>
+        <v>0.9839244421147813</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>1.000714628751475</v>
       </c>
       <c r="K10">
-        <v>1.010821217516448</v>
+        <v>1.010821217516447</v>
       </c>
       <c r="L10">
-        <v>0.9972325468392741</v>
+        <v>0.9972325468392736</v>
       </c>
       <c r="M10">
-        <v>0.9985901411390052</v>
+        <v>0.9985901411390049</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665940651321453</v>
+        <v>0.9665940651321464</v>
       </c>
       <c r="D11">
-        <v>0.9928198367457675</v>
+        <v>0.9928198367457683</v>
       </c>
       <c r="E11">
-        <v>0.9787156411411648</v>
+        <v>0.9787156411411654</v>
       </c>
       <c r="F11">
-        <v>0.9787629650789561</v>
+        <v>0.9787629650789568</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032666253544791</v>
       </c>
       <c r="J11">
-        <v>0.9974257714670547</v>
+        <v>0.9974257714670557</v>
       </c>
       <c r="K11">
-        <v>1.007878442744671</v>
+        <v>1.007878442744672</v>
       </c>
       <c r="L11">
-        <v>0.9940504303363272</v>
+        <v>0.9940504303363279</v>
       </c>
       <c r="M11">
-        <v>0.9940968100917961</v>
+        <v>0.9940968100917968</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9648111685775511</v>
+        <v>0.96481116857755</v>
       </c>
       <c r="D12">
-        <v>0.9914738032736257</v>
+        <v>0.9914738032736247</v>
       </c>
       <c r="E12">
-        <v>0.9772728316392369</v>
+        <v>0.9772728316392357</v>
       </c>
       <c r="F12">
-        <v>0.9768135286373216</v>
+        <v>0.9768135286373213</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031991620447186</v>
       </c>
       <c r="J12">
-        <v>0.9961832300112043</v>
+        <v>0.9961832300112032</v>
       </c>
       <c r="K12">
-        <v>1.006766195279184</v>
+        <v>1.006766195279183</v>
       </c>
       <c r="L12">
-        <v>0.9928487971547357</v>
+        <v>0.9928487971547346</v>
       </c>
       <c r="M12">
-        <v>0.9923988472521726</v>
+        <v>0.9923988472521723</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9651949747948529</v>
+        <v>0.9651949747948521</v>
       </c>
       <c r="D13">
-        <v>0.9917635195007113</v>
+        <v>0.9917635195007106</v>
       </c>
       <c r="E13">
-        <v>0.9775833421281731</v>
+        <v>0.9775833421281724</v>
       </c>
       <c r="F13">
-        <v>0.9772331910734448</v>
+        <v>0.9772331910734441</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.032136954439662</v>
       </c>
       <c r="J13">
-        <v>0.9964507312587738</v>
+        <v>0.996450731258773</v>
       </c>
       <c r="K13">
         <v>1.007005666438022</v>
       </c>
       <c r="L13">
-        <v>0.9931074649091864</v>
+        <v>0.9931074649091858</v>
       </c>
       <c r="M13">
-        <v>0.9927644130923773</v>
+        <v>0.9927644130923766</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,10 +880,10 @@
         <v>0.9664473038685164</v>
       </c>
       <c r="D14">
-        <v>0.9927090159420802</v>
+        <v>0.9927090159420801</v>
       </c>
       <c r="E14">
-        <v>0.978596836644877</v>
+        <v>0.9785968366448767</v>
       </c>
       <c r="F14">
         <v>0.9786024970109769</v>
@@ -895,16 +895,16 @@
         <v>1.032610767599484</v>
       </c>
       <c r="J14">
-        <v>0.9973234983541203</v>
+        <v>0.9973234983541202</v>
       </c>
       <c r="K14">
-        <v>1.007786903245134</v>
+        <v>1.007786903245133</v>
       </c>
       <c r="L14">
         <v>0.9939515124700611</v>
       </c>
       <c r="M14">
-        <v>0.9939570597118477</v>
+        <v>0.9939570597118473</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.967214938332464</v>
+        <v>0.9672149383324634</v>
       </c>
       <c r="D15">
-        <v>0.993288704085767</v>
+        <v>0.9932887040857664</v>
       </c>
       <c r="E15">
-        <v>0.9792183184943988</v>
+        <v>0.9792183184943983</v>
       </c>
       <c r="F15">
-        <v>0.9794418210573582</v>
+        <v>0.9794418210573581</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032900891477939</v>
+        <v>1.032900891477938</v>
       </c>
       <c r="J15">
-        <v>0.9978584207717521</v>
+        <v>0.9978584207717517</v>
       </c>
       <c r="K15">
         <v>1.008265666812322</v>
       </c>
       <c r="L15">
-        <v>0.9944689095772392</v>
+        <v>0.9944689095772389</v>
       </c>
       <c r="M15">
-        <v>0.9946879849199762</v>
+        <v>0.9946879849199761</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9716241027855874</v>
+        <v>0.9716241027855868</v>
       </c>
       <c r="D16">
-        <v>0.9966202186113284</v>
+        <v>0.9966202186113278</v>
       </c>
       <c r="E16">
-        <v>0.9827916043657098</v>
+        <v>0.9827916043657091</v>
       </c>
       <c r="F16">
-        <v>0.9842626148323588</v>
+        <v>0.9842626148323586</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.034562611286546</v>
       </c>
       <c r="J16">
-        <v>1.000930051315021</v>
+        <v>1.00093005131502</v>
       </c>
       <c r="K16">
-        <v>1.011013907306847</v>
+        <v>1.011013907306846</v>
       </c>
       <c r="L16">
-        <v>0.9974410570538369</v>
+        <v>0.9974410570538362</v>
       </c>
       <c r="M16">
-        <v>0.9988844147266546</v>
+        <v>0.9988844147266543</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743399084246764</v>
+        <v>0.9743399084246758</v>
       </c>
       <c r="D17">
-        <v>0.9986737898360355</v>
+        <v>0.9986737898360352</v>
       </c>
       <c r="E17">
-        <v>0.9849956003598849</v>
+        <v>0.984995600359884</v>
       </c>
       <c r="F17">
-        <v>0.9872318931640085</v>
+        <v>0.9872318931640079</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035581957246615</v>
       </c>
       <c r="J17">
-        <v>1.002821176031141</v>
+        <v>1.00282117603114</v>
       </c>
       <c r="K17">
         <v>1.012705112346982</v>
       </c>
       <c r="L17">
-        <v>0.9992719271269913</v>
+        <v>0.9992719271269906</v>
       </c>
       <c r="M17">
-        <v>1.001467559524897</v>
+        <v>1.001467559524896</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,31 +1029,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759066896017545</v>
+        <v>0.9759066896017538</v>
       </c>
       <c r="D18">
-        <v>0.9998590316935588</v>
+        <v>0.9998590316935582</v>
       </c>
       <c r="E18">
-        <v>0.986268167639674</v>
+        <v>0.9862681676396732</v>
       </c>
       <c r="F18">
-        <v>0.9889449026262099</v>
+        <v>0.9889449026262096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036168501816165</v>
+        <v>1.036168501816164</v>
       </c>
       <c r="J18">
-        <v>1.003911863919467</v>
+        <v>1.003911863919466</v>
       </c>
       <c r="K18">
         <v>1.013680198877789</v>
       </c>
       <c r="L18">
-        <v>1.000328216327345</v>
+        <v>1.000328216327344</v>
       </c>
       <c r="M18">
         <v>1.002957229568071</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764380500344367</v>
+        <v>0.9764380500344354</v>
       </c>
       <c r="D19">
-        <v>1.000261079279106</v>
+        <v>1.000261079279105</v>
       </c>
       <c r="E19">
-        <v>0.9866999232358107</v>
+        <v>0.9866999232358095</v>
       </c>
       <c r="F19">
-        <v>0.9895258565262627</v>
+        <v>0.9895258565262617</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036367161963506</v>
       </c>
       <c r="J19">
-        <v>1.004281703963653</v>
+        <v>1.004281703963652</v>
       </c>
       <c r="K19">
-        <v>1.014010788434866</v>
+        <v>1.014010788434865</v>
       </c>
       <c r="L19">
-        <v>1.000686451499133</v>
+        <v>1.000686451499132</v>
       </c>
       <c r="M19">
-        <v>1.003462341188149</v>
+        <v>1.003462341188148</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740503330601434</v>
+        <v>0.9740503330601429</v>
       </c>
       <c r="D20">
-        <v>0.9984547717623762</v>
+        <v>0.9984547717623754</v>
       </c>
       <c r="E20">
-        <v>0.9847604866748222</v>
+        <v>0.9847604866748216</v>
       </c>
       <c r="F20">
-        <v>0.9869152918309527</v>
+        <v>0.9869152918309523</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>1.002619566243694</v>
       </c>
       <c r="K20">
-        <v>1.012524846673598</v>
+        <v>1.012524846673597</v>
       </c>
       <c r="L20">
-        <v>0.9990767042473856</v>
+        <v>0.999076704247385</v>
       </c>
       <c r="M20">
         <v>1.001192189410789</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660793548952163</v>
+        <v>0.9660793548952167</v>
       </c>
       <c r="D21">
-        <v>0.9924311902703855</v>
+        <v>0.9924311902703857</v>
       </c>
       <c r="E21">
-        <v>0.9782990086963019</v>
+        <v>0.9782990086963022</v>
       </c>
       <c r="F21">
-        <v>0.9782001817581801</v>
+        <v>0.9782001817581804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032471619762928</v>
+        <v>1.032471619762929</v>
       </c>
       <c r="J21">
-        <v>0.9970670801957335</v>
+        <v>0.9970670801957338</v>
       </c>
       <c r="K21">
         <v>1.007557389009243</v>
       </c>
       <c r="L21">
-        <v>0.9937035159652243</v>
+        <v>0.9937035159652244</v>
       </c>
       <c r="M21">
-        <v>0.9936066725118367</v>
+        <v>0.9936066725118369</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9608962727003916</v>
+        <v>0.9608962727003924</v>
       </c>
       <c r="D22">
-        <v>0.9885201173421624</v>
+        <v>0.9885201173421627</v>
       </c>
       <c r="E22">
-        <v>0.9741082274075554</v>
+        <v>0.9741082274075559</v>
       </c>
       <c r="F22">
-        <v>0.9725327038273187</v>
+        <v>0.9725327038273189</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030506009513024</v>
+        <v>1.030506009513023</v>
       </c>
       <c r="J22">
-        <v>0.9934541585970819</v>
+        <v>0.9934541585970824</v>
       </c>
       <c r="K22">
-        <v>1.004322475640336</v>
+        <v>1.004322475640337</v>
       </c>
       <c r="L22">
-        <v>0.9902106669262529</v>
+        <v>0.9902106669262535</v>
       </c>
       <c r="M22">
-        <v>0.9886686631849869</v>
+        <v>0.9886686631849871</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9636609750827794</v>
+        <v>0.96366097508278</v>
       </c>
       <c r="D23">
-        <v>0.9906057322658435</v>
+        <v>0.990605732265844</v>
       </c>
       <c r="E23">
-        <v>0.9763425701742054</v>
+        <v>0.976342570174206</v>
       </c>
       <c r="F23">
-        <v>0.9755558628077553</v>
+        <v>0.9755558628077556</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.031555743699846</v>
       </c>
       <c r="J23">
-        <v>0.9953815242249475</v>
+        <v>0.9953815242249483</v>
       </c>
       <c r="K23">
         <v>1.006048430632895</v>
       </c>
       <c r="L23">
-        <v>0.9920736521024417</v>
+        <v>0.9920736521024422</v>
       </c>
       <c r="M23">
-        <v>0.991303174976537</v>
+        <v>0.9913031749765375</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,31 +1257,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974181233008216</v>
+        <v>0.974181233008217</v>
       </c>
       <c r="D24">
-        <v>0.9985537753409039</v>
+        <v>0.9985537753409047</v>
       </c>
       <c r="E24">
-        <v>0.9848667644423771</v>
+        <v>0.9848667644423779</v>
       </c>
       <c r="F24">
-        <v>0.9870584086306006</v>
+        <v>0.987058408630601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035522491744238</v>
+        <v>1.035522491744239</v>
       </c>
       <c r="J24">
-        <v>1.002710703155747</v>
+        <v>1.002710703155748</v>
       </c>
       <c r="K24">
         <v>1.012606335994482</v>
       </c>
       <c r="L24">
-        <v>0.9991649528893016</v>
+        <v>0.9991649528893024</v>
       </c>
       <c r="M24">
         <v>1.001316669793633</v>
@@ -1295,25 +1295,25 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9857166182270262</v>
+        <v>0.9857166182270256</v>
       </c>
       <c r="D25">
-        <v>1.007287953695625</v>
+        <v>1.007287953695624</v>
       </c>
       <c r="E25">
-        <v>0.9942535157996542</v>
+        <v>0.9942535157996538</v>
       </c>
       <c r="F25">
-        <v>0.9996709164894899</v>
+        <v>0.9996709164894896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039813266903283</v>
+        <v>1.039813266903282</v>
       </c>
       <c r="J25">
-        <v>1.010734425522343</v>
+        <v>1.010734425522342</v>
       </c>
       <c r="K25">
         <v>1.019774177319624</v>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9944446804029141</v>
+        <v>0.9944446804029159</v>
       </c>
       <c r="D2">
-        <v>1.01390764492975</v>
+        <v>1.013907644929751</v>
       </c>
       <c r="E2">
-        <v>1.001383734068669</v>
+        <v>1.00138373406867</v>
       </c>
       <c r="F2">
-        <v>1.00921603736998</v>
+        <v>1.009216037369981</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043010639119215</v>
+        <v>1.043010639119216</v>
       </c>
       <c r="J2">
-        <v>1.016792829312494</v>
+        <v>1.016792829312496</v>
       </c>
       <c r="K2">
-        <v>1.025176565649591</v>
+        <v>1.025176565649593</v>
       </c>
       <c r="L2">
-        <v>1.012823824881558</v>
+        <v>1.01282382488156</v>
       </c>
       <c r="M2">
-        <v>1.020548454109129</v>
+        <v>1.02054845410913</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00053789486205</v>
+        <v>1.000537894862049</v>
       </c>
       <c r="D3">
         <v>1.018533547480631</v>
@@ -468,7 +468,7 @@
         <v>1.006375823475998</v>
       </c>
       <c r="F3">
-        <v>1.01588168575328</v>
+        <v>1.015881685753281</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.02893465535592</v>
       </c>
       <c r="L3">
-        <v>1.016927769310366</v>
+        <v>1.016927769310365</v>
       </c>
       <c r="M3">
-        <v>1.026315311566499</v>
+        <v>1.0263153115665</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046586940004478</v>
+        <v>1.046586940004477</v>
       </c>
       <c r="J4">
         <v>1.023668795930083</v>
@@ -541,10 +541,10 @@
         <v>1.022657262145791</v>
       </c>
       <c r="E5">
-        <v>1.010833319031576</v>
+        <v>1.010833319031575</v>
       </c>
       <c r="F5">
-        <v>1.02182206557484</v>
+        <v>1.021822065574841</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,7 +559,7 @@
         <v>1.032271769949054</v>
       </c>
       <c r="L5">
-        <v>1.02058136425733</v>
+        <v>1.020581364257329</v>
       </c>
       <c r="M5">
         <v>1.031445881089373</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006231914381851</v>
+        <v>1.006231914381852</v>
       </c>
       <c r="D6">
-        <v>1.022859074488922</v>
+        <v>1.022859074488923</v>
       </c>
       <c r="E6">
-        <v>1.011051657084129</v>
+        <v>1.01105165708413</v>
       </c>
       <c r="F6">
-        <v>1.022112767896283</v>
+        <v>1.022112767896284</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047246786591442</v>
+        <v>1.047246786591443</v>
       </c>
       <c r="J6">
-        <v>1.024950874362335</v>
+        <v>1.024950874362336</v>
       </c>
       <c r="K6">
-        <v>1.032434754428308</v>
+        <v>1.032434754428309</v>
       </c>
       <c r="L6">
-        <v>1.020760047787215</v>
+        <v>1.020760047787217</v>
       </c>
       <c r="M6">
-        <v>1.031696724371768</v>
+        <v>1.031696724371769</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.021465460832444</v>
       </c>
       <c r="E7">
-        <v>1.009544296556794</v>
+        <v>1.009544296556793</v>
       </c>
       <c r="F7">
         <v>1.02010530857513</v>
@@ -638,7 +638,7 @@
         <v>1.019525915866178</v>
       </c>
       <c r="M7">
-        <v>1.02996406592712</v>
+        <v>1.029964065927121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9965262378436893</v>
+        <v>0.9965262378436904</v>
       </c>
       <c r="D8">
-        <v>1.01548756242961</v>
+        <v>1.015487562429611</v>
       </c>
       <c r="E8">
-        <v>1.003087791621469</v>
+        <v>1.00308779162147</v>
       </c>
       <c r="F8">
-        <v>1.011492921903946</v>
+        <v>1.011492921903947</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043766023559517</v>
       </c>
       <c r="J8">
-        <v>1.018235688680514</v>
+        <v>1.018235688680515</v>
       </c>
       <c r="K8">
-        <v>1.026461753198269</v>
+        <v>1.02646175319827</v>
       </c>
       <c r="L8">
-        <v>1.014226098632929</v>
+        <v>1.01422609863293</v>
       </c>
       <c r="M8">
-        <v>1.022519432580098</v>
+        <v>1.022519432580099</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,22 +687,22 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9817990151857786</v>
+        <v>0.9817990151857778</v>
       </c>
       <c r="D9">
-        <v>1.004319646660443</v>
+        <v>1.004319646660442</v>
       </c>
       <c r="E9">
-        <v>0.9910609287311772</v>
+        <v>0.9910609287311767</v>
       </c>
       <c r="F9">
-        <v>0.9953873022548299</v>
+        <v>0.995387302254829</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038363719801421</v>
+        <v>1.03836371980142</v>
       </c>
       <c r="J9">
         <v>1.008011284189954</v>
@@ -711,10 +711,10 @@
         <v>1.017343027234317</v>
       </c>
       <c r="L9">
-        <v>1.00430072040883</v>
+        <v>1.004300720408829</v>
       </c>
       <c r="M9">
-        <v>1.008555663224304</v>
+        <v>1.008555663224303</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.971314800013082</v>
+        <v>0.9713148000130823</v>
       </c>
       <c r="D10">
-        <v>0.9963864106373007</v>
+        <v>0.9963864106373008</v>
       </c>
       <c r="E10">
-        <v>0.9825407387470031</v>
+        <v>0.9825407387470035</v>
       </c>
       <c r="F10">
-        <v>0.9839244421147813</v>
+        <v>0.9839244421147817</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>1.000714628751475</v>
       </c>
       <c r="K10">
-        <v>1.010821217516447</v>
+        <v>1.010821217516448</v>
       </c>
       <c r="L10">
-        <v>0.9972325468392736</v>
+        <v>0.9972325468392741</v>
       </c>
       <c r="M10">
-        <v>0.9985901411390049</v>
+        <v>0.9985901411390052</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665940651321464</v>
+        <v>0.9665940651321453</v>
       </c>
       <c r="D11">
-        <v>0.9928198367457683</v>
+        <v>0.9928198367457675</v>
       </c>
       <c r="E11">
-        <v>0.9787156411411654</v>
+        <v>0.9787156411411648</v>
       </c>
       <c r="F11">
-        <v>0.9787629650789568</v>
+        <v>0.9787629650789561</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.032666253544791</v>
       </c>
       <c r="J11">
-        <v>0.9974257714670557</v>
+        <v>0.9974257714670547</v>
       </c>
       <c r="K11">
-        <v>1.007878442744672</v>
+        <v>1.007878442744671</v>
       </c>
       <c r="L11">
-        <v>0.9940504303363279</v>
+        <v>0.9940504303363272</v>
       </c>
       <c r="M11">
-        <v>0.9940968100917968</v>
+        <v>0.9940968100917961</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.96481116857755</v>
+        <v>0.9648111685775511</v>
       </c>
       <c r="D12">
-        <v>0.9914738032736247</v>
+        <v>0.9914738032736257</v>
       </c>
       <c r="E12">
-        <v>0.9772728316392357</v>
+        <v>0.9772728316392369</v>
       </c>
       <c r="F12">
-        <v>0.9768135286373213</v>
+        <v>0.9768135286373216</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.031991620447186</v>
       </c>
       <c r="J12">
-        <v>0.9961832300112032</v>
+        <v>0.9961832300112043</v>
       </c>
       <c r="K12">
-        <v>1.006766195279183</v>
+        <v>1.006766195279184</v>
       </c>
       <c r="L12">
-        <v>0.9928487971547346</v>
+        <v>0.9928487971547357</v>
       </c>
       <c r="M12">
-        <v>0.9923988472521723</v>
+        <v>0.9923988472521726</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9651949747948521</v>
+        <v>0.9651949747948529</v>
       </c>
       <c r="D13">
-        <v>0.9917635195007106</v>
+        <v>0.9917635195007113</v>
       </c>
       <c r="E13">
-        <v>0.9775833421281724</v>
+        <v>0.9775833421281731</v>
       </c>
       <c r="F13">
-        <v>0.9772331910734441</v>
+        <v>0.9772331910734448</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.032136954439662</v>
       </c>
       <c r="J13">
-        <v>0.996450731258773</v>
+        <v>0.9964507312587738</v>
       </c>
       <c r="K13">
         <v>1.007005666438022</v>
       </c>
       <c r="L13">
-        <v>0.9931074649091858</v>
+        <v>0.9931074649091864</v>
       </c>
       <c r="M13">
-        <v>0.9927644130923766</v>
+        <v>0.9927644130923773</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,10 +880,10 @@
         <v>0.9664473038685164</v>
       </c>
       <c r="D14">
-        <v>0.9927090159420801</v>
+        <v>0.9927090159420802</v>
       </c>
       <c r="E14">
-        <v>0.9785968366448767</v>
+        <v>0.978596836644877</v>
       </c>
       <c r="F14">
         <v>0.9786024970109769</v>
@@ -895,16 +895,16 @@
         <v>1.032610767599484</v>
       </c>
       <c r="J14">
-        <v>0.9973234983541202</v>
+        <v>0.9973234983541203</v>
       </c>
       <c r="K14">
-        <v>1.007786903245133</v>
+        <v>1.007786903245134</v>
       </c>
       <c r="L14">
         <v>0.9939515124700611</v>
       </c>
       <c r="M14">
-        <v>0.9939570597118473</v>
+        <v>0.9939570597118477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9672149383324634</v>
+        <v>0.967214938332464</v>
       </c>
       <c r="D15">
-        <v>0.9932887040857664</v>
+        <v>0.993288704085767</v>
       </c>
       <c r="E15">
-        <v>0.9792183184943983</v>
+        <v>0.9792183184943988</v>
       </c>
       <c r="F15">
-        <v>0.9794418210573581</v>
+        <v>0.9794418210573582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032900891477938</v>
+        <v>1.032900891477939</v>
       </c>
       <c r="J15">
-        <v>0.9978584207717517</v>
+        <v>0.9978584207717521</v>
       </c>
       <c r="K15">
         <v>1.008265666812322</v>
       </c>
       <c r="L15">
-        <v>0.9944689095772389</v>
+        <v>0.9944689095772392</v>
       </c>
       <c r="M15">
-        <v>0.9946879849199761</v>
+        <v>0.9946879849199762</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9716241027855868</v>
+        <v>0.9716241027855874</v>
       </c>
       <c r="D16">
-        <v>0.9966202186113278</v>
+        <v>0.9966202186113284</v>
       </c>
       <c r="E16">
-        <v>0.9827916043657091</v>
+        <v>0.9827916043657098</v>
       </c>
       <c r="F16">
-        <v>0.9842626148323586</v>
+        <v>0.9842626148323588</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.034562611286546</v>
       </c>
       <c r="J16">
-        <v>1.00093005131502</v>
+        <v>1.000930051315021</v>
       </c>
       <c r="K16">
-        <v>1.011013907306846</v>
+        <v>1.011013907306847</v>
       </c>
       <c r="L16">
-        <v>0.9974410570538362</v>
+        <v>0.9974410570538369</v>
       </c>
       <c r="M16">
-        <v>0.9988844147266543</v>
+        <v>0.9988844147266546</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743399084246758</v>
+        <v>0.9743399084246764</v>
       </c>
       <c r="D17">
-        <v>0.9986737898360352</v>
+        <v>0.9986737898360355</v>
       </c>
       <c r="E17">
-        <v>0.984995600359884</v>
+        <v>0.9849956003598849</v>
       </c>
       <c r="F17">
-        <v>0.9872318931640079</v>
+        <v>0.9872318931640085</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.035581957246615</v>
       </c>
       <c r="J17">
-        <v>1.00282117603114</v>
+        <v>1.002821176031141</v>
       </c>
       <c r="K17">
         <v>1.012705112346982</v>
       </c>
       <c r="L17">
-        <v>0.9992719271269906</v>
+        <v>0.9992719271269913</v>
       </c>
       <c r="M17">
-        <v>1.001467559524896</v>
+        <v>1.001467559524897</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,31 +1029,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759066896017538</v>
+        <v>0.9759066896017545</v>
       </c>
       <c r="D18">
-        <v>0.9998590316935582</v>
+        <v>0.9998590316935588</v>
       </c>
       <c r="E18">
-        <v>0.9862681676396732</v>
+        <v>0.986268167639674</v>
       </c>
       <c r="F18">
-        <v>0.9889449026262096</v>
+        <v>0.9889449026262099</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036168501816164</v>
+        <v>1.036168501816165</v>
       </c>
       <c r="J18">
-        <v>1.003911863919466</v>
+        <v>1.003911863919467</v>
       </c>
       <c r="K18">
         <v>1.013680198877789</v>
       </c>
       <c r="L18">
-        <v>1.000328216327344</v>
+        <v>1.000328216327345</v>
       </c>
       <c r="M18">
         <v>1.002957229568071</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764380500344354</v>
+        <v>0.9764380500344367</v>
       </c>
       <c r="D19">
-        <v>1.000261079279105</v>
+        <v>1.000261079279106</v>
       </c>
       <c r="E19">
-        <v>0.9866999232358095</v>
+        <v>0.9866999232358107</v>
       </c>
       <c r="F19">
-        <v>0.9895258565262617</v>
+        <v>0.9895258565262627</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036367161963506</v>
       </c>
       <c r="J19">
-        <v>1.004281703963652</v>
+        <v>1.004281703963653</v>
       </c>
       <c r="K19">
-        <v>1.014010788434865</v>
+        <v>1.014010788434866</v>
       </c>
       <c r="L19">
-        <v>1.000686451499132</v>
+        <v>1.000686451499133</v>
       </c>
       <c r="M19">
-        <v>1.003462341188148</v>
+        <v>1.003462341188149</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740503330601429</v>
+        <v>0.9740503330601434</v>
       </c>
       <c r="D20">
-        <v>0.9984547717623754</v>
+        <v>0.9984547717623762</v>
       </c>
       <c r="E20">
-        <v>0.9847604866748216</v>
+        <v>0.9847604866748222</v>
       </c>
       <c r="F20">
-        <v>0.9869152918309523</v>
+        <v>0.9869152918309527</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>1.002619566243694</v>
       </c>
       <c r="K20">
-        <v>1.012524846673597</v>
+        <v>1.012524846673598</v>
       </c>
       <c r="L20">
-        <v>0.999076704247385</v>
+        <v>0.9990767042473856</v>
       </c>
       <c r="M20">
         <v>1.001192189410789</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660793548952167</v>
+        <v>0.9660793548952163</v>
       </c>
       <c r="D21">
-        <v>0.9924311902703857</v>
+        <v>0.9924311902703855</v>
       </c>
       <c r="E21">
-        <v>0.9782990086963022</v>
+        <v>0.9782990086963019</v>
       </c>
       <c r="F21">
-        <v>0.9782001817581804</v>
+        <v>0.9782001817581801</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032471619762929</v>
+        <v>1.032471619762928</v>
       </c>
       <c r="J21">
-        <v>0.9970670801957338</v>
+        <v>0.9970670801957335</v>
       </c>
       <c r="K21">
         <v>1.007557389009243</v>
       </c>
       <c r="L21">
-        <v>0.9937035159652244</v>
+        <v>0.9937035159652243</v>
       </c>
       <c r="M21">
-        <v>0.9936066725118369</v>
+        <v>0.9936066725118367</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9608962727003924</v>
+        <v>0.9608962727003916</v>
       </c>
       <c r="D22">
-        <v>0.9885201173421627</v>
+        <v>0.9885201173421624</v>
       </c>
       <c r="E22">
-        <v>0.9741082274075559</v>
+        <v>0.9741082274075554</v>
       </c>
       <c r="F22">
-        <v>0.9725327038273189</v>
+        <v>0.9725327038273187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030506009513023</v>
+        <v>1.030506009513024</v>
       </c>
       <c r="J22">
-        <v>0.9934541585970824</v>
+        <v>0.9934541585970819</v>
       </c>
       <c r="K22">
-        <v>1.004322475640337</v>
+        <v>1.004322475640336</v>
       </c>
       <c r="L22">
-        <v>0.9902106669262535</v>
+        <v>0.9902106669262529</v>
       </c>
       <c r="M22">
-        <v>0.9886686631849871</v>
+        <v>0.9886686631849869</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.96366097508278</v>
+        <v>0.9636609750827794</v>
       </c>
       <c r="D23">
-        <v>0.990605732265844</v>
+        <v>0.9906057322658435</v>
       </c>
       <c r="E23">
-        <v>0.976342570174206</v>
+        <v>0.9763425701742054</v>
       </c>
       <c r="F23">
-        <v>0.9755558628077556</v>
+        <v>0.9755558628077553</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.031555743699846</v>
       </c>
       <c r="J23">
-        <v>0.9953815242249483</v>
+        <v>0.9953815242249475</v>
       </c>
       <c r="K23">
         <v>1.006048430632895</v>
       </c>
       <c r="L23">
-        <v>0.9920736521024422</v>
+        <v>0.9920736521024417</v>
       </c>
       <c r="M23">
-        <v>0.9913031749765375</v>
+        <v>0.991303174976537</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,31 +1257,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974181233008217</v>
+        <v>0.974181233008216</v>
       </c>
       <c r="D24">
-        <v>0.9985537753409047</v>
+        <v>0.9985537753409039</v>
       </c>
       <c r="E24">
-        <v>0.9848667644423779</v>
+        <v>0.9848667644423771</v>
       </c>
       <c r="F24">
-        <v>0.987058408630601</v>
+        <v>0.9870584086306006</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035522491744239</v>
+        <v>1.035522491744238</v>
       </c>
       <c r="J24">
-        <v>1.002710703155748</v>
+        <v>1.002710703155747</v>
       </c>
       <c r="K24">
         <v>1.012606335994482</v>
       </c>
       <c r="L24">
-        <v>0.9991649528893024</v>
+        <v>0.9991649528893016</v>
       </c>
       <c r="M24">
         <v>1.001316669793633</v>
@@ -1295,25 +1295,25 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9857166182270256</v>
+        <v>0.9857166182270262</v>
       </c>
       <c r="D25">
-        <v>1.007287953695624</v>
+        <v>1.007287953695625</v>
       </c>
       <c r="E25">
-        <v>0.9942535157996538</v>
+        <v>0.9942535157996542</v>
       </c>
       <c r="F25">
-        <v>0.9996709164894896</v>
+        <v>0.9996709164894899</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039813266903282</v>
+        <v>1.039813266903283</v>
       </c>
       <c r="J25">
-        <v>1.010734425522342</v>
+        <v>1.010734425522343</v>
       </c>
       <c r="K25">
         <v>1.019774177319624</v>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9944446804029159</v>
+        <v>0.9944489888718105</v>
       </c>
       <c r="D2">
-        <v>1.013907644929751</v>
+        <v>1.013911241159947</v>
       </c>
       <c r="E2">
-        <v>1.00138373406867</v>
+        <v>1.001388091759613</v>
       </c>
       <c r="F2">
-        <v>1.009216037369981</v>
+        <v>1.009219230926312</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043010639119216</v>
+        <v>1.043012709301125</v>
       </c>
       <c r="J2">
-        <v>1.016792829312496</v>
+        <v>1.016797006924958</v>
       </c>
       <c r="K2">
-        <v>1.025176565649593</v>
+        <v>1.025180113491869</v>
       </c>
       <c r="L2">
-        <v>1.01282382488156</v>
+        <v>1.012828122074744</v>
       </c>
       <c r="M2">
-        <v>1.02054845410913</v>
+        <v>1.0205516041913</v>
+      </c>
+      <c r="N2">
+        <v>1.013265485409539</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000537894862049</v>
+        <v>1.000539391978958</v>
       </c>
       <c r="D3">
-        <v>1.018533547480631</v>
+        <v>1.018534950719099</v>
       </c>
       <c r="E3">
-        <v>1.006375823475998</v>
+        <v>1.006377682436228</v>
       </c>
       <c r="F3">
-        <v>1.015881685753281</v>
+        <v>1.015882918496735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045213310298331</v>
+        <v>1.045214107984438</v>
       </c>
       <c r="J3">
-        <v>1.021013907053958</v>
+        <v>1.021015363417757</v>
       </c>
       <c r="K3">
-        <v>1.02893465535592</v>
+        <v>1.02893604144318</v>
       </c>
       <c r="L3">
-        <v>1.016927769310365</v>
+        <v>1.016929604859442</v>
       </c>
       <c r="M3">
-        <v>1.0263153115665</v>
+        <v>1.026316529144607</v>
+      </c>
+      <c r="N3">
+        <v>1.016178721164458</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004376379731019</v>
+        <v>1.004376129814823</v>
       </c>
       <c r="D4">
-        <v>1.021449250619797</v>
+        <v>1.021449288736708</v>
       </c>
       <c r="E4">
-        <v>1.009526768324395</v>
+        <v>1.009527072023465</v>
       </c>
       <c r="F4">
-        <v>1.020081957927695</v>
+        <v>1.020081979042135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046586940004477</v>
+        <v>1.046586944306654</v>
       </c>
       <c r="J4">
-        <v>1.023668795930083</v>
+        <v>1.023668552331763</v>
       </c>
       <c r="K4">
-        <v>1.031295515037635</v>
+        <v>1.031295552718055</v>
       </c>
       <c r="L4">
-        <v>1.019511557507366</v>
+        <v>1.019511857626232</v>
       </c>
       <c r="M4">
-        <v>1.029943905649482</v>
+        <v>1.029943926521332</v>
+      </c>
+      <c r="N4">
+        <v>1.01800978944294</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005966317188737</v>
+        <v>1.005965348771679</v>
       </c>
       <c r="D5">
-        <v>1.022657262145791</v>
+        <v>1.02265673833429</v>
       </c>
       <c r="E5">
-        <v>1.010833319031575</v>
+        <v>1.010832982602647</v>
       </c>
       <c r="F5">
-        <v>1.021822065574841</v>
+        <v>1.021821589886011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047152510142418</v>
+        <v>1.047152187564135</v>
       </c>
       <c r="J5">
-        <v>1.024767415090075</v>
+        <v>1.024766470385653</v>
       </c>
       <c r="K5">
-        <v>1.032271769949054</v>
+        <v>1.032271251969222</v>
       </c>
       <c r="L5">
-        <v>1.020581364257329</v>
+        <v>1.020581031682814</v>
       </c>
       <c r="M5">
-        <v>1.031445881089373</v>
+        <v>1.031445410707114</v>
+      </c>
+      <c r="N5">
+        <v>1.01876719428888</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006231914381852</v>
+        <v>1.006230826225038</v>
       </c>
       <c r="D6">
-        <v>1.022859074488923</v>
+        <v>1.0228584570035</v>
       </c>
       <c r="E6">
-        <v>1.01105165708413</v>
+        <v>1.011051213950038</v>
       </c>
       <c r="F6">
-        <v>1.022112767896284</v>
+        <v>1.022112209498506</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047246786591443</v>
+        <v>1.047246409504556</v>
       </c>
       <c r="J6">
-        <v>1.024950874362336</v>
+        <v>1.024949812706398</v>
       </c>
       <c r="K6">
-        <v>1.032434754428309</v>
+        <v>1.032434143784657</v>
       </c>
       <c r="L6">
-        <v>1.020760047787217</v>
+        <v>1.02075960970552</v>
       </c>
       <c r="M6">
-        <v>1.031696724371769</v>
+        <v>1.031696172172184</v>
+      </c>
+      <c r="N6">
+        <v>1.018893655397386</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004397716405635</v>
+        <v>1.004397456827752</v>
       </c>
       <c r="D7">
-        <v>1.021465460832444</v>
+        <v>1.021465491394979</v>
       </c>
       <c r="E7">
-        <v>1.009544296556793</v>
+        <v>1.009544591649899</v>
       </c>
       <c r="F7">
-        <v>1.02010530857513</v>
+        <v>1.020105323003277</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046594543368813</v>
+        <v>1.046594543277693</v>
       </c>
       <c r="J7">
-        <v>1.023683543461766</v>
+        <v>1.02368329044323</v>
       </c>
       <c r="K7">
-        <v>1.031308622744844</v>
+        <v>1.031308652957527</v>
       </c>
       <c r="L7">
-        <v>1.019525915866178</v>
+        <v>1.019526207481847</v>
       </c>
       <c r="M7">
-        <v>1.029964065927121</v>
+        <v>1.029964080189562</v>
+      </c>
+      <c r="N7">
+        <v>1.01801995785553</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9965262378436904</v>
+        <v>0.996529580444894</v>
       </c>
       <c r="D8">
-        <v>1.015487562429611</v>
+        <v>1.015490405779507</v>
       </c>
       <c r="E8">
-        <v>1.00308779162147</v>
+        <v>1.003091291445737</v>
       </c>
       <c r="F8">
-        <v>1.011492921903947</v>
+        <v>1.011495440252464</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043766023559517</v>
+        <v>1.043767657150311</v>
       </c>
       <c r="J8">
-        <v>1.018235688680515</v>
+        <v>1.01823893339039</v>
       </c>
       <c r="K8">
-        <v>1.02646175319827</v>
+        <v>1.026464559490922</v>
       </c>
       <c r="L8">
-        <v>1.01422609863293</v>
+        <v>1.014229551416183</v>
       </c>
       <c r="M8">
-        <v>1.022519432580099</v>
+        <v>1.02252191778127</v>
+      </c>
+      <c r="N8">
+        <v>1.014261549171809</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9817990151857778</v>
+        <v>0.9818093238781518</v>
       </c>
       <c r="D9">
-        <v>1.004319646660442</v>
+        <v>1.0043279063376</v>
       </c>
       <c r="E9">
-        <v>0.9910609287311767</v>
+        <v>0.9910705998138876</v>
       </c>
       <c r="F9">
-        <v>0.995387302254829</v>
+        <v>0.9953947275335687</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03836371980142</v>
+        <v>1.03836848847963</v>
       </c>
       <c r="J9">
-        <v>1.008011284189954</v>
+        <v>1.00802120960466</v>
       </c>
       <c r="K9">
-        <v>1.017343027234317</v>
+        <v>1.017351154379821</v>
       </c>
       <c r="L9">
-        <v>1.004300720408829</v>
+        <v>1.004310230921368</v>
       </c>
       <c r="M9">
-        <v>1.008555663224303</v>
+        <v>1.008562966594181</v>
+      </c>
+      <c r="N9">
+        <v>1.00719839295956</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713148000130823</v>
+        <v>0.9713302755725741</v>
       </c>
       <c r="D10">
-        <v>0.9963864106373008</v>
+        <v>0.9963986657825522</v>
       </c>
       <c r="E10">
-        <v>0.9825407387470035</v>
+        <v>0.9825549602769144</v>
       </c>
       <c r="F10">
-        <v>0.9839244421147817</v>
+        <v>0.9839355639108756</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034446310801743</v>
+        <v>1.034453384347533</v>
       </c>
       <c r="J10">
-        <v>1.000714628751475</v>
+        <v>1.000729437356787</v>
       </c>
       <c r="K10">
-        <v>1.010821217516448</v>
+        <v>1.010833249301079</v>
       </c>
       <c r="L10">
-        <v>0.9972325468392741</v>
+        <v>0.9972464995346366</v>
       </c>
       <c r="M10">
-        <v>0.9985901411390052</v>
+        <v>0.9986010534668128</v>
+      </c>
+      <c r="N10">
+        <v>1.002152163762085</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665940651321453</v>
+        <v>0.9666119308843631</v>
       </c>
       <c r="D11">
-        <v>0.9928198367457675</v>
+        <v>0.9928339334179842</v>
       </c>
       <c r="E11">
-        <v>0.9787156411411648</v>
+        <v>0.9787319590107646</v>
       </c>
       <c r="F11">
-        <v>0.9787629650789561</v>
+        <v>0.9787758136854767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032666253544791</v>
+        <v>1.03267438746437</v>
       </c>
       <c r="J11">
-        <v>0.9974257714670547</v>
+        <v>0.9974428182150621</v>
       </c>
       <c r="K11">
-        <v>1.007878442744671</v>
+        <v>1.007892268520454</v>
       </c>
       <c r="L11">
-        <v>0.9940504303363272</v>
+        <v>0.9940664226268104</v>
       </c>
       <c r="M11">
-        <v>0.9940968100917961</v>
+        <v>0.9941094023703999</v>
+      </c>
+      <c r="N11">
+        <v>0.9998765226162516</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9648111685775511</v>
+        <v>0.9648299480460318</v>
       </c>
       <c r="D12">
-        <v>0.9914738032736257</v>
+        <v>0.9914886027501796</v>
       </c>
       <c r="E12">
-        <v>0.9772728316392369</v>
+        <v>0.9772899493632012</v>
       </c>
       <c r="F12">
-        <v>0.9768135286373216</v>
+        <v>0.9768270402024658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031991620447186</v>
+        <v>1.032000158749452</v>
       </c>
       <c r="J12">
-        <v>0.9961832300112043</v>
+        <v>0.9962011288761101</v>
       </c>
       <c r="K12">
-        <v>1.006766195279184</v>
+        <v>1.006780704790945</v>
       </c>
       <c r="L12">
-        <v>0.9928487971547357</v>
+        <v>0.9928655665228096</v>
       </c>
       <c r="M12">
-        <v>0.9923988472521726</v>
+        <v>0.9924120835066098</v>
+      </c>
+      <c r="N12">
+        <v>0.9990166262713521</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9651949747948529</v>
+        <v>0.9652135570446314</v>
       </c>
       <c r="D13">
-        <v>0.9917635195007113</v>
+        <v>0.9917781673376049</v>
       </c>
       <c r="E13">
-        <v>0.9775833421281731</v>
+        <v>0.9776002872823542</v>
       </c>
       <c r="F13">
-        <v>0.9772331910734448</v>
+        <v>0.9772465594106997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032136954439662</v>
+        <v>1.032145405504503</v>
       </c>
       <c r="J13">
-        <v>0.9964507312587738</v>
+        <v>0.996468446363144</v>
       </c>
       <c r="K13">
-        <v>1.007005666438022</v>
+        <v>1.007020028467393</v>
       </c>
       <c r="L13">
-        <v>0.9931074649091864</v>
+        <v>0.9931240666739293</v>
       </c>
       <c r="M13">
-        <v>0.9927644130923773</v>
+        <v>0.9927775102663834</v>
+      </c>
+      <c r="N13">
+        <v>0.999201756074768</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9664473038685164</v>
+        <v>0.9664652446021311</v>
       </c>
       <c r="D14">
-        <v>0.9927090159420802</v>
+        <v>0.9927231703124009</v>
       </c>
       <c r="E14">
-        <v>0.978596836644877</v>
+        <v>0.978613220184389</v>
       </c>
       <c r="F14">
-        <v>0.9786024970109769</v>
+        <v>0.9786153999619251</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032610767599484</v>
+        <v>1.03261893472378</v>
       </c>
       <c r="J14">
-        <v>0.9973234983541203</v>
+        <v>0.9973406151008608</v>
       </c>
       <c r="K14">
-        <v>1.007786903245134</v>
+        <v>1.007800785172748</v>
       </c>
       <c r="L14">
-        <v>0.9939515124700611</v>
+        <v>0.9939675685837641</v>
       </c>
       <c r="M14">
-        <v>0.9939570597118477</v>
+        <v>0.9939697047994304</v>
+      </c>
+      <c r="N14">
+        <v>0.9998057478383318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.967214938332464</v>
+        <v>0.9672324873326992</v>
       </c>
       <c r="D15">
-        <v>0.993288704085767</v>
+        <v>0.9933025569693988</v>
       </c>
       <c r="E15">
-        <v>0.9792183184943988</v>
+        <v>0.9792343588842815</v>
       </c>
       <c r="F15">
-        <v>0.9794418210573582</v>
+        <v>0.9794544402076943</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032900891477939</v>
+        <v>1.032908885087253</v>
       </c>
       <c r="J15">
-        <v>0.9978584207717521</v>
+        <v>0.9978751716738439</v>
       </c>
       <c r="K15">
-        <v>1.008265666812322</v>
+        <v>1.008279255294909</v>
       </c>
       <c r="L15">
-        <v>0.9944689095772392</v>
+        <v>0.9944846321447826</v>
       </c>
       <c r="M15">
-        <v>0.9946879849199762</v>
+        <v>0.9947003541847579</v>
+      </c>
+      <c r="N15">
+        <v>1.000175917435622</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9716241027855874</v>
+        <v>0.9716394231767301</v>
       </c>
       <c r="D16">
-        <v>0.9966202186113284</v>
+        <v>0.9966323540557662</v>
       </c>
       <c r="E16">
-        <v>0.9827916043657098</v>
+        <v>0.9828056896075916</v>
       </c>
       <c r="F16">
-        <v>0.9842626148323588</v>
+        <v>0.9842736248959029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034562611286546</v>
+        <v>1.034569615866462</v>
       </c>
       <c r="J16">
-        <v>1.000930051315021</v>
+        <v>1.000944714167849</v>
       </c>
       <c r="K16">
-        <v>1.011013907306847</v>
+        <v>1.011025822357941</v>
       </c>
       <c r="L16">
-        <v>0.9974410570538369</v>
+        <v>0.9974548770014867</v>
       </c>
       <c r="M16">
-        <v>0.9988844147266546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9988952182244293</v>
+      </c>
+      <c r="N16">
+        <v>1.002301198020261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743399084246764</v>
+        <v>0.9743538737326982</v>
       </c>
       <c r="D17">
-        <v>0.9986737898360355</v>
+        <v>0.9986848791630712</v>
       </c>
       <c r="E17">
-        <v>0.9849956003598849</v>
+        <v>0.98500849440661</v>
       </c>
       <c r="F17">
-        <v>0.9872318931640085</v>
+        <v>0.987241929375649</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035581957246615</v>
+        <v>1.03558835888513</v>
       </c>
       <c r="J17">
-        <v>1.002821176031141</v>
+        <v>1.002834563669793</v>
       </c>
       <c r="K17">
-        <v>1.012705112346982</v>
+        <v>1.012716006570798</v>
       </c>
       <c r="L17">
-        <v>0.9992719271269913</v>
+        <v>0.9992845860446392</v>
       </c>
       <c r="M17">
-        <v>1.001467559524897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.001477413797597</v>
+      </c>
+      <c r="N17">
+        <v>1.003609395717287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759066896017545</v>
+        <v>0.9759198790467438</v>
       </c>
       <c r="D18">
-        <v>0.9998590316935588</v>
+        <v>0.999869521440475</v>
       </c>
       <c r="E18">
-        <v>0.986268167639674</v>
+        <v>0.986280378867705</v>
       </c>
       <c r="F18">
-        <v>0.9889449026262099</v>
+        <v>0.9889543827874355</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036168501816165</v>
+        <v>1.036174557699454</v>
       </c>
       <c r="J18">
-        <v>1.003911863919467</v>
+        <v>1.00392451951798</v>
       </c>
       <c r="K18">
-        <v>1.013680198877789</v>
+        <v>1.013690507494426</v>
       </c>
       <c r="L18">
-        <v>1.000328216327345</v>
+        <v>1.000340209085592</v>
       </c>
       <c r="M18">
-        <v>1.002957229568071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.002966541309478</v>
+      </c>
+      <c r="N18">
+        <v>1.004363778442492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764380500344367</v>
+        <v>0.9764509773137355</v>
       </c>
       <c r="D19">
-        <v>1.000261079279106</v>
+        <v>1.000271366326037</v>
       </c>
       <c r="E19">
-        <v>0.9866999232358107</v>
+        <v>0.9867119036099303</v>
       </c>
       <c r="F19">
-        <v>0.9895258565262627</v>
+        <v>0.9895351490488689</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036367161963506</v>
+        <v>1.036373100926966</v>
       </c>
       <c r="J19">
-        <v>1.004281703963653</v>
+        <v>1.004294111890475</v>
       </c>
       <c r="K19">
-        <v>1.014010788434866</v>
+        <v>1.014020898988889</v>
       </c>
       <c r="L19">
-        <v>1.000686451499133</v>
+        <v>1.000698218931236</v>
       </c>
       <c r="M19">
-        <v>1.003462341188149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.003471469763627</v>
+      </c>
+      <c r="N19">
+        <v>1.004619562392169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740503330601434</v>
+        <v>0.9740644422327323</v>
       </c>
       <c r="D20">
-        <v>0.9984547717623762</v>
+        <v>0.9984659722174943</v>
       </c>
       <c r="E20">
-        <v>0.9847604866748222</v>
+        <v>0.9847735072705566</v>
       </c>
       <c r="F20">
-        <v>0.9869152918309527</v>
+        <v>0.9869254312710659</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035473426759358</v>
+        <v>1.035479892466637</v>
       </c>
       <c r="J20">
-        <v>1.002619566243694</v>
+        <v>1.002633089468444</v>
       </c>
       <c r="K20">
-        <v>1.012524846673598</v>
+        <v>1.012535849393819</v>
       </c>
       <c r="L20">
-        <v>0.9990767042473856</v>
+        <v>0.9990894865758364</v>
       </c>
       <c r="M20">
-        <v>1.001192189410789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.001202144358717</v>
+      </c>
+      <c r="N20">
+        <v>1.003469941905806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660793548952163</v>
+        <v>0.9660974837989046</v>
       </c>
       <c r="D21">
-        <v>0.9924311902703855</v>
+        <v>0.9924454894180749</v>
       </c>
       <c r="E21">
-        <v>0.9782990086963019</v>
+        <v>0.9783155570128744</v>
       </c>
       <c r="F21">
-        <v>0.9782001817581801</v>
+        <v>0.978213221136209</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032471619762928</v>
+        <v>1.032479870200389</v>
       </c>
       <c r="J21">
-        <v>0.9970670801957335</v>
+        <v>0.9970843725513233</v>
       </c>
       <c r="K21">
-        <v>1.007557389009243</v>
+        <v>1.007571411819157</v>
       </c>
       <c r="L21">
-        <v>0.9937035159652243</v>
+        <v>0.9937197322039211</v>
       </c>
       <c r="M21">
-        <v>0.9936066725118367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9936194501556409</v>
+      </c>
+      <c r="N21">
+        <v>0.9996282996295099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9608962727003916</v>
+        <v>0.9609170805642016</v>
       </c>
       <c r="D22">
-        <v>0.9885201173421624</v>
+        <v>0.9885364746505467</v>
       </c>
       <c r="E22">
-        <v>0.9741082274075554</v>
+        <v>0.9741271176581163</v>
       </c>
       <c r="F22">
-        <v>0.9725327038273187</v>
+        <v>0.9725476927638523</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030506009513024</v>
+        <v>1.030515443602048</v>
       </c>
       <c r="J22">
-        <v>0.9934541585970819</v>
+        <v>0.9934739422593595</v>
       </c>
       <c r="K22">
-        <v>1.004322475640336</v>
+        <v>1.004338498914116</v>
       </c>
       <c r="L22">
-        <v>0.9902106669262529</v>
+        <v>0.9902291561509774</v>
       </c>
       <c r="M22">
-        <v>0.9886686631849869</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.988683332548444</v>
+      </c>
+      <c r="N22">
+        <v>0.9971277245519941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9636609750827794</v>
+        <v>0.9636803473126151</v>
       </c>
       <c r="D23">
-        <v>0.9906057322658435</v>
+        <v>0.9906209873270507</v>
       </c>
       <c r="E23">
-        <v>0.9763425701742054</v>
+        <v>0.9763602063319952</v>
       </c>
       <c r="F23">
-        <v>0.9755558628077553</v>
+        <v>0.9755698053017168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031555743699846</v>
+        <v>1.031564544052658</v>
       </c>
       <c r="J23">
-        <v>0.9953815242249475</v>
+        <v>0.9953999748634775</v>
       </c>
       <c r="K23">
-        <v>1.006048430632895</v>
+        <v>1.006063383097376</v>
       </c>
       <c r="L23">
-        <v>0.9920736521024417</v>
+        <v>0.9920909248114294</v>
       </c>
       <c r="M23">
-        <v>0.991303174976537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.991316829527762</v>
+      </c>
+      <c r="N23">
+        <v>0.9984617683928658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974181233008216</v>
+        <v>0.9741952771299026</v>
       </c>
       <c r="D24">
-        <v>0.9985537753409039</v>
+        <v>0.9985649255494123</v>
       </c>
       <c r="E24">
-        <v>0.9848667644423771</v>
+        <v>0.9848797278191916</v>
       </c>
       <c r="F24">
-        <v>0.9870584086306006</v>
+        <v>0.9870685013893783</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035522491744238</v>
+        <v>1.03552892848336</v>
       </c>
       <c r="J24">
-        <v>1.002710703155747</v>
+        <v>1.002724165078763</v>
       </c>
       <c r="K24">
-        <v>1.012606335994482</v>
+        <v>1.012617289659626</v>
       </c>
       <c r="L24">
-        <v>0.9991649528893016</v>
+        <v>0.9991776794197276</v>
       </c>
       <c r="M24">
-        <v>1.001316669793633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.001326579216522</v>
+      </c>
+      <c r="N24">
+        <v>1.003532981788801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9857166182270262</v>
+        <v>0.9857250425730836</v>
       </c>
       <c r="D25">
-        <v>1.007287953695625</v>
+        <v>1.007294751455744</v>
       </c>
       <c r="E25">
-        <v>0.9942535157996542</v>
+        <v>0.9942615213695012</v>
       </c>
       <c r="F25">
-        <v>0.9996709164894899</v>
+        <v>0.9996770058423047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039813266903283</v>
+        <v>1.039817190670209</v>
       </c>
       <c r="J25">
-        <v>1.010734425522343</v>
+        <v>1.010742554743957</v>
       </c>
       <c r="K25">
-        <v>1.019774177319624</v>
+        <v>1.019780871492237</v>
       </c>
       <c r="L25">
-        <v>1.006941698384044</v>
+        <v>1.006949577833696</v>
       </c>
       <c r="M25">
-        <v>1.012274343204442</v>
+        <v>1.012280337949089</v>
+      </c>
+      <c r="N25">
+        <v>1.009080593179853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9944489888718105</v>
+        <v>1.008232660319854</v>
       </c>
       <c r="D2">
-        <v>1.013911241159947</v>
+        <v>1.023939774004759</v>
       </c>
       <c r="E2">
-        <v>1.001388091759613</v>
+        <v>1.021527069039067</v>
       </c>
       <c r="F2">
-        <v>1.009219230926312</v>
+        <v>1.02859099617135</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043012709301125</v>
+        <v>1.045201264075087</v>
       </c>
       <c r="J2">
-        <v>1.016797006924958</v>
+        <v>1.030169891569475</v>
       </c>
       <c r="K2">
-        <v>1.025180113491869</v>
+        <v>1.035075368026265</v>
       </c>
       <c r="L2">
-        <v>1.012828122074744</v>
+        <v>1.032694427848564</v>
       </c>
       <c r="M2">
-        <v>1.0205516041913</v>
+        <v>1.039665880403901</v>
       </c>
       <c r="N2">
-        <v>1.013265485409539</v>
+        <v>1.031632850977651</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000539391978958</v>
+        <v>1.01444953068791</v>
       </c>
       <c r="D3">
-        <v>1.018534950719099</v>
+        <v>1.02860527387253</v>
       </c>
       <c r="E3">
-        <v>1.006377682436228</v>
+        <v>1.026898591177728</v>
       </c>
       <c r="F3">
-        <v>1.015882918496735</v>
+        <v>1.03450554307288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045214107984438</v>
+        <v>1.047044799932465</v>
       </c>
       <c r="J3">
-        <v>1.021015363417757</v>
+        <v>1.034553890308284</v>
       </c>
       <c r="K3">
-        <v>1.02893604144318</v>
+        <v>1.038884773827445</v>
       </c>
       <c r="L3">
-        <v>1.016929604859442</v>
+        <v>1.037198489703137</v>
       </c>
       <c r="M3">
-        <v>1.026316529144607</v>
+        <v>1.044715163996024</v>
       </c>
       <c r="N3">
-        <v>1.016178721164458</v>
+        <v>1.036023075497512</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004376129814823</v>
+        <v>1.018369186642812</v>
       </c>
       <c r="D4">
-        <v>1.021449288736708</v>
+        <v>1.031548992428163</v>
       </c>
       <c r="E4">
-        <v>1.009527072023465</v>
+        <v>1.030291517031844</v>
       </c>
       <c r="F4">
-        <v>1.020081979042135</v>
+        <v>1.038242539744563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046586944306654</v>
+        <v>1.048196155350877</v>
       </c>
       <c r="J4">
-        <v>1.023668552331763</v>
+        <v>1.037314399221666</v>
       </c>
       <c r="K4">
-        <v>1.031295552718055</v>
+        <v>1.041280994968912</v>
       </c>
       <c r="L4">
-        <v>1.019511857626232</v>
+        <v>1.040037595484676</v>
       </c>
       <c r="M4">
-        <v>1.029943926521332</v>
+        <v>1.047900321275763</v>
       </c>
       <c r="N4">
-        <v>1.01800978944294</v>
+        <v>1.038787504650186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005965348771679</v>
+        <v>1.01999349837679</v>
       </c>
       <c r="D5">
-        <v>1.02265673833429</v>
+        <v>1.032769312225202</v>
       </c>
       <c r="E5">
-        <v>1.010832982602647</v>
+        <v>1.031698984777315</v>
       </c>
       <c r="F5">
-        <v>1.021821589886011</v>
+        <v>1.039793004106243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047152187564135</v>
+        <v>1.048670594570404</v>
       </c>
       <c r="J5">
-        <v>1.024766470385653</v>
+        <v>1.038457455194092</v>
       </c>
       <c r="K5">
-        <v>1.032271251969222</v>
+        <v>1.042272594037734</v>
       </c>
       <c r="L5">
-        <v>1.020581031682814</v>
+        <v>1.041213912852524</v>
       </c>
       <c r="M5">
-        <v>1.031445410707114</v>
+        <v>1.049220589683691</v>
       </c>
       <c r="N5">
-        <v>1.01876719428888</v>
+        <v>1.039932183893202</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006230826225038</v>
+        <v>1.020264881112306</v>
       </c>
       <c r="D6">
-        <v>1.0228584570035</v>
+        <v>1.03297322115696</v>
       </c>
       <c r="E6">
-        <v>1.011051213950038</v>
+        <v>1.031934220653064</v>
       </c>
       <c r="F6">
-        <v>1.022112209498506</v>
+        <v>1.040052155655308</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047246409504556</v>
+        <v>1.048749702427759</v>
       </c>
       <c r="J6">
-        <v>1.024949812706398</v>
+        <v>1.038648377265622</v>
       </c>
       <c r="K6">
-        <v>1.032434143784657</v>
+        <v>1.042438181888457</v>
       </c>
       <c r="L6">
-        <v>1.02075960970552</v>
+        <v>1.041410432575672</v>
       </c>
       <c r="M6">
-        <v>1.031696172172184</v>
+        <v>1.049441192138121</v>
       </c>
       <c r="N6">
-        <v>1.018893655397386</v>
+        <v>1.040123377095973</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004397456827752</v>
+        <v>1.018390981678579</v>
       </c>
       <c r="D7">
-        <v>1.021465491394979</v>
+        <v>1.031565365071874</v>
       </c>
       <c r="E7">
-        <v>1.009544591649899</v>
+        <v>1.030310396866256</v>
       </c>
       <c r="F7">
-        <v>1.020105323003277</v>
+        <v>1.038263336669017</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046594543277693</v>
+        <v>1.048202532065554</v>
       </c>
       <c r="J7">
-        <v>1.02368329044323</v>
+        <v>1.037329740401693</v>
       </c>
       <c r="K7">
-        <v>1.031308652957527</v>
+        <v>1.041294305873371</v>
       </c>
       <c r="L7">
-        <v>1.019526207481847</v>
+        <v>1.040053380240868</v>
       </c>
       <c r="M7">
-        <v>1.029964080189562</v>
+        <v>1.047918035411898</v>
       </c>
       <c r="N7">
-        <v>1.01801995785553</v>
+        <v>1.038802867616447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996529580444894</v>
+        <v>1.01035575039249</v>
       </c>
       <c r="D8">
-        <v>1.015490405779507</v>
+        <v>1.025532550881994</v>
       </c>
       <c r="E8">
-        <v>1.003091291445737</v>
+        <v>1.023360111335728</v>
       </c>
       <c r="F8">
-        <v>1.011495440252464</v>
+        <v>1.030609129079952</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043767657150311</v>
+        <v>1.045833116248174</v>
       </c>
       <c r="J8">
-        <v>1.01823893339039</v>
+        <v>1.031667760460892</v>
       </c>
       <c r="K8">
-        <v>1.026464559490922</v>
+        <v>1.036377427137491</v>
       </c>
       <c r="L8">
-        <v>1.014229551416183</v>
+        <v>1.0342326856999</v>
       </c>
       <c r="M8">
-        <v>1.02252191778127</v>
+        <v>1.041389847967192</v>
       </c>
       <c r="N8">
-        <v>1.014261549171809</v>
+        <v>1.033132847014693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9818093238781518</v>
+        <v>0.9953503377752755</v>
       </c>
       <c r="D9">
-        <v>1.0043279063376</v>
+        <v>1.014288408950206</v>
       </c>
       <c r="E9">
-        <v>0.9910705998138876</v>
+        <v>1.010434471479594</v>
       </c>
       <c r="F9">
-        <v>0.9953947275335687</v>
+        <v>1.016382409847569</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03836848847963</v>
+        <v>1.041322569907628</v>
       </c>
       <c r="J9">
-        <v>1.00802120960466</v>
+        <v>1.021068362822629</v>
       </c>
       <c r="K9">
-        <v>1.017351154379821</v>
+        <v>1.027153843527737</v>
       </c>
       <c r="L9">
-        <v>1.004310230921368</v>
+        <v>1.023360495094442</v>
       </c>
       <c r="M9">
-        <v>1.008562966594181</v>
+        <v>1.029215170173085</v>
       </c>
       <c r="N9">
-        <v>1.00719839295956</v>
+        <v>1.022518397016015</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9713302755725741</v>
+        <v>0.9846902640110893</v>
       </c>
       <c r="D10">
-        <v>0.9963986657825522</v>
+        <v>1.00632183838905</v>
       </c>
       <c r="E10">
-        <v>0.9825549602769144</v>
+        <v>1.001293638731432</v>
       </c>
       <c r="F10">
-        <v>0.9839355639108756</v>
+        <v>1.00632610654957</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034453384347533</v>
+        <v>1.038063656324768</v>
       </c>
       <c r="J10">
-        <v>1.000729437356787</v>
+        <v>1.013524752395049</v>
       </c>
       <c r="K10">
-        <v>1.010833249301079</v>
+        <v>1.020577880570722</v>
       </c>
       <c r="L10">
-        <v>0.9972464995346366</v>
+        <v>1.015639575348093</v>
       </c>
       <c r="M10">
-        <v>0.9986010534668128</v>
+        <v>1.020582072919996</v>
       </c>
       <c r="N10">
-        <v>1.002152163762085</v>
+        <v>1.014964073796364</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9666119308843631</v>
+        <v>0.9798964444516486</v>
       </c>
       <c r="D11">
-        <v>0.9928339334179842</v>
+        <v>1.002746004076942</v>
       </c>
       <c r="E11">
-        <v>0.9787319590107646</v>
+        <v>0.9971942428752261</v>
       </c>
       <c r="F11">
-        <v>0.9787758136854767</v>
+        <v>1.001817053439544</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03267438746437</v>
+        <v>1.036586086739323</v>
       </c>
       <c r="J11">
-        <v>0.9974428182150621</v>
+        <v>1.010130147707922</v>
       </c>
       <c r="K11">
-        <v>1.007892268520454</v>
+        <v>1.017616319920128</v>
       </c>
       <c r="L11">
-        <v>0.9940664226268104</v>
+        <v>1.012169266351021</v>
       </c>
       <c r="M11">
-        <v>0.9941094023703999</v>
+        <v>1.016704783955893</v>
       </c>
       <c r="N11">
-        <v>0.9998765226162516</v>
+        <v>1.011564648381214</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9648299480460318</v>
+        <v>0.9780869467198748</v>
       </c>
       <c r="D12">
-        <v>0.9914886027501796</v>
+        <v>1.001397414642875</v>
       </c>
       <c r="E12">
-        <v>0.9772899493632012</v>
+        <v>0.9956486752525358</v>
       </c>
       <c r="F12">
-        <v>0.9768270402024658</v>
+        <v>1.000117153526771</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032000158749452</v>
+        <v>1.036026631462768</v>
       </c>
       <c r="J12">
-        <v>0.9962011288761101</v>
+        <v>1.008848557367153</v>
       </c>
       <c r="K12">
-        <v>1.006780704790945</v>
+        <v>1.016497891274553</v>
       </c>
       <c r="L12">
-        <v>0.9928655665228096</v>
+        <v>1.010859717299256</v>
       </c>
       <c r="M12">
-        <v>0.9924120835066098</v>
+        <v>1.01524210940408</v>
       </c>
       <c r="N12">
-        <v>0.9990166262713521</v>
+        <v>1.010281238035161</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9652135570446314</v>
+        <v>0.9784764327137339</v>
       </c>
       <c r="D13">
-        <v>0.9917781673376049</v>
+        <v>1.001687637228426</v>
       </c>
       <c r="E13">
-        <v>0.9776002872823542</v>
+        <v>0.9959812677069099</v>
       </c>
       <c r="F13">
-        <v>0.9772465594106997</v>
+        <v>1.00048295189156</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032145405504503</v>
+        <v>1.036147128077495</v>
       </c>
       <c r="J13">
-        <v>0.996468446363144</v>
+        <v>1.009124423332696</v>
       </c>
       <c r="K13">
-        <v>1.007020028467393</v>
+        <v>1.016738650536197</v>
       </c>
       <c r="L13">
-        <v>0.9931240666739293</v>
+        <v>1.011141573195052</v>
       </c>
       <c r="M13">
-        <v>0.9927775102663834</v>
+        <v>1.015556902317146</v>
       </c>
       <c r="N13">
-        <v>0.999201756074768</v>
+        <v>1.010557495762017</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9664652446021311</v>
+        <v>0.9797474726345732</v>
       </c>
       <c r="D14">
-        <v>0.9927231703124009</v>
+        <v>1.002634953286384</v>
       </c>
       <c r="E14">
-        <v>0.978613220184389</v>
+        <v>0.9970669623423687</v>
       </c>
       <c r="F14">
-        <v>0.9786153999619251</v>
+        <v>1.001677061049741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03261893472378</v>
+        <v>1.036540062565547</v>
       </c>
       <c r="J14">
-        <v>0.9973406151008608</v>
+        <v>1.010024641755392</v>
       </c>
       <c r="K14">
-        <v>1.007800785172748</v>
+        <v>1.017524252613264</v>
       </c>
       <c r="L14">
-        <v>0.9939675685837641</v>
+        <v>1.012061446029496</v>
       </c>
       <c r="M14">
-        <v>0.9939697047994304</v>
+        <v>1.016584347048016</v>
       </c>
       <c r="N14">
-        <v>0.9998057478383318</v>
+        <v>1.01145899259813</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9672324873326992</v>
+        <v>0.980526710647907</v>
       </c>
       <c r="D15">
-        <v>0.9933025569693988</v>
+        <v>1.003215883162091</v>
       </c>
       <c r="E15">
-        <v>0.9792343588842815</v>
+        <v>0.9977328125272956</v>
       </c>
       <c r="F15">
-        <v>0.9794544402076943</v>
+        <v>1.002409416219518</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032908885087253</v>
+        <v>1.036780734985343</v>
       </c>
       <c r="J15">
-        <v>0.9978751716738439</v>
+        <v>1.010576510145704</v>
       </c>
       <c r="K15">
-        <v>1.008279255294909</v>
+        <v>1.018005814503059</v>
       </c>
       <c r="L15">
-        <v>0.9944846321447826</v>
+        <v>1.012625445536825</v>
       </c>
       <c r="M15">
-        <v>0.9947003541847579</v>
+        <v>1.017214361285566</v>
       </c>
       <c r="N15">
-        <v>1.000175917435622</v>
+        <v>1.012011644704857</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9716394231767301</v>
+        <v>0.9850044886118069</v>
       </c>
       <c r="D16">
-        <v>0.9966323540557662</v>
+        <v>1.006556378631322</v>
       </c>
       <c r="E16">
-        <v>0.9828056896075916</v>
+        <v>1.001562588362661</v>
       </c>
       <c r="F16">
-        <v>0.9842736248959029</v>
+        <v>1.006621949931387</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034569615866462</v>
+        <v>1.038160264938062</v>
       </c>
       <c r="J16">
-        <v>1.000944714167849</v>
+        <v>1.013747222237292</v>
       </c>
       <c r="K16">
-        <v>1.011025822357941</v>
+        <v>1.020771923199507</v>
       </c>
       <c r="L16">
-        <v>0.9974548770014867</v>
+        <v>1.015867092019236</v>
       </c>
       <c r="M16">
-        <v>0.9988952182244293</v>
+        <v>1.020836334031283</v>
       </c>
       <c r="N16">
-        <v>1.002301198020261</v>
+        <v>1.015186859571301</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9743538737326982</v>
+        <v>0.9877642087960491</v>
       </c>
       <c r="D17">
-        <v>0.9986848791630712</v>
+        <v>1.00861703816294</v>
       </c>
       <c r="E17">
-        <v>0.98500849440661</v>
+        <v>1.00392595949568</v>
       </c>
       <c r="F17">
-        <v>0.987241929375649</v>
+        <v>1.009221748033585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03558835888513</v>
+        <v>1.039007389395143</v>
       </c>
       <c r="J17">
-        <v>1.002834563669793</v>
+        <v>1.015700848884001</v>
       </c>
       <c r="K17">
-        <v>1.012716006570798</v>
+        <v>1.022475647772791</v>
       </c>
       <c r="L17">
-        <v>0.9992845860446392</v>
+        <v>1.017865500812067</v>
       </c>
       <c r="M17">
-        <v>1.001477413797597</v>
+        <v>1.023069995771561</v>
       </c>
       <c r="N17">
-        <v>1.003609395717287</v>
+        <v>1.017143260591932</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9759198790467438</v>
+        <v>0.989356893494615</v>
       </c>
       <c r="D18">
-        <v>0.999869521440475</v>
+        <v>1.009806905599693</v>
       </c>
       <c r="E18">
-        <v>0.986280378867705</v>
+        <v>1.005290953910227</v>
       </c>
       <c r="F18">
-        <v>0.9889543827874355</v>
+        <v>1.010723380462196</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036174557699454</v>
+        <v>1.039495138845627</v>
       </c>
       <c r="J18">
-        <v>1.00392451951798</v>
+        <v>1.016828103373002</v>
       </c>
       <c r="K18">
-        <v>1.013690507494426</v>
+        <v>1.023458479317035</v>
       </c>
       <c r="L18">
-        <v>1.000340209085592</v>
+        <v>1.019018979329906</v>
       </c>
       <c r="M18">
-        <v>1.002966541309478</v>
+        <v>1.024359546459293</v>
       </c>
       <c r="N18">
-        <v>1.004363778442492</v>
+        <v>1.018272115911605</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9764509773137355</v>
+        <v>0.9898971330474508</v>
       </c>
       <c r="D19">
-        <v>1.000271366326037</v>
+        <v>1.010210610739761</v>
       </c>
       <c r="E19">
-        <v>0.9867119036099303</v>
+        <v>1.00575413540735</v>
       </c>
       <c r="F19">
-        <v>0.9895351490488689</v>
+        <v>1.01123294234472</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036373100926966</v>
+        <v>1.03966038771732</v>
       </c>
       <c r="J19">
-        <v>1.004294111890475</v>
+        <v>1.017210428992779</v>
       </c>
       <c r="K19">
-        <v>1.014020898988889</v>
+        <v>1.023791782133052</v>
       </c>
       <c r="L19">
-        <v>1.000698218931236</v>
+        <v>1.01941026420279</v>
       </c>
       <c r="M19">
-        <v>1.003471469763627</v>
+        <v>1.024797038264309</v>
       </c>
       <c r="N19">
-        <v>1.004619562392169</v>
+        <v>1.018654984477616</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9740644422327323</v>
+        <v>0.9874698913714294</v>
       </c>
       <c r="D20">
-        <v>0.9984659722174943</v>
+        <v>1.008397208073287</v>
       </c>
       <c r="E20">
-        <v>0.9847735072705566</v>
+        <v>1.003673801842956</v>
       </c>
       <c r="F20">
-        <v>0.9869254312710659</v>
+        <v>1.008944356152202</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035479892466637</v>
+        <v>1.038917163614808</v>
       </c>
       <c r="J20">
-        <v>1.002633089468444</v>
+        <v>1.015492521484529</v>
       </c>
       <c r="K20">
-        <v>1.012535849393819</v>
+        <v>1.022293992450706</v>
       </c>
       <c r="L20">
-        <v>0.9990894865758364</v>
+        <v>1.017652358021846</v>
       </c>
       <c r="M20">
-        <v>1.001202144358717</v>
+        <v>1.022831732245246</v>
       </c>
       <c r="N20">
-        <v>1.003469941905806</v>
+        <v>1.016934637343657</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660974837989046</v>
+        <v>0.9793739979409243</v>
       </c>
       <c r="D21">
-        <v>0.9924454894180749</v>
+        <v>1.002356566438884</v>
       </c>
       <c r="E21">
-        <v>0.9783155570128744</v>
+        <v>0.9967478975987702</v>
       </c>
       <c r="F21">
-        <v>0.978213221136209</v>
+        <v>1.001326132269336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032479870200389</v>
+        <v>1.036424651779102</v>
       </c>
       <c r="J21">
-        <v>0.9970843725513233</v>
+        <v>1.009760133023378</v>
       </c>
       <c r="K21">
-        <v>1.007571411819157</v>
+        <v>1.017293430064067</v>
       </c>
       <c r="L21">
-        <v>0.9937197322039211</v>
+        <v>1.011791145106551</v>
       </c>
       <c r="M21">
-        <v>0.9936194501556409</v>
+        <v>1.016282424148618</v>
       </c>
       <c r="N21">
-        <v>0.9996282996295099</v>
+        <v>1.011194108233377</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9609170805642016</v>
+        <v>0.9741155903999</v>
       </c>
       <c r="D22">
-        <v>0.9885364746505467</v>
+        <v>0.998439947331743</v>
       </c>
       <c r="E22">
-        <v>0.9741271176581163</v>
+        <v>0.9922600548010559</v>
       </c>
       <c r="F22">
-        <v>0.9725476927638523</v>
+        <v>0.9963903597348005</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030515443602048</v>
+        <v>1.034795699674735</v>
       </c>
       <c r="J22">
-        <v>0.9934739422593595</v>
+        <v>1.006035468196735</v>
       </c>
       <c r="K22">
-        <v>1.004338498914116</v>
+        <v>1.014042372649209</v>
       </c>
       <c r="L22">
-        <v>0.9902291561509774</v>
+        <v>1.007986416817112</v>
       </c>
       <c r="M22">
-        <v>0.988683332548444</v>
+        <v>1.012033665064612</v>
       </c>
       <c r="N22">
-        <v>0.9971277245519941</v>
+        <v>1.007464153955455</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9636803473126151</v>
+        <v>0.9769198860178747</v>
       </c>
       <c r="D23">
-        <v>0.9906209873270507</v>
+        <v>1.000527970771985</v>
       </c>
       <c r="E23">
-        <v>0.9763602063319952</v>
+        <v>0.9946523664333935</v>
       </c>
       <c r="F23">
-        <v>0.9755698053017168</v>
+        <v>0.9990213894530168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031564544052658</v>
+        <v>1.035665327921163</v>
       </c>
       <c r="J23">
-        <v>0.9953999748634775</v>
+        <v>1.008021920463124</v>
       </c>
       <c r="K23">
-        <v>1.006063383097376</v>
+        <v>1.015776406536028</v>
       </c>
       <c r="L23">
-        <v>0.9920909248114294</v>
+        <v>1.010015223466861</v>
       </c>
       <c r="M23">
-        <v>0.991316829527762</v>
+        <v>1.014298996130691</v>
       </c>
       <c r="N23">
-        <v>0.9984617683928658</v>
+        <v>1.009453427211912</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9741952771299026</v>
+        <v>0.9876029331659039</v>
       </c>
       <c r="D24">
-        <v>0.9985649255494123</v>
+        <v>1.008496577057238</v>
       </c>
       <c r="E24">
-        <v>0.9848797278191916</v>
+        <v>1.003787782692412</v>
       </c>
       <c r="F24">
-        <v>0.9870685013893783</v>
+        <v>1.009069743162166</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03552892848336</v>
+        <v>1.038957952380306</v>
       </c>
       <c r="J24">
-        <v>1.002724165078763</v>
+        <v>1.015586693459428</v>
       </c>
       <c r="K24">
-        <v>1.012617289659626</v>
+        <v>1.022376108333511</v>
       </c>
       <c r="L24">
-        <v>0.9991776794197276</v>
+        <v>1.017748705545203</v>
       </c>
       <c r="M24">
-        <v>1.001326579216522</v>
+        <v>1.022939434280971</v>
       </c>
       <c r="N24">
-        <v>1.003532981788801</v>
+        <v>1.017028943053562</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9857250425730836</v>
+        <v>0.9993383927703577</v>
       </c>
       <c r="D25">
-        <v>1.007294751455744</v>
+        <v>1.017273645040405</v>
       </c>
       <c r="E25">
-        <v>0.9942615213695012</v>
+        <v>1.013863036949503</v>
       </c>
       <c r="F25">
-        <v>0.9996770058423047</v>
+        <v>1.020155235687054</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039817190670209</v>
+        <v>1.042530965673411</v>
       </c>
       <c r="J25">
-        <v>1.010742554743957</v>
+        <v>1.023888043170589</v>
       </c>
       <c r="K25">
-        <v>1.019780871492237</v>
+        <v>1.029609599847617</v>
       </c>
       <c r="L25">
-        <v>1.006949577833696</v>
+        <v>1.026249892420662</v>
       </c>
       <c r="M25">
-        <v>1.012280337949089</v>
+        <v>1.032448521966816</v>
       </c>
       <c r="N25">
-        <v>1.009080593179853</v>
+        <v>1.025342081633491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008232660319854</v>
+        <v>0.9907269411137072</v>
       </c>
       <c r="D2">
-        <v>1.023939774004759</v>
+        <v>1.013580593533155</v>
       </c>
       <c r="E2">
-        <v>1.021527069039067</v>
+        <v>0.9984583429977615</v>
       </c>
       <c r="F2">
-        <v>1.02859099617135</v>
+        <v>1.014016216132384</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045201264075087</v>
+        <v>1.040328166289777</v>
       </c>
       <c r="J2">
-        <v>1.030169891569475</v>
+        <v>1.013188590056338</v>
       </c>
       <c r="K2">
-        <v>1.035075368026265</v>
+        <v>1.02485391659234</v>
       </c>
       <c r="L2">
-        <v>1.032694427848564</v>
+        <v>1.009939197416898</v>
       </c>
       <c r="M2">
-        <v>1.039665880403901</v>
+        <v>1.025283676197279</v>
       </c>
       <c r="N2">
-        <v>1.031632850977651</v>
+        <v>1.008337435383015</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01444953068791</v>
+        <v>0.9948059270491398</v>
       </c>
       <c r="D3">
-        <v>1.02860527387253</v>
+        <v>1.016711999534864</v>
       </c>
       <c r="E3">
-        <v>1.026898591177728</v>
+        <v>1.001672903903621</v>
       </c>
       <c r="F3">
-        <v>1.03450554307288</v>
+        <v>1.018072240175093</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047044799932465</v>
+        <v>1.041183040084714</v>
       </c>
       <c r="J3">
-        <v>1.034553890308284</v>
+        <v>1.015439196246591</v>
       </c>
       <c r="K3">
-        <v>1.038884773827445</v>
+        <v>1.027135421096826</v>
       </c>
       <c r="L3">
-        <v>1.037198489703137</v>
+        <v>1.012284424269935</v>
       </c>
       <c r="M3">
-        <v>1.044715163996024</v>
+        <v>1.028478989606768</v>
       </c>
       <c r="N3">
-        <v>1.036023075497512</v>
+        <v>1.009098033831798</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018369186642812</v>
+        <v>0.9973957173524167</v>
       </c>
       <c r="D4">
-        <v>1.031548992428163</v>
+        <v>1.018701884477946</v>
       </c>
       <c r="E4">
-        <v>1.030291517031844</v>
+        <v>1.003720059785353</v>
       </c>
       <c r="F4">
-        <v>1.038242539744563</v>
+        <v>1.020651611805095</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048196155350877</v>
+        <v>1.04171504623345</v>
       </c>
       <c r="J4">
-        <v>1.037314399221666</v>
+        <v>1.016866276368925</v>
       </c>
       <c r="K4">
-        <v>1.041280994968912</v>
+        <v>1.028579714829019</v>
       </c>
       <c r="L4">
-        <v>1.040037595484676</v>
+        <v>1.013773793359385</v>
       </c>
       <c r="M4">
-        <v>1.047900321275763</v>
+        <v>1.030507019103067</v>
       </c>
       <c r="N4">
-        <v>1.038787504650186</v>
+        <v>1.009580081461808</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01999349837679</v>
+        <v>0.9984729811174061</v>
       </c>
       <c r="D5">
-        <v>1.032769312225202</v>
+        <v>1.019529971348818</v>
       </c>
       <c r="E5">
-        <v>1.031698984777315</v>
+        <v>1.004573053210847</v>
       </c>
       <c r="F5">
-        <v>1.039793004106243</v>
+        <v>1.021725507445441</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048670594570404</v>
+        <v>1.041933720242284</v>
       </c>
       <c r="J5">
-        <v>1.038457455194092</v>
+        <v>1.017459418065985</v>
       </c>
       <c r="K5">
-        <v>1.042272594037734</v>
+        <v>1.029179427201324</v>
       </c>
       <c r="L5">
-        <v>1.041213912852524</v>
+        <v>1.01439337379776</v>
       </c>
       <c r="M5">
-        <v>1.049220589683691</v>
+        <v>1.031350400243799</v>
       </c>
       <c r="N5">
-        <v>1.039932183893202</v>
+        <v>1.009780376390425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020264881112306</v>
+        <v>0.998653195940109</v>
       </c>
       <c r="D6">
-        <v>1.03297322115696</v>
+        <v>1.019668521424558</v>
       </c>
       <c r="E6">
-        <v>1.031934220653064</v>
+        <v>1.004715833887906</v>
       </c>
       <c r="F6">
-        <v>1.040052155655308</v>
+        <v>1.021905214657821</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048749702427759</v>
+        <v>1.041970146800368</v>
       </c>
       <c r="J6">
-        <v>1.038648377265622</v>
+        <v>1.017558615637194</v>
       </c>
       <c r="K6">
-        <v>1.042438181888457</v>
+        <v>1.029279688954219</v>
       </c>
       <c r="L6">
-        <v>1.041410432575672</v>
+        <v>1.014497025299321</v>
       </c>
       <c r="M6">
-        <v>1.049441192138121</v>
+        <v>1.031491475540087</v>
       </c>
       <c r="N6">
-        <v>1.040123377095973</v>
+        <v>1.009813870288952</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018390981678579</v>
+        <v>0.9974101564277393</v>
       </c>
       <c r="D7">
-        <v>1.031565365071874</v>
+        <v>1.018712982348911</v>
       </c>
       <c r="E7">
-        <v>1.030310396866256</v>
+        <v>1.003731487197495</v>
       </c>
       <c r="F7">
-        <v>1.038263336669017</v>
+        <v>1.020666001964373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048202532065554</v>
+        <v>1.041717987631982</v>
       </c>
       <c r="J7">
-        <v>1.037329740401693</v>
+        <v>1.016874228440536</v>
       </c>
       <c r="K7">
-        <v>1.041294305873371</v>
+        <v>1.028587757315411</v>
       </c>
       <c r="L7">
-        <v>1.040053380240868</v>
+        <v>1.013782097717288</v>
       </c>
       <c r="M7">
-        <v>1.047918035411898</v>
+        <v>1.030518324217428</v>
       </c>
       <c r="N7">
-        <v>1.038802867616447</v>
+        <v>1.009582766996321</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01035575039249</v>
+        <v>0.9921159593422284</v>
       </c>
       <c r="D8">
-        <v>1.025532550881994</v>
+        <v>1.014646540052148</v>
       </c>
       <c r="E8">
-        <v>1.023360111335728</v>
+        <v>0.9995516750964692</v>
       </c>
       <c r="F8">
-        <v>1.030609129079952</v>
+        <v>1.015396523544658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045833116248174</v>
+        <v>1.040621506312579</v>
       </c>
       <c r="J8">
-        <v>1.031667760460892</v>
+        <v>1.013955359217813</v>
       </c>
       <c r="K8">
-        <v>1.036377427137491</v>
+        <v>1.025631703244777</v>
       </c>
       <c r="L8">
-        <v>1.0342326856999</v>
+        <v>1.010737722654083</v>
       </c>
       <c r="M8">
-        <v>1.041389847967192</v>
+        <v>1.026371900956172</v>
       </c>
       <c r="N8">
-        <v>1.033132847014693</v>
+        <v>1.008596615199063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9953503377752755</v>
+        <v>0.9823888331889922</v>
       </c>
       <c r="D9">
-        <v>1.014288408950206</v>
+        <v>1.007191272364954</v>
       </c>
       <c r="E9">
-        <v>1.010434471479594</v>
+        <v>0.9919231519430234</v>
       </c>
       <c r="F9">
-        <v>1.016382409847569</v>
+        <v>1.005749398153736</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041322569907628</v>
+        <v>1.038523410081612</v>
       </c>
       <c r="J9">
-        <v>1.021068362822629</v>
+        <v>1.008579190927091</v>
       </c>
       <c r="K9">
-        <v>1.027153843527737</v>
+        <v>1.020168743791568</v>
       </c>
       <c r="L9">
-        <v>1.023360495094442</v>
+        <v>1.005148643862113</v>
       </c>
       <c r="M9">
-        <v>1.029215170173085</v>
+        <v>1.018749879046241</v>
       </c>
       <c r="N9">
-        <v>1.022518397016015</v>
+        <v>1.006778497917059</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9846902640110893</v>
+        <v>0.9756093781363073</v>
       </c>
       <c r="D10">
-        <v>1.00632183838905</v>
+        <v>1.002009642614953</v>
       </c>
       <c r="E10">
-        <v>1.001293638731432</v>
+        <v>0.9866438396435363</v>
       </c>
       <c r="F10">
-        <v>1.00632610654957</v>
+        <v>0.9990514595281602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038063656324768</v>
+        <v>1.037007259675069</v>
       </c>
       <c r="J10">
-        <v>1.013524752395049</v>
+        <v>1.004825279017307</v>
       </c>
       <c r="K10">
-        <v>1.020577880570722</v>
+        <v>1.016342706897468</v>
       </c>
       <c r="L10">
-        <v>1.015639575348093</v>
+        <v>1.001258504950098</v>
       </c>
       <c r="M10">
-        <v>1.020582072919996</v>
+        <v>1.01343786131177</v>
       </c>
       <c r="N10">
-        <v>1.014964073796364</v>
+        <v>1.00550799748856</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9798964444516486</v>
+        <v>0.9725974042581577</v>
       </c>
       <c r="D11">
-        <v>1.002746004076942</v>
+        <v>0.9997117997814903</v>
       </c>
       <c r="E11">
-        <v>0.9971942428752261</v>
+        <v>0.9843079281493605</v>
       </c>
       <c r="F11">
-        <v>1.001817053439544</v>
+        <v>0.99608237295733</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036586086739323</v>
+        <v>1.036321494649472</v>
       </c>
       <c r="J11">
-        <v>1.010130147707922</v>
+        <v>1.003156330197934</v>
       </c>
       <c r="K11">
-        <v>1.017616319920128</v>
+        <v>1.014639153183763</v>
       </c>
       <c r="L11">
-        <v>1.012169266351021</v>
+        <v>0.9995319680609802</v>
       </c>
       <c r="M11">
-        <v>1.016704783955893</v>
+        <v>1.011078550097996</v>
       </c>
       <c r="N11">
-        <v>1.011564648381214</v>
+        <v>1.004942951914763</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9780869467198748</v>
+        <v>0.9714665476080639</v>
       </c>
       <c r="D12">
-        <v>1.001397414642875</v>
+        <v>0.9988497784478592</v>
       </c>
       <c r="E12">
-        <v>0.9956486752525358</v>
+        <v>0.98343240215445</v>
       </c>
       <c r="F12">
-        <v>1.000117153526771</v>
+        <v>0.9949686712546693</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036026631462768</v>
+        <v>1.036062246131141</v>
       </c>
       <c r="J12">
-        <v>1.008848557367153</v>
+        <v>1.002529584948127</v>
       </c>
       <c r="K12">
-        <v>1.016497891274553</v>
+        <v>1.01399904811413</v>
       </c>
       <c r="L12">
-        <v>1.010859717299256</v>
+        <v>0.9988840466150156</v>
       </c>
       <c r="M12">
-        <v>1.01524210940408</v>
+        <v>1.010192902587199</v>
       </c>
       <c r="N12">
-        <v>1.010281238035161</v>
+        <v>1.004730733052184</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9784764327137339</v>
+        <v>0.9717096765852457</v>
       </c>
       <c r="D13">
-        <v>1.001687637228426</v>
+        <v>0.9990350756687412</v>
       </c>
       <c r="E13">
-        <v>0.9959812677069099</v>
+        <v>0.9836205673941594</v>
       </c>
       <c r="F13">
-        <v>1.00048295189156</v>
+        <v>0.9952080635876284</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036147128077495</v>
+        <v>1.036118062731539</v>
       </c>
       <c r="J13">
-        <v>1.009124423332696</v>
+        <v>1.002664337573737</v>
       </c>
       <c r="K13">
-        <v>1.016738650536197</v>
+        <v>1.014136689347702</v>
       </c>
       <c r="L13">
-        <v>1.011141573195052</v>
+        <v>0.9990233318207288</v>
       </c>
       <c r="M13">
-        <v>1.015556902317146</v>
+        <v>1.010383304335025</v>
       </c>
       <c r="N13">
-        <v>1.010557495762017</v>
+        <v>1.004776362019005</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9797474726345732</v>
+        <v>0.9725041771954887</v>
       </c>
       <c r="D14">
-        <v>1.002634953286384</v>
+        <v>0.9996407204053367</v>
       </c>
       <c r="E14">
-        <v>0.9970669623423687</v>
+        <v>0.9842357195018863</v>
       </c>
       <c r="F14">
-        <v>1.001677061049741</v>
+        <v>0.9959905384325093</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036540062565547</v>
+        <v>1.036300158163731</v>
       </c>
       <c r="J14">
-        <v>1.010024641755392</v>
+        <v>1.003104664180305</v>
       </c>
       <c r="K14">
-        <v>1.017524252613264</v>
+        <v>1.014586393155775</v>
       </c>
       <c r="L14">
-        <v>1.012061446029496</v>
+        <v>0.9994785472079595</v>
       </c>
       <c r="M14">
-        <v>1.016584347048016</v>
+        <v>1.011005534223771</v>
       </c>
       <c r="N14">
-        <v>1.01145899259813</v>
+        <v>1.004925458060584</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.980526710647907</v>
+        <v>0.9729920767395559</v>
       </c>
       <c r="D15">
-        <v>1.003215883162091</v>
+        <v>1.000012740538392</v>
       </c>
       <c r="E15">
-        <v>0.9977328125272956</v>
+        <v>0.98461368169651</v>
       </c>
       <c r="F15">
-        <v>1.002409416219518</v>
+        <v>0.9964711934284564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036780734985343</v>
+        <v>1.036411749600029</v>
       </c>
       <c r="J15">
-        <v>1.010576510145704</v>
+        <v>1.003375050768684</v>
       </c>
       <c r="K15">
-        <v>1.018005814503059</v>
+        <v>1.014862490326286</v>
       </c>
       <c r="L15">
-        <v>1.012625445536825</v>
+        <v>0.9997581358385034</v>
       </c>
       <c r="M15">
-        <v>1.017214361285566</v>
+        <v>1.011387666503373</v>
       </c>
       <c r="N15">
-        <v>1.012011644704857</v>
+        <v>1.005017008578195</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850044886118069</v>
+        <v>0.9758076129346995</v>
       </c>
       <c r="D16">
-        <v>1.006556378631322</v>
+        <v>1.002160971247039</v>
       </c>
       <c r="E16">
-        <v>1.001562588362661</v>
+        <v>0.9867977838925907</v>
       </c>
       <c r="F16">
-        <v>1.006621949931387</v>
+        <v>0.9992470149993693</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038160264938062</v>
+        <v>1.037052144333466</v>
       </c>
       <c r="J16">
-        <v>1.013747222237292</v>
+        <v>1.004935101149289</v>
       </c>
       <c r="K16">
-        <v>1.020771923199507</v>
+        <v>1.016454754624191</v>
       </c>
       <c r="L16">
-        <v>1.015867092019236</v>
+        <v>1.0013721788525</v>
       </c>
       <c r="M16">
-        <v>1.020836334031283</v>
+        <v>1.013593160379594</v>
       </c>
       <c r="N16">
-        <v>1.015186859571301</v>
+        <v>1.005545175525601</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9877642087960491</v>
+        <v>0.9775528559875156</v>
       </c>
       <c r="D17">
-        <v>1.00861703816294</v>
+        <v>1.003493749245724</v>
       </c>
       <c r="E17">
-        <v>1.00392595949568</v>
+        <v>0.988154195498304</v>
       </c>
       <c r="F17">
-        <v>1.009221748033585</v>
+        <v>1.00096943566469</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039007389395143</v>
+        <v>1.037445924510962</v>
       </c>
       <c r="J17">
-        <v>1.015700848884001</v>
+        <v>1.005901838831766</v>
       </c>
       <c r="K17">
-        <v>1.022475647772791</v>
+        <v>1.017440796440849</v>
       </c>
       <c r="L17">
-        <v>1.017865500812067</v>
+        <v>1.002373162204411</v>
       </c>
       <c r="M17">
-        <v>1.023069995771561</v>
+        <v>1.014960488486544</v>
       </c>
       <c r="N17">
-        <v>1.017143260591932</v>
+        <v>1.005872423049505</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.989356893494615</v>
+        <v>0.9785634948420452</v>
       </c>
       <c r="D18">
-        <v>1.009806905599693</v>
+        <v>1.004265935786326</v>
       </c>
       <c r="E18">
-        <v>1.005290953910227</v>
+        <v>0.9889405750750855</v>
       </c>
       <c r="F18">
-        <v>1.010723380462196</v>
+        <v>1.001967488898178</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039495138845627</v>
+        <v>1.037672795580501</v>
       </c>
       <c r="J18">
-        <v>1.016828103373002</v>
+        <v>1.006461545934395</v>
       </c>
       <c r="K18">
-        <v>1.023458479317035</v>
+        <v>1.018011437674502</v>
       </c>
       <c r="L18">
-        <v>1.019018979329906</v>
+        <v>1.002952978899456</v>
       </c>
       <c r="M18">
-        <v>1.024359546459293</v>
+        <v>1.015752347123888</v>
       </c>
       <c r="N18">
-        <v>1.018272115911605</v>
+        <v>1.006061869111727</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9898971330474508</v>
+        <v>0.978906870365585</v>
       </c>
       <c r="D19">
-        <v>1.010210610739761</v>
+        <v>1.004528360041616</v>
       </c>
       <c r="E19">
-        <v>1.00575413540735</v>
+        <v>0.9892079079735453</v>
       </c>
       <c r="F19">
-        <v>1.01123294234472</v>
+        <v>1.002306693790133</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03966038771732</v>
+        <v>1.037749679180791</v>
       </c>
       <c r="J19">
-        <v>1.017210428992779</v>
+        <v>1.006651692044783</v>
       </c>
       <c r="K19">
-        <v>1.023791782133052</v>
+        <v>1.018205256781209</v>
       </c>
       <c r="L19">
-        <v>1.01941026420279</v>
+        <v>1.003150004579305</v>
       </c>
       <c r="M19">
-        <v>1.024797038264309</v>
+        <v>1.016021398784269</v>
       </c>
       <c r="N19">
-        <v>1.018654984477616</v>
+        <v>1.006126225259066</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9874698913714294</v>
+        <v>0.9773663704655873</v>
       </c>
       <c r="D20">
-        <v>1.008397208073287</v>
+        <v>1.003351295226458</v>
       </c>
       <c r="E20">
-        <v>1.003673801842956</v>
+        <v>0.9880091636172997</v>
       </c>
       <c r="F20">
-        <v>1.008944356152202</v>
+        <v>1.000785323057383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038917163614808</v>
+        <v>1.037403967619237</v>
       </c>
       <c r="J20">
-        <v>1.015492521484529</v>
+        <v>1.005798550875064</v>
       </c>
       <c r="K20">
-        <v>1.022293992450706</v>
+        <v>1.017335471010152</v>
       </c>
       <c r="L20">
-        <v>1.017652358021846</v>
+        <v>1.00226618605163</v>
       </c>
       <c r="M20">
-        <v>1.022831732245246</v>
+        <v>1.014814377547723</v>
       </c>
       <c r="N20">
-        <v>1.016934637343657</v>
+        <v>1.005837461265964</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9793739979409243</v>
+        <v>0.9722705548666203</v>
       </c>
       <c r="D21">
-        <v>1.002356566438884</v>
+        <v>0.9994626107964349</v>
       </c>
       <c r="E21">
-        <v>0.9967478975987702</v>
+        <v>0.9840547926555564</v>
       </c>
       <c r="F21">
-        <v>1.001326132269336</v>
+        <v>0.9957604228723436</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036424651779102</v>
+        <v>1.036246661579086</v>
       </c>
       <c r="J21">
-        <v>1.009760133023378</v>
+        <v>1.002975189754883</v>
       </c>
       <c r="K21">
-        <v>1.017293430064067</v>
+        <v>1.014454171338345</v>
       </c>
       <c r="L21">
-        <v>1.011791145106551</v>
+        <v>0.9993446824466672</v>
       </c>
       <c r="M21">
-        <v>1.016282424148618</v>
+        <v>1.010822562969153</v>
       </c>
       <c r="N21">
-        <v>1.011194108233377</v>
+        <v>1.004881618269488</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9741155903999</v>
+        <v>0.9689964264638374</v>
       </c>
       <c r="D22">
-        <v>0.998439947331743</v>
+        <v>0.9969682652035307</v>
       </c>
       <c r="E22">
-        <v>0.9922600548010559</v>
+        <v>0.9815228258045807</v>
       </c>
       <c r="F22">
-        <v>0.9963903597348005</v>
+        <v>0.9925380144040685</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034795699674735</v>
+        <v>1.035492768262485</v>
       </c>
       <c r="J22">
-        <v>1.006035468196735</v>
+        <v>1.001160395289458</v>
       </c>
       <c r="K22">
-        <v>1.014042372649209</v>
+        <v>1.012600021552958</v>
       </c>
       <c r="L22">
-        <v>1.007986416817112</v>
+        <v>0.9974694259287787</v>
       </c>
       <c r="M22">
-        <v>1.012033665064612</v>
+        <v>1.008258758334441</v>
       </c>
       <c r="N22">
-        <v>1.007464153955455</v>
+        <v>1.004267075966032</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9769198860178747</v>
+        <v>0.9707389650251644</v>
       </c>
       <c r="D23">
-        <v>1.000527970771985</v>
+        <v>0.9982953721456125</v>
       </c>
       <c r="E23">
-        <v>0.9946523664333935</v>
+        <v>0.9828695276298517</v>
       </c>
       <c r="F23">
-        <v>0.9990213894530168</v>
+        <v>0.9942524291611357</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035665327921163</v>
+        <v>1.035894954561266</v>
       </c>
       <c r="J23">
-        <v>1.008021920463124</v>
+        <v>1.002126311079903</v>
       </c>
       <c r="K23">
-        <v>1.015776406536028</v>
+        <v>1.013587077423569</v>
       </c>
       <c r="L23">
-        <v>1.010015223466861</v>
+        <v>0.9984672742817545</v>
       </c>
       <c r="M23">
-        <v>1.014298996130691</v>
+        <v>1.009623139088234</v>
       </c>
       <c r="N23">
-        <v>1.009453427211912</v>
+        <v>1.004594175873911</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9876029331659039</v>
+        <v>0.9774506578605261</v>
       </c>
       <c r="D24">
-        <v>1.008496577057238</v>
+        <v>1.003415680110512</v>
       </c>
       <c r="E24">
-        <v>1.003787782692412</v>
+        <v>0.9880747120654895</v>
       </c>
       <c r="F24">
-        <v>1.009069743162166</v>
+        <v>1.000868535996298</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038957952380306</v>
+        <v>1.037422934820136</v>
       </c>
       <c r="J24">
-        <v>1.015586693459428</v>
+        <v>1.005845235136649</v>
       </c>
       <c r="K24">
-        <v>1.022376108333511</v>
+        <v>1.01738307692496</v>
       </c>
       <c r="L24">
-        <v>1.017748705545203</v>
+        <v>1.002314536434472</v>
       </c>
       <c r="M24">
-        <v>1.022939434280971</v>
+        <v>1.014880416317758</v>
       </c>
       <c r="N24">
-        <v>1.017028943053562</v>
+        <v>1.005853263409108</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9993383927703577</v>
+        <v>0.9849533902145823</v>
       </c>
       <c r="D25">
-        <v>1.017273645040405</v>
+        <v>1.009154626741292</v>
       </c>
       <c r="E25">
-        <v>1.013863036949503</v>
+        <v>0.9939281559825635</v>
       </c>
       <c r="F25">
-        <v>1.020155235687054</v>
+        <v>1.008288592400231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042530965673411</v>
+        <v>1.039086064522441</v>
       </c>
       <c r="J25">
-        <v>1.023888043170589</v>
+        <v>1.009997964463049</v>
       </c>
       <c r="K25">
-        <v>1.029609599847617</v>
+        <v>1.021612471918385</v>
       </c>
       <c r="L25">
-        <v>1.026249892420662</v>
+        <v>1.006621466504275</v>
       </c>
       <c r="M25">
-        <v>1.032448521966816</v>
+        <v>1.02075958697234</v>
       </c>
       <c r="N25">
-        <v>1.025342081633491</v>
+        <v>1.007258486065346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9907269411137072</v>
+        <v>1.021200608447104</v>
       </c>
       <c r="D2">
-        <v>1.013580593533155</v>
+        <v>1.031702065088858</v>
       </c>
       <c r="E2">
-        <v>0.9984583429977615</v>
+        <v>1.022107928532126</v>
       </c>
       <c r="F2">
-        <v>1.014016216132384</v>
+        <v>1.040270704415904</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040328166289777</v>
+        <v>1.030121902728916</v>
       </c>
       <c r="J2">
-        <v>1.013188590056338</v>
+        <v>1.026393415012565</v>
       </c>
       <c r="K2">
-        <v>1.02485391659234</v>
+        <v>1.034509420442672</v>
       </c>
       <c r="L2">
-        <v>1.009939197416898</v>
+        <v>1.024943282708077</v>
       </c>
       <c r="M2">
-        <v>1.025283676197279</v>
+        <v>1.043053527838588</v>
       </c>
       <c r="N2">
-        <v>1.008337435383015</v>
+        <v>1.012856759222974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9948059270491398</v>
+        <v>1.022071785405448</v>
       </c>
       <c r="D3">
-        <v>1.016711999534864</v>
+        <v>1.032392839003536</v>
       </c>
       <c r="E3">
-        <v>1.001672903903621</v>
+        <v>1.022845062441649</v>
       </c>
       <c r="F3">
-        <v>1.018072240175093</v>
+        <v>1.041196600686422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041183040084714</v>
+        <v>1.030242815009767</v>
       </c>
       <c r="J3">
-        <v>1.015439196246591</v>
+        <v>1.026902516367558</v>
       </c>
       <c r="K3">
-        <v>1.027135421096826</v>
+        <v>1.035009129008677</v>
       </c>
       <c r="L3">
-        <v>1.012284424269935</v>
+        <v>1.025487202339905</v>
       </c>
       <c r="M3">
-        <v>1.028478989606768</v>
+        <v>1.043789509210371</v>
       </c>
       <c r="N3">
-        <v>1.009098033831798</v>
+        <v>1.013027125019996</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9973957173524167</v>
+        <v>1.022636124202438</v>
       </c>
       <c r="D4">
-        <v>1.018701884477946</v>
+        <v>1.032840145503898</v>
       </c>
       <c r="E4">
-        <v>1.003720059785353</v>
+        <v>1.023322971393596</v>
       </c>
       <c r="F4">
-        <v>1.020651611805095</v>
+        <v>1.041796577585247</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04171504623345</v>
+        <v>1.030319790607528</v>
       </c>
       <c r="J4">
-        <v>1.016866276368925</v>
+        <v>1.027231945731804</v>
       </c>
       <c r="K4">
-        <v>1.028579714829019</v>
+        <v>1.035332127502101</v>
       </c>
       <c r="L4">
-        <v>1.013773793359385</v>
+        <v>1.025839423472659</v>
       </c>
       <c r="M4">
-        <v>1.030507019103067</v>
+        <v>1.044265971177639</v>
       </c>
       <c r="N4">
-        <v>1.009580081461808</v>
+        <v>1.013137310523711</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9984729811174061</v>
+        <v>1.022873521425757</v>
       </c>
       <c r="D5">
-        <v>1.019529971348818</v>
+        <v>1.033028270347061</v>
       </c>
       <c r="E5">
-        <v>1.004573053210847</v>
+        <v>1.023524106252417</v>
       </c>
       <c r="F5">
-        <v>1.021725507445441</v>
+        <v>1.042049012026028</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041933720242284</v>
+        <v>1.030351848207693</v>
       </c>
       <c r="J5">
-        <v>1.017459418065985</v>
+        <v>1.027370438280265</v>
       </c>
       <c r="K5">
-        <v>1.029179427201324</v>
+        <v>1.035467831839639</v>
       </c>
       <c r="L5">
-        <v>1.01439337379776</v>
+        <v>1.025987560310855</v>
       </c>
       <c r="M5">
-        <v>1.031350400243799</v>
+        <v>1.044466329954137</v>
       </c>
       <c r="N5">
-        <v>1.009780376390425</v>
+        <v>1.013183619484734</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.998653195940109</v>
+        <v>1.022913390172193</v>
       </c>
       <c r="D6">
-        <v>1.019668521424558</v>
+        <v>1.033059861812655</v>
       </c>
       <c r="E6">
-        <v>1.004715833887906</v>
+        <v>1.023557890646033</v>
       </c>
       <c r="F6">
-        <v>1.021905214657821</v>
+        <v>1.042091408799953</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041970146800368</v>
+        <v>1.030357213036608</v>
       </c>
       <c r="J6">
-        <v>1.017558615637194</v>
+        <v>1.027393691780527</v>
       </c>
       <c r="K6">
-        <v>1.029279688954219</v>
+        <v>1.035490612217742</v>
       </c>
       <c r="L6">
-        <v>1.014497025299321</v>
+        <v>1.026012436799645</v>
       </c>
       <c r="M6">
-        <v>1.031491475540087</v>
+        <v>1.044499974205028</v>
       </c>
       <c r="N6">
-        <v>1.009813870288952</v>
+        <v>1.013191394186425</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9974101564277393</v>
+        <v>1.022639295731279</v>
       </c>
       <c r="D7">
-        <v>1.018712982348911</v>
+        <v>1.03284265893611</v>
       </c>
       <c r="E7">
-        <v>1.003731487197495</v>
+        <v>1.023325658097471</v>
       </c>
       <c r="F7">
-        <v>1.020666001964373</v>
+        <v>1.041799949826623</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041717987631982</v>
+        <v>1.030320220153901</v>
       </c>
       <c r="J7">
-        <v>1.016874228440536</v>
+        <v>1.027233796275741</v>
       </c>
       <c r="K7">
-        <v>1.028587757315411</v>
+        <v>1.035333941122708</v>
       </c>
       <c r="L7">
-        <v>1.013782097717288</v>
+        <v>1.025841402638097</v>
       </c>
       <c r="M7">
-        <v>1.030518324217428</v>
+        <v>1.044268648170553</v>
       </c>
       <c r="N7">
-        <v>1.009582766996321</v>
+        <v>1.013137929358049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9921159593422284</v>
+        <v>1.02149489568521</v>
       </c>
       <c r="D8">
-        <v>1.014646540052148</v>
+        <v>1.031935446094655</v>
       </c>
       <c r="E8">
-        <v>0.9995516750964692</v>
+        <v>1.022356851988221</v>
       </c>
       <c r="F8">
-        <v>1.015396523544658</v>
+        <v>1.040583436249551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040621506312579</v>
+        <v>1.030163026672404</v>
       </c>
       <c r="J8">
-        <v>1.013955359217813</v>
+        <v>1.02656546609838</v>
       </c>
       <c r="K8">
-        <v>1.025631703244777</v>
+        <v>1.034678370221995</v>
       </c>
       <c r="L8">
-        <v>1.010737722654083</v>
+        <v>1.025127046483624</v>
       </c>
       <c r="M8">
-        <v>1.026371900956172</v>
+        <v>1.043302207041432</v>
       </c>
       <c r="N8">
-        <v>1.008596615199063</v>
+        <v>1.012914345758751</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9823888331889922</v>
+        <v>1.019483196456033</v>
       </c>
       <c r="D9">
-        <v>1.007191272364954</v>
+        <v>1.030339421074689</v>
       </c>
       <c r="E9">
-        <v>0.9919231519430234</v>
+        <v>1.020656919181664</v>
       </c>
       <c r="F9">
-        <v>1.005749398153736</v>
+        <v>1.038446448903213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038523410081612</v>
+        <v>1.029876388955239</v>
       </c>
       <c r="J9">
-        <v>1.008579190927091</v>
+        <v>1.025387886340053</v>
       </c>
       <c r="K9">
-        <v>1.020168743791568</v>
+        <v>1.03352057563722</v>
       </c>
       <c r="L9">
-        <v>1.005148643862113</v>
+        <v>1.023870374064359</v>
       </c>
       <c r="M9">
-        <v>1.018749879046241</v>
+        <v>1.041601066649087</v>
       </c>
       <c r="N9">
-        <v>1.006778497917059</v>
+        <v>1.012519979870855</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9756093781363073</v>
+        <v>1.018145427760244</v>
       </c>
       <c r="D10">
-        <v>1.002009642614953</v>
+        <v>1.029277254327686</v>
       </c>
       <c r="E10">
-        <v>0.9866438396435363</v>
+        <v>1.01952858940274</v>
       </c>
       <c r="F10">
-        <v>0.9990514595281602</v>
+        <v>1.037026376199088</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037007259675069</v>
+        <v>1.029678852002009</v>
       </c>
       <c r="J10">
-        <v>1.004825279017307</v>
+        <v>1.024602972252638</v>
       </c>
       <c r="K10">
-        <v>1.016342706897468</v>
+        <v>1.032747045700967</v>
       </c>
       <c r="L10">
-        <v>1.001258504950098</v>
+        <v>1.023034089433672</v>
       </c>
       <c r="M10">
-        <v>1.01343786131177</v>
+        <v>1.040468311655979</v>
       </c>
       <c r="N10">
-        <v>1.00550799748856</v>
+        <v>1.012256838013584</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9725974042581577</v>
+        <v>1.017566974435679</v>
       </c>
       <c r="D11">
-        <v>0.9997117997814903</v>
+        <v>1.028817784630482</v>
       </c>
       <c r="E11">
-        <v>0.9843079281493605</v>
+        <v>1.019041207280538</v>
       </c>
       <c r="F11">
-        <v>0.99608237295733</v>
+        <v>1.036412578556918</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036321494649472</v>
+        <v>1.029591795603021</v>
       </c>
       <c r="J11">
-        <v>1.003156330197934</v>
+        <v>1.024263143378655</v>
       </c>
       <c r="K11">
-        <v>1.014639153183763</v>
+        <v>1.032411719675393</v>
       </c>
       <c r="L11">
-        <v>0.9995319680609802</v>
+        <v>1.022672339875697</v>
       </c>
       <c r="M11">
-        <v>1.011078550097996</v>
+        <v>1.039978153288451</v>
       </c>
       <c r="N11">
-        <v>1.004942951914763</v>
+        <v>1.012142845348041</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9714665476080639</v>
+        <v>1.017352234087929</v>
       </c>
       <c r="D12">
-        <v>0.9988497784478592</v>
+        <v>1.028647187288306</v>
       </c>
       <c r="E12">
-        <v>0.98343240215445</v>
+        <v>1.018860352659051</v>
       </c>
       <c r="F12">
-        <v>0.9949686712546693</v>
+        <v>1.036184754281521</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036062246131141</v>
+        <v>1.029559231000105</v>
       </c>
       <c r="J12">
-        <v>1.002529584948127</v>
+        <v>1.024136923596144</v>
       </c>
       <c r="K12">
-        <v>1.01399904811413</v>
+        <v>1.032287108501393</v>
       </c>
       <c r="L12">
-        <v>0.9988840466150156</v>
+        <v>1.02253802642463</v>
       </c>
       <c r="M12">
-        <v>1.010192902587199</v>
+        <v>1.039796138090165</v>
       </c>
       <c r="N12">
-        <v>1.004730733052184</v>
+        <v>1.012100496249709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9717096765852457</v>
+        <v>1.017398291034552</v>
       </c>
       <c r="D13">
-        <v>0.9990350756687412</v>
+        <v>1.02868377779468</v>
       </c>
       <c r="E13">
-        <v>0.9836205673941594</v>
+        <v>1.018899138380501</v>
       </c>
       <c r="F13">
-        <v>0.9952080635876284</v>
+        <v>1.036233615754145</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036118062731539</v>
+        <v>1.029566226524556</v>
       </c>
       <c r="J13">
-        <v>1.002664337573737</v>
+        <v>1.024163997796624</v>
       </c>
       <c r="K13">
-        <v>1.014136689347702</v>
+        <v>1.032313840541565</v>
       </c>
       <c r="L13">
-        <v>0.9990233318207288</v>
+        <v>1.022566834541282</v>
       </c>
       <c r="M13">
-        <v>1.010383304335025</v>
+        <v>1.039835178615046</v>
       </c>
       <c r="N13">
-        <v>1.004776362019005</v>
+        <v>1.012109580591391</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9725041771954887</v>
+        <v>1.017549221414962</v>
       </c>
       <c r="D14">
-        <v>0.9996407204053367</v>
+        <v>1.028803681559719</v>
       </c>
       <c r="E14">
-        <v>0.9842357195018863</v>
+        <v>1.019026254083047</v>
       </c>
       <c r="F14">
-        <v>0.9959905384325093</v>
+        <v>1.036393743104184</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036300158163731</v>
+        <v>1.029589108449908</v>
       </c>
       <c r="J14">
-        <v>1.003104664180305</v>
+        <v>1.024252709846357</v>
       </c>
       <c r="K14">
-        <v>1.014586393155775</v>
+        <v>1.032401420414946</v>
       </c>
       <c r="L14">
-        <v>0.9994785472079595</v>
+        <v>1.022661236325178</v>
       </c>
       <c r="M14">
-        <v>1.011005534223771</v>
+        <v>1.03996310679691</v>
       </c>
       <c r="N14">
-        <v>1.004925458060584</v>
+        <v>1.012139344901606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9729920767395559</v>
+        <v>1.017642230939996</v>
       </c>
       <c r="D15">
-        <v>1.000012740538392</v>
+        <v>1.028877567575312</v>
       </c>
       <c r="E15">
-        <v>0.98461368169651</v>
+        <v>1.019104598271142</v>
       </c>
       <c r="F15">
-        <v>0.9964711934284564</v>
+        <v>1.03649242509703</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036411749600029</v>
+        <v>1.029603176568365</v>
       </c>
       <c r="J15">
-        <v>1.003375050768684</v>
+        <v>1.024307369335478</v>
       </c>
       <c r="K15">
-        <v>1.014862490326286</v>
+        <v>1.032455373862948</v>
       </c>
       <c r="L15">
-        <v>0.9997581358385034</v>
+        <v>1.02271940789703</v>
       </c>
       <c r="M15">
-        <v>1.011387666503373</v>
+        <v>1.040041934435435</v>
       </c>
       <c r="N15">
-        <v>1.005017008578195</v>
+        <v>1.012157682741636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9758076129346995</v>
+        <v>1.018183834971809</v>
       </c>
       <c r="D16">
-        <v>1.002160971247039</v>
+        <v>1.029307757562737</v>
       </c>
       <c r="E16">
-        <v>0.9867977838925907</v>
+        <v>1.019560960610496</v>
       </c>
       <c r="F16">
-        <v>0.9992470149993693</v>
+        <v>1.037067135320108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037052144333466</v>
+        <v>1.02968459764334</v>
       </c>
       <c r="J16">
-        <v>1.004935101149289</v>
+        <v>1.024625526604567</v>
       </c>
       <c r="K16">
-        <v>1.016454754624191</v>
+        <v>1.032769292238126</v>
       </c>
       <c r="L16">
-        <v>1.0013721788525</v>
+        <v>1.023058105405733</v>
       </c>
       <c r="M16">
-        <v>1.013593160379594</v>
+        <v>1.040500848981076</v>
       </c>
       <c r="N16">
-        <v>1.005545175525601</v>
+        <v>1.012264402304939</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9775528559875156</v>
+        <v>1.018523786528517</v>
       </c>
       <c r="D17">
-        <v>1.003493749245724</v>
+        <v>1.029577727548949</v>
       </c>
       <c r="E17">
-        <v>0.988154195498304</v>
+        <v>1.019847545011463</v>
       </c>
       <c r="F17">
-        <v>1.00096943566469</v>
+        <v>1.03742793245739</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037445924510962</v>
+        <v>1.029735263997444</v>
       </c>
       <c r="J17">
-        <v>1.005901838831766</v>
+        <v>1.024825110885115</v>
       </c>
       <c r="K17">
-        <v>1.017440796440849</v>
+        <v>1.032966103465707</v>
       </c>
       <c r="L17">
-        <v>1.002373162204411</v>
+        <v>1.023270660615036</v>
       </c>
       <c r="M17">
-        <v>1.014960488486544</v>
+        <v>1.040788803944356</v>
       </c>
       <c r="N17">
-        <v>1.005872423049505</v>
+        <v>1.012331331457328</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9785634948420452</v>
+        <v>1.018722152517857</v>
       </c>
       <c r="D18">
-        <v>1.004265935786326</v>
+        <v>1.029735240309199</v>
       </c>
       <c r="E18">
-        <v>0.9889405750750855</v>
+        <v>1.020014819752291</v>
       </c>
       <c r="F18">
-        <v>1.001967488898178</v>
+        <v>1.037638485649437</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037672795580501</v>
+        <v>1.029764669970983</v>
       </c>
       <c r="J18">
-        <v>1.006461545934395</v>
+        <v>1.02494152919661</v>
       </c>
       <c r="K18">
-        <v>1.018011437674502</v>
+        <v>1.033080863135925</v>
       </c>
       <c r="L18">
-        <v>1.002952978899456</v>
+        <v>1.023394675817153</v>
       </c>
       <c r="M18">
-        <v>1.015752347123888</v>
+        <v>1.040956795132923</v>
       </c>
       <c r="N18">
-        <v>1.006061869111727</v>
+        <v>1.012370365197025</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.978906870365585</v>
+        <v>1.018789803381933</v>
       </c>
       <c r="D19">
-        <v>1.004528360041616</v>
+        <v>1.029788955472576</v>
       </c>
       <c r="E19">
-        <v>0.9892079079735453</v>
+        <v>1.020071875554942</v>
       </c>
       <c r="F19">
-        <v>1.002306693790133</v>
+        <v>1.037710296828165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037749679180791</v>
+        <v>1.029774671720205</v>
       </c>
       <c r="J19">
-        <v>1.006651692044783</v>
+        <v>1.024981225505397</v>
       </c>
       <c r="K19">
-        <v>1.018205256781209</v>
+        <v>1.033119986904204</v>
       </c>
       <c r="L19">
-        <v>1.003150004579305</v>
+        <v>1.023436967752564</v>
       </c>
       <c r="M19">
-        <v>1.016021398784269</v>
+        <v>1.041014081155383</v>
       </c>
       <c r="N19">
-        <v>1.006126225259066</v>
+        <v>1.012383673848563</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9773663704655873</v>
+        <v>1.018487304866118</v>
       </c>
       <c r="D20">
-        <v>1.003351295226458</v>
+        <v>1.029548757777895</v>
       </c>
       <c r="E20">
-        <v>0.9880091636172997</v>
+        <v>1.019816785319683</v>
       </c>
       <c r="F20">
-        <v>1.000785323057383</v>
+        <v>1.037389211328636</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037403967619237</v>
+        <v>1.029729843162415</v>
       </c>
       <c r="J20">
-        <v>1.005798550875064</v>
+        <v>1.024803696940154</v>
       </c>
       <c r="K20">
-        <v>1.017335471010152</v>
+        <v>1.032944991300133</v>
       </c>
       <c r="L20">
-        <v>1.00226618605163</v>
+        <v>1.02324785178762</v>
       </c>
       <c r="M20">
-        <v>1.014814377547723</v>
+        <v>1.040757905787992</v>
       </c>
       <c r="N20">
-        <v>1.005837461265964</v>
+        <v>1.012324151096595</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9722705548666203</v>
+        <v>1.017504772774045</v>
       </c>
       <c r="D21">
-        <v>0.9994626107964349</v>
+        <v>1.028768370938795</v>
       </c>
       <c r="E21">
-        <v>0.9840547926555564</v>
+        <v>1.018988816672352</v>
       </c>
       <c r="F21">
-        <v>0.9957604228723436</v>
+        <v>1.036346584952805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036246661579086</v>
+        <v>1.029582376581575</v>
       </c>
       <c r="J21">
-        <v>1.002975189754883</v>
+        <v>1.024226586134335</v>
       </c>
       <c r="K21">
-        <v>1.014454171338345</v>
+        <v>1.032375631864875</v>
       </c>
       <c r="L21">
-        <v>0.9993446824466672</v>
+        <v>1.022633435784434</v>
       </c>
       <c r="M21">
-        <v>1.010822562969153</v>
+        <v>1.039925433703233</v>
       </c>
       <c r="N21">
-        <v>1.004881618269488</v>
+        <v>1.012130580247852</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9689964264638374</v>
+        <v>1.016887728017595</v>
       </c>
       <c r="D22">
-        <v>0.9969682652035307</v>
+        <v>1.028278117543804</v>
       </c>
       <c r="E22">
-        <v>0.9815228258045807</v>
+        <v>1.018469286810193</v>
       </c>
       <c r="F22">
-        <v>0.9925380144040685</v>
+        <v>1.035692014330831</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035492768262485</v>
+        <v>1.029488339775138</v>
       </c>
       <c r="J22">
-        <v>1.001160395289458</v>
+        <v>1.023863779325555</v>
       </c>
       <c r="K22">
-        <v>1.012600021552958</v>
+        <v>1.032017328723467</v>
       </c>
       <c r="L22">
-        <v>0.9974694259287787</v>
+        <v>1.022247455241014</v>
       </c>
       <c r="M22">
-        <v>1.008258758334441</v>
+        <v>1.039402323873921</v>
       </c>
       <c r="N22">
-        <v>1.004267075966032</v>
+        <v>1.01200883344113</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9707389650251644</v>
+        <v>1.017214767151786</v>
       </c>
       <c r="D23">
-        <v>0.9982953721456125</v>
+        <v>1.028537971010254</v>
       </c>
       <c r="E23">
-        <v>0.9828695276298517</v>
+        <v>1.018744599620767</v>
       </c>
       <c r="F23">
-        <v>0.9942524291611357</v>
+        <v>1.03603892207534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035894954561266</v>
+        <v>1.029538315256313</v>
       </c>
       <c r="J23">
-        <v>1.002126311079903</v>
+        <v>1.024056105362029</v>
       </c>
       <c r="K23">
-        <v>1.013587077423569</v>
+        <v>1.03220730229996</v>
       </c>
       <c r="L23">
-        <v>0.9984672742817545</v>
+        <v>1.022452039391852</v>
       </c>
       <c r="M23">
-        <v>1.009623139088234</v>
+        <v>1.039679605484442</v>
       </c>
       <c r="N23">
-        <v>1.004594175873911</v>
+        <v>1.012073377478526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9774506578605261</v>
+        <v>1.018503789118165</v>
       </c>
       <c r="D24">
-        <v>1.003415680110512</v>
+        <v>1.02956184783521</v>
       </c>
       <c r="E24">
-        <v>0.9880747120654895</v>
+        <v>1.019830683945526</v>
       </c>
       <c r="F24">
-        <v>1.000868535996298</v>
+        <v>1.037406707411656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037422934820136</v>
+        <v>1.02973229305825</v>
       </c>
       <c r="J24">
-        <v>1.005845235136649</v>
+        <v>1.024813372967355</v>
       </c>
       <c r="K24">
-        <v>1.01738307692496</v>
+        <v>1.032954531093431</v>
       </c>
       <c r="L24">
-        <v>1.002314536434472</v>
+        <v>1.023258158005877</v>
       </c>
       <c r="M24">
-        <v>1.014880416317758</v>
+        <v>1.040771867236372</v>
       </c>
       <c r="N24">
-        <v>1.005853263409108</v>
+        <v>1.012327395607735</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9849533902145823</v>
+        <v>1.020002682080956</v>
       </c>
       <c r="D25">
-        <v>1.009154626741292</v>
+        <v>1.030751713189443</v>
       </c>
       <c r="E25">
-        <v>0.9939281559825635</v>
+        <v>1.021095525823917</v>
       </c>
       <c r="F25">
-        <v>1.008288592400231</v>
+        <v>1.038998110770267</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039086064522441</v>
+        <v>1.029951630467125</v>
       </c>
       <c r="J25">
-        <v>1.009997964463049</v>
+        <v>1.025692299512759</v>
       </c>
       <c r="K25">
-        <v>1.021612471918385</v>
+        <v>1.033820192782446</v>
       </c>
       <c r="L25">
-        <v>1.006621466504275</v>
+        <v>1.024194995670774</v>
       </c>
       <c r="M25">
-        <v>1.02075958697234</v>
+        <v>1.042040623104059</v>
       </c>
       <c r="N25">
-        <v>1.007258486065346</v>
+        <v>1.012621975588825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021200608447104</v>
+        <v>0.9907269411137076</v>
       </c>
       <c r="D2">
-        <v>1.031702065088858</v>
+        <v>1.013580593533155</v>
       </c>
       <c r="E2">
-        <v>1.022107928532126</v>
+        <v>0.998458342997762</v>
       </c>
       <c r="F2">
-        <v>1.040270704415904</v>
+        <v>1.014016216132384</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030121902728916</v>
+        <v>1.040328166289777</v>
       </c>
       <c r="J2">
-        <v>1.026393415012565</v>
+        <v>1.013188590056338</v>
       </c>
       <c r="K2">
-        <v>1.034509420442672</v>
+        <v>1.024853916592341</v>
       </c>
       <c r="L2">
-        <v>1.024943282708077</v>
+        <v>1.009939197416899</v>
       </c>
       <c r="M2">
-        <v>1.043053527838588</v>
+        <v>1.02528367619728</v>
       </c>
       <c r="N2">
-        <v>1.012856759222974</v>
+        <v>1.008337435383015</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022071785405448</v>
+        <v>0.9948059270491401</v>
       </c>
       <c r="D3">
-        <v>1.032392839003536</v>
+        <v>1.016711999534865</v>
       </c>
       <c r="E3">
-        <v>1.022845062441649</v>
+        <v>1.001672903903621</v>
       </c>
       <c r="F3">
-        <v>1.041196600686422</v>
+        <v>1.018072240175093</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030242815009767</v>
+        <v>1.041183040084714</v>
       </c>
       <c r="J3">
-        <v>1.026902516367558</v>
+        <v>1.015439196246591</v>
       </c>
       <c r="K3">
-        <v>1.035009129008677</v>
+        <v>1.027135421096826</v>
       </c>
       <c r="L3">
-        <v>1.025487202339905</v>
+        <v>1.012284424269935</v>
       </c>
       <c r="M3">
-        <v>1.043789509210371</v>
+        <v>1.028478989606768</v>
       </c>
       <c r="N3">
-        <v>1.013027125019996</v>
+        <v>1.009098033831798</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022636124202438</v>
+        <v>0.9973957173524154</v>
       </c>
       <c r="D4">
-        <v>1.032840145503898</v>
+        <v>1.018701884477945</v>
       </c>
       <c r="E4">
-        <v>1.023322971393596</v>
+        <v>1.003720059785352</v>
       </c>
       <c r="F4">
-        <v>1.041796577585247</v>
+        <v>1.020651611805094</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030319790607528</v>
+        <v>1.041715046233449</v>
       </c>
       <c r="J4">
-        <v>1.027231945731804</v>
+        <v>1.016866276368923</v>
       </c>
       <c r="K4">
-        <v>1.035332127502101</v>
+        <v>1.028579714829019</v>
       </c>
       <c r="L4">
-        <v>1.025839423472659</v>
+        <v>1.013773793359384</v>
       </c>
       <c r="M4">
-        <v>1.044265971177639</v>
+        <v>1.030507019103066</v>
       </c>
       <c r="N4">
-        <v>1.013137310523711</v>
+        <v>1.009580081461808</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022873521425757</v>
+        <v>0.9984729811174065</v>
       </c>
       <c r="D5">
-        <v>1.033028270347061</v>
+        <v>1.019529971348818</v>
       </c>
       <c r="E5">
-        <v>1.023524106252417</v>
+        <v>1.004573053210848</v>
       </c>
       <c r="F5">
-        <v>1.042049012026028</v>
+        <v>1.021725507445441</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030351848207693</v>
+        <v>1.041933720242284</v>
       </c>
       <c r="J5">
-        <v>1.027370438280265</v>
+        <v>1.017459418065985</v>
       </c>
       <c r="K5">
-        <v>1.035467831839639</v>
+        <v>1.029179427201324</v>
       </c>
       <c r="L5">
-        <v>1.025987560310855</v>
+        <v>1.014393373797761</v>
       </c>
       <c r="M5">
-        <v>1.044466329954137</v>
+        <v>1.031350400243799</v>
       </c>
       <c r="N5">
-        <v>1.013183619484734</v>
+        <v>1.009780376390425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022913390172193</v>
+        <v>0.9986531959401086</v>
       </c>
       <c r="D6">
-        <v>1.033059861812655</v>
+        <v>1.019668521424557</v>
       </c>
       <c r="E6">
-        <v>1.023557890646033</v>
+        <v>1.004715833887905</v>
       </c>
       <c r="F6">
-        <v>1.042091408799953</v>
+        <v>1.021905214657821</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030357213036608</v>
+        <v>1.041970146800367</v>
       </c>
       <c r="J6">
-        <v>1.027393691780527</v>
+        <v>1.017558615637193</v>
       </c>
       <c r="K6">
-        <v>1.035490612217742</v>
+        <v>1.029279688954219</v>
       </c>
       <c r="L6">
-        <v>1.026012436799645</v>
+        <v>1.01449702529932</v>
       </c>
       <c r="M6">
-        <v>1.044499974205028</v>
+        <v>1.031491475540086</v>
       </c>
       <c r="N6">
-        <v>1.013191394186425</v>
+        <v>1.009813870288952</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022639295731279</v>
+        <v>0.9974101564277398</v>
       </c>
       <c r="D7">
-        <v>1.03284265893611</v>
+        <v>1.018712982348912</v>
       </c>
       <c r="E7">
-        <v>1.023325658097471</v>
+        <v>1.003731487197495</v>
       </c>
       <c r="F7">
-        <v>1.041799949826623</v>
+        <v>1.020666001964373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030320220153901</v>
+        <v>1.041717987631982</v>
       </c>
       <c r="J7">
-        <v>1.027233796275741</v>
+        <v>1.016874228440536</v>
       </c>
       <c r="K7">
-        <v>1.035333941122708</v>
+        <v>1.028587757315411</v>
       </c>
       <c r="L7">
-        <v>1.025841402638097</v>
+        <v>1.013782097717288</v>
       </c>
       <c r="M7">
-        <v>1.044268648170553</v>
+        <v>1.030518324217428</v>
       </c>
       <c r="N7">
-        <v>1.013137929358049</v>
+        <v>1.009582766996321</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02149489568521</v>
+        <v>0.9921159593422291</v>
       </c>
       <c r="D8">
-        <v>1.031935446094655</v>
+        <v>1.014646540052149</v>
       </c>
       <c r="E8">
-        <v>1.022356851988221</v>
+        <v>0.9995516750964695</v>
       </c>
       <c r="F8">
-        <v>1.040583436249551</v>
+        <v>1.015396523544658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030163026672404</v>
+        <v>1.04062150631258</v>
       </c>
       <c r="J8">
-        <v>1.02656546609838</v>
+        <v>1.013955359217813</v>
       </c>
       <c r="K8">
-        <v>1.034678370221995</v>
+        <v>1.025631703244778</v>
       </c>
       <c r="L8">
-        <v>1.025127046483624</v>
+        <v>1.010737722654083</v>
       </c>
       <c r="M8">
-        <v>1.043302207041432</v>
+        <v>1.026371900956173</v>
       </c>
       <c r="N8">
-        <v>1.012914345758751</v>
+        <v>1.008596615199063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019483196456033</v>
+        <v>0.9823888331889926</v>
       </c>
       <c r="D9">
-        <v>1.030339421074689</v>
+        <v>1.007191272364954</v>
       </c>
       <c r="E9">
-        <v>1.020656919181664</v>
+        <v>0.9919231519430234</v>
       </c>
       <c r="F9">
-        <v>1.038446448903213</v>
+        <v>1.005749398153735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029876388955239</v>
+        <v>1.038523410081612</v>
       </c>
       <c r="J9">
-        <v>1.025387886340053</v>
+        <v>1.008579190927091</v>
       </c>
       <c r="K9">
-        <v>1.03352057563722</v>
+        <v>1.020168743791569</v>
       </c>
       <c r="L9">
-        <v>1.023870374064359</v>
+        <v>1.005148643862113</v>
       </c>
       <c r="M9">
-        <v>1.041601066649087</v>
+        <v>1.018749879046241</v>
       </c>
       <c r="N9">
-        <v>1.012519979870855</v>
+        <v>1.006778497917059</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018145427760244</v>
+        <v>0.9756093781363067</v>
       </c>
       <c r="D10">
-        <v>1.029277254327686</v>
+        <v>1.002009642614952</v>
       </c>
       <c r="E10">
-        <v>1.01952858940274</v>
+        <v>0.9866438396435353</v>
       </c>
       <c r="F10">
-        <v>1.037026376199088</v>
+        <v>0.9990514595281598</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029678852002009</v>
+        <v>1.037007259675069</v>
       </c>
       <c r="J10">
-        <v>1.024602972252638</v>
+        <v>1.004825279017306</v>
       </c>
       <c r="K10">
-        <v>1.032747045700967</v>
+        <v>1.016342706897467</v>
       </c>
       <c r="L10">
-        <v>1.023034089433672</v>
+        <v>1.001258504950097</v>
       </c>
       <c r="M10">
-        <v>1.040468311655979</v>
+        <v>1.01343786131177</v>
       </c>
       <c r="N10">
-        <v>1.012256838013584</v>
+        <v>1.005507997488559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017566974435679</v>
+        <v>0.9725974042581582</v>
       </c>
       <c r="D11">
-        <v>1.028817784630482</v>
+        <v>0.9997117997814907</v>
       </c>
       <c r="E11">
-        <v>1.019041207280538</v>
+        <v>0.9843079281493609</v>
       </c>
       <c r="F11">
-        <v>1.036412578556918</v>
+        <v>0.9960823729573306</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029591795603021</v>
+        <v>1.036321494649472</v>
       </c>
       <c r="J11">
-        <v>1.024263143378655</v>
+        <v>1.003156330197935</v>
       </c>
       <c r="K11">
-        <v>1.032411719675393</v>
+        <v>1.014639153183763</v>
       </c>
       <c r="L11">
-        <v>1.022672339875697</v>
+        <v>0.9995319680609805</v>
       </c>
       <c r="M11">
-        <v>1.039978153288451</v>
+        <v>1.011078550097996</v>
       </c>
       <c r="N11">
-        <v>1.012142845348041</v>
+        <v>1.004942951914763</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017352234087929</v>
+        <v>0.9714665476080632</v>
       </c>
       <c r="D12">
-        <v>1.028647187288306</v>
+        <v>0.9988497784478583</v>
       </c>
       <c r="E12">
-        <v>1.018860352659051</v>
+        <v>0.983432402154449</v>
       </c>
       <c r="F12">
-        <v>1.036184754281521</v>
+        <v>0.9949686712546679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029559231000105</v>
+        <v>1.036062246131141</v>
       </c>
       <c r="J12">
-        <v>1.024136923596144</v>
+        <v>1.002529584948126</v>
       </c>
       <c r="K12">
-        <v>1.032287108501393</v>
+        <v>1.013999048114129</v>
       </c>
       <c r="L12">
-        <v>1.02253802642463</v>
+        <v>0.9988840466150145</v>
       </c>
       <c r="M12">
-        <v>1.039796138090165</v>
+        <v>1.010192902587198</v>
       </c>
       <c r="N12">
-        <v>1.012100496249709</v>
+        <v>1.004730733052183</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017398291034552</v>
+        <v>0.9717096765852451</v>
       </c>
       <c r="D13">
-        <v>1.02868377779468</v>
+        <v>0.9990350756687404</v>
       </c>
       <c r="E13">
-        <v>1.018899138380501</v>
+        <v>0.9836205673941584</v>
       </c>
       <c r="F13">
-        <v>1.036233615754145</v>
+        <v>0.9952080635876271</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029566226524556</v>
+        <v>1.036118062731539</v>
       </c>
       <c r="J13">
-        <v>1.024163997796624</v>
+        <v>1.002664337573737</v>
       </c>
       <c r="K13">
-        <v>1.032313840541565</v>
+        <v>1.014136689347701</v>
       </c>
       <c r="L13">
-        <v>1.022566834541282</v>
+        <v>0.9990233318207279</v>
       </c>
       <c r="M13">
-        <v>1.039835178615046</v>
+        <v>1.010383304335023</v>
       </c>
       <c r="N13">
-        <v>1.012109580591391</v>
+        <v>1.004776362019004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017549221414962</v>
+        <v>0.9725041771954884</v>
       </c>
       <c r="D14">
-        <v>1.028803681559719</v>
+        <v>0.9996407204053364</v>
       </c>
       <c r="E14">
-        <v>1.019026254083047</v>
+        <v>0.9842357195018859</v>
       </c>
       <c r="F14">
-        <v>1.036393743104184</v>
+        <v>0.995990538432509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029589108449908</v>
+        <v>1.036300158163731</v>
       </c>
       <c r="J14">
-        <v>1.024252709846357</v>
+        <v>1.003104664180304</v>
       </c>
       <c r="K14">
-        <v>1.032401420414946</v>
+        <v>1.014586393155775</v>
       </c>
       <c r="L14">
-        <v>1.022661236325178</v>
+        <v>0.9994785472079593</v>
       </c>
       <c r="M14">
-        <v>1.03996310679691</v>
+        <v>1.01100553422377</v>
       </c>
       <c r="N14">
-        <v>1.012139344901606</v>
+        <v>1.004925458060584</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017642230939996</v>
+        <v>0.9729920767395563</v>
       </c>
       <c r="D15">
-        <v>1.028877567575312</v>
+        <v>1.000012740538393</v>
       </c>
       <c r="E15">
-        <v>1.019104598271142</v>
+        <v>0.9846136816965101</v>
       </c>
       <c r="F15">
-        <v>1.03649242509703</v>
+        <v>0.9964711934284575</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029603176568365</v>
+        <v>1.036411749600029</v>
       </c>
       <c r="J15">
-        <v>1.024307369335478</v>
+        <v>1.003375050768685</v>
       </c>
       <c r="K15">
-        <v>1.032455373862948</v>
+        <v>1.014862490326287</v>
       </c>
       <c r="L15">
-        <v>1.02271940789703</v>
+        <v>0.9997581358385036</v>
       </c>
       <c r="M15">
-        <v>1.040041934435435</v>
+        <v>1.011387666503374</v>
       </c>
       <c r="N15">
-        <v>1.012157682741636</v>
+        <v>1.005017008578196</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018183834971809</v>
+        <v>0.9758076129346999</v>
       </c>
       <c r="D16">
-        <v>1.029307757562737</v>
+        <v>1.002160971247039</v>
       </c>
       <c r="E16">
-        <v>1.019560960610496</v>
+        <v>0.9867977838925911</v>
       </c>
       <c r="F16">
-        <v>1.037067135320108</v>
+        <v>0.9992470149993701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02968459764334</v>
+        <v>1.037052144333466</v>
       </c>
       <c r="J16">
-        <v>1.024625526604567</v>
+        <v>1.00493510114929</v>
       </c>
       <c r="K16">
-        <v>1.032769292238126</v>
+        <v>1.016454754624192</v>
       </c>
       <c r="L16">
-        <v>1.023058105405733</v>
+        <v>1.0013721788525</v>
       </c>
       <c r="M16">
-        <v>1.040500848981076</v>
+        <v>1.013593160379595</v>
       </c>
       <c r="N16">
-        <v>1.012264402304939</v>
+        <v>1.005545175525602</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018523786528517</v>
+        <v>0.9775528559875163</v>
       </c>
       <c r="D17">
-        <v>1.029577727548949</v>
+        <v>1.003493749245724</v>
       </c>
       <c r="E17">
-        <v>1.019847545011463</v>
+        <v>0.9881541954983045</v>
       </c>
       <c r="F17">
-        <v>1.03742793245739</v>
+        <v>1.000969435664691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029735263997444</v>
+        <v>1.037445924510962</v>
       </c>
       <c r="J17">
-        <v>1.024825110885115</v>
+        <v>1.005901838831766</v>
       </c>
       <c r="K17">
-        <v>1.032966103465707</v>
+        <v>1.01744079644085</v>
       </c>
       <c r="L17">
-        <v>1.023270660615036</v>
+        <v>1.002373162204412</v>
       </c>
       <c r="M17">
-        <v>1.040788803944356</v>
+        <v>1.014960488486544</v>
       </c>
       <c r="N17">
-        <v>1.012331331457328</v>
+        <v>1.005872423049505</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018722152517857</v>
+        <v>0.978563494842045</v>
       </c>
       <c r="D18">
-        <v>1.029735240309199</v>
+        <v>1.004265935786326</v>
       </c>
       <c r="E18">
-        <v>1.020014819752291</v>
+        <v>0.9889405750750853</v>
       </c>
       <c r="F18">
-        <v>1.037638485649437</v>
+        <v>1.001967488898178</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029764669970983</v>
+        <v>1.0376727955805</v>
       </c>
       <c r="J18">
-        <v>1.02494152919661</v>
+        <v>1.006461545934395</v>
       </c>
       <c r="K18">
-        <v>1.033080863135925</v>
+        <v>1.018011437674502</v>
       </c>
       <c r="L18">
-        <v>1.023394675817153</v>
+        <v>1.002952978899455</v>
       </c>
       <c r="M18">
-        <v>1.040956795132923</v>
+        <v>1.015752347123887</v>
       </c>
       <c r="N18">
-        <v>1.012370365197025</v>
+        <v>1.006061869111727</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018789803381933</v>
+        <v>0.9789068703655851</v>
       </c>
       <c r="D19">
-        <v>1.029788955472576</v>
+        <v>1.004528360041616</v>
       </c>
       <c r="E19">
-        <v>1.020071875554942</v>
+        <v>0.9892079079735452</v>
       </c>
       <c r="F19">
-        <v>1.037710296828165</v>
+        <v>1.002306693790133</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029774671720205</v>
+        <v>1.037749679180791</v>
       </c>
       <c r="J19">
-        <v>1.024981225505397</v>
+        <v>1.006651692044784</v>
       </c>
       <c r="K19">
-        <v>1.033119986904204</v>
+        <v>1.018205256781209</v>
       </c>
       <c r="L19">
-        <v>1.023436967752564</v>
+        <v>1.003150004579305</v>
       </c>
       <c r="M19">
-        <v>1.041014081155383</v>
+        <v>1.01602139878427</v>
       </c>
       <c r="N19">
-        <v>1.012383673848563</v>
+        <v>1.006126225259066</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018487304866118</v>
+        <v>0.9773663704655872</v>
       </c>
       <c r="D20">
-        <v>1.029548757777895</v>
+        <v>1.003351295226459</v>
       </c>
       <c r="E20">
-        <v>1.019816785319683</v>
+        <v>0.9880091636172997</v>
       </c>
       <c r="F20">
-        <v>1.037389211328636</v>
+        <v>1.000785323057384</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029729843162415</v>
+        <v>1.037403967619237</v>
       </c>
       <c r="J20">
-        <v>1.024803696940154</v>
+        <v>1.005798550875064</v>
       </c>
       <c r="K20">
-        <v>1.032944991300133</v>
+        <v>1.017335471010152</v>
       </c>
       <c r="L20">
-        <v>1.02324785178762</v>
+        <v>1.00226618605163</v>
       </c>
       <c r="M20">
-        <v>1.040757905787992</v>
+        <v>1.014814377547724</v>
       </c>
       <c r="N20">
-        <v>1.012324151096595</v>
+        <v>1.005837461265964</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017504772774045</v>
+        <v>0.9722705548666198</v>
       </c>
       <c r="D21">
-        <v>1.028768370938795</v>
+        <v>0.9994626107964344</v>
       </c>
       <c r="E21">
-        <v>1.018988816672352</v>
+        <v>0.9840547926555558</v>
       </c>
       <c r="F21">
-        <v>1.036346584952805</v>
+        <v>0.9957604228723428</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029582376581575</v>
+        <v>1.036246661579086</v>
       </c>
       <c r="J21">
-        <v>1.024226586134335</v>
+        <v>1.002975189754883</v>
       </c>
       <c r="K21">
-        <v>1.032375631864875</v>
+        <v>1.014454171338344</v>
       </c>
       <c r="L21">
-        <v>1.022633435784434</v>
+        <v>0.9993446824466665</v>
       </c>
       <c r="M21">
-        <v>1.039925433703233</v>
+        <v>1.010822562969152</v>
       </c>
       <c r="N21">
-        <v>1.012130580247852</v>
+        <v>1.004881618269488</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016887728017595</v>
+        <v>0.9689964264638378</v>
       </c>
       <c r="D22">
-        <v>1.028278117543804</v>
+        <v>0.9969682652035312</v>
       </c>
       <c r="E22">
-        <v>1.018469286810193</v>
+        <v>0.9815228258045812</v>
       </c>
       <c r="F22">
-        <v>1.035692014330831</v>
+        <v>0.9925380144040691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029488339775138</v>
+        <v>1.035492768262485</v>
       </c>
       <c r="J22">
-        <v>1.023863779325555</v>
+        <v>1.001160395289459</v>
       </c>
       <c r="K22">
-        <v>1.032017328723467</v>
+        <v>1.012600021552959</v>
       </c>
       <c r="L22">
-        <v>1.022247455241014</v>
+        <v>0.9974694259287793</v>
       </c>
       <c r="M22">
-        <v>1.039402323873921</v>
+        <v>1.008258758334441</v>
       </c>
       <c r="N22">
-        <v>1.01200883344113</v>
+        <v>1.004267075966032</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017214767151786</v>
+        <v>0.9707389650251651</v>
       </c>
       <c r="D23">
-        <v>1.028537971010254</v>
+        <v>0.998295372145613</v>
       </c>
       <c r="E23">
-        <v>1.018744599620767</v>
+        <v>0.9828695276298521</v>
       </c>
       <c r="F23">
-        <v>1.03603892207534</v>
+        <v>0.9942524291611362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029538315256313</v>
+        <v>1.035894954561266</v>
       </c>
       <c r="J23">
-        <v>1.024056105362029</v>
+        <v>1.002126311079904</v>
       </c>
       <c r="K23">
-        <v>1.03220730229996</v>
+        <v>1.013587077423569</v>
       </c>
       <c r="L23">
-        <v>1.022452039391852</v>
+        <v>0.9984672742817549</v>
       </c>
       <c r="M23">
-        <v>1.039679605484442</v>
+        <v>1.009623139088234</v>
       </c>
       <c r="N23">
-        <v>1.012073377478526</v>
+        <v>1.004594175873911</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018503789118165</v>
+        <v>0.9774506578605264</v>
       </c>
       <c r="D24">
-        <v>1.02956184783521</v>
+        <v>1.003415680110513</v>
       </c>
       <c r="E24">
-        <v>1.019830683945526</v>
+        <v>0.9880747120654901</v>
       </c>
       <c r="F24">
-        <v>1.037406707411656</v>
+        <v>1.000868535996299</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02973229305825</v>
+        <v>1.037422934820136</v>
       </c>
       <c r="J24">
-        <v>1.024813372967355</v>
+        <v>1.005845235136649</v>
       </c>
       <c r="K24">
-        <v>1.032954531093431</v>
+        <v>1.01738307692496</v>
       </c>
       <c r="L24">
-        <v>1.023258158005877</v>
+        <v>1.002314536434472</v>
       </c>
       <c r="M24">
-        <v>1.040771867236372</v>
+        <v>1.014880416317758</v>
       </c>
       <c r="N24">
-        <v>1.012327395607735</v>
+        <v>1.005853263409109</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020002682080956</v>
+        <v>0.9849533902145822</v>
       </c>
       <c r="D25">
-        <v>1.030751713189443</v>
+        <v>1.009154626741292</v>
       </c>
       <c r="E25">
-        <v>1.021095525823917</v>
+        <v>0.9939281559825633</v>
       </c>
       <c r="F25">
-        <v>1.038998110770267</v>
+        <v>1.008288592400231</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029951630467125</v>
+        <v>1.03908606452244</v>
       </c>
       <c r="J25">
-        <v>1.025692299512759</v>
+        <v>1.009997964463049</v>
       </c>
       <c r="K25">
-        <v>1.033820192782446</v>
+        <v>1.021612471918385</v>
       </c>
       <c r="L25">
-        <v>1.024194995670774</v>
+        <v>1.006621466504275</v>
       </c>
       <c r="M25">
-        <v>1.042040623104059</v>
+        <v>1.02075958697234</v>
       </c>
       <c r="N25">
-        <v>1.012621975588825</v>
+        <v>1.007258486065346</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9907269411137076</v>
+        <v>1.010220635331786</v>
       </c>
       <c r="D2">
-        <v>1.013580593533155</v>
+        <v>1.027189669367338</v>
       </c>
       <c r="E2">
-        <v>0.998458342997762</v>
+        <v>1.025005362096944</v>
       </c>
       <c r="F2">
-        <v>1.014016216132384</v>
+        <v>1.035563452113824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040328166289777</v>
+        <v>1.046966349982515</v>
       </c>
       <c r="J2">
-        <v>1.013188590056338</v>
+        <v>1.032099887939296</v>
       </c>
       <c r="K2">
-        <v>1.024853916592341</v>
+        <v>1.038282771861736</v>
       </c>
       <c r="L2">
-        <v>1.009939197416899</v>
+        <v>1.036126986632537</v>
       </c>
       <c r="M2">
-        <v>1.02528367619728</v>
+        <v>1.046548605311461</v>
       </c>
       <c r="N2">
-        <v>1.008337435383015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01458909041788</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045412472792013</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038139506398411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9948059270491401</v>
+        <v>1.013364229721849</v>
       </c>
       <c r="D3">
-        <v>1.016711999534865</v>
+        <v>1.029204756057785</v>
       </c>
       <c r="E3">
-        <v>1.001672903903621</v>
+        <v>1.027459578566896</v>
       </c>
       <c r="F3">
-        <v>1.018072240175093</v>
+        <v>1.038044829523248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041183040084714</v>
+        <v>1.047606748146485</v>
       </c>
       <c r="J3">
-        <v>1.015439196246591</v>
+        <v>1.033497085761881</v>
       </c>
       <c r="K3">
-        <v>1.027135421096826</v>
+        <v>1.039477110799963</v>
       </c>
       <c r="L3">
-        <v>1.012284424269935</v>
+        <v>1.037752762800093</v>
       </c>
       <c r="M3">
-        <v>1.028478989606768</v>
+        <v>1.048213004869723</v>
       </c>
       <c r="N3">
-        <v>1.009098033831798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015060921400528</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046729723369388</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038981340329375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9973957173524154</v>
+        <v>1.015367141907346</v>
       </c>
       <c r="D4">
-        <v>1.018701884477945</v>
+        <v>1.03049270121306</v>
       </c>
       <c r="E4">
-        <v>1.003720059785352</v>
+        <v>1.029028934242638</v>
       </c>
       <c r="F4">
-        <v>1.020651611805094</v>
+        <v>1.039632836499313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041715046233449</v>
+        <v>1.048007869504082</v>
       </c>
       <c r="J4">
-        <v>1.016866276368923</v>
+        <v>1.034385759005743</v>
       </c>
       <c r="K4">
-        <v>1.028579714829019</v>
+        <v>1.040236524810982</v>
       </c>
       <c r="L4">
-        <v>1.013773793359384</v>
+        <v>1.038789188405519</v>
       </c>
       <c r="M4">
-        <v>1.030507019103066</v>
+        <v>1.049275349050391</v>
       </c>
       <c r="N4">
-        <v>1.009580081461808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015361013768275</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047570489896454</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039519206918933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9984729811174065</v>
+        <v>1.016204223731369</v>
       </c>
       <c r="D5">
-        <v>1.019529971348818</v>
+        <v>1.031034013977772</v>
       </c>
       <c r="E5">
-        <v>1.004573053210848</v>
+        <v>1.02968622410503</v>
       </c>
       <c r="F5">
-        <v>1.021725507445441</v>
+        <v>1.040297699254322</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041933720242284</v>
+        <v>1.048175113873399</v>
       </c>
       <c r="J5">
-        <v>1.017459418065985</v>
+        <v>1.034758024257572</v>
       </c>
       <c r="K5">
-        <v>1.029179427201324</v>
+        <v>1.040556192566899</v>
       </c>
       <c r="L5">
-        <v>1.014393373797761</v>
+        <v>1.039223133603572</v>
       </c>
       <c r="M5">
-        <v>1.031350400243799</v>
+        <v>1.049719893801522</v>
       </c>
       <c r="N5">
-        <v>1.009780376390425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015486913946237</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04792231377029</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039752411459037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9986531959401086</v>
+        <v>1.016347203648436</v>
       </c>
       <c r="D6">
-        <v>1.019668521424557</v>
+        <v>1.031129070177934</v>
       </c>
       <c r="E6">
-        <v>1.004715833887905</v>
+        <v>1.029798653170862</v>
       </c>
       <c r="F6">
-        <v>1.021905214657821</v>
+        <v>1.040410779398403</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041970146800367</v>
+        <v>1.048205144949548</v>
       </c>
       <c r="J6">
-        <v>1.017558615637193</v>
+        <v>1.034823103759118</v>
       </c>
       <c r="K6">
-        <v>1.029279688954219</v>
+        <v>1.04061402009342</v>
       </c>
       <c r="L6">
-        <v>1.01449702529932</v>
+        <v>1.039298078345116</v>
       </c>
       <c r="M6">
-        <v>1.031491475540086</v>
+        <v>1.049796003163324</v>
       </c>
       <c r="N6">
-        <v>1.009813870288952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015509161068376</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047982548612752</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039802047618076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974101564277398</v>
+        <v>1.015386014936243</v>
       </c>
       <c r="D7">
-        <v>1.018712982348912</v>
+        <v>1.030511695944546</v>
       </c>
       <c r="E7">
-        <v>1.003731487197495</v>
+        <v>1.029043969375711</v>
       </c>
       <c r="F7">
-        <v>1.020666001964373</v>
+        <v>1.03964626469403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041717987631982</v>
+        <v>1.048015837440849</v>
       </c>
       <c r="J7">
-        <v>1.016874228440536</v>
+        <v>1.034398218904089</v>
       </c>
       <c r="K7">
-        <v>1.028587757315411</v>
+        <v>1.040252424030748</v>
       </c>
       <c r="L7">
-        <v>1.013782097717288</v>
+        <v>1.038801166309013</v>
       </c>
       <c r="M7">
-        <v>1.030518324217428</v>
+        <v>1.049285781050764</v>
       </c>
       <c r="N7">
-        <v>1.009582766996321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015365873364543</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047578746045302</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039550566782397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9921159593422291</v>
+        <v>1.011299124885784</v>
       </c>
       <c r="D8">
-        <v>1.014646540052149</v>
+        <v>1.02788851108683</v>
       </c>
       <c r="E8">
-        <v>0.9995516750964695</v>
+        <v>1.025846469667518</v>
       </c>
       <c r="F8">
-        <v>1.015396523544658</v>
+        <v>1.036411385772487</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04062150631258</v>
+        <v>1.047192620982677</v>
       </c>
       <c r="J8">
-        <v>1.013955359217813</v>
+        <v>1.032584564628538</v>
       </c>
       <c r="K8">
-        <v>1.025631703244778</v>
+        <v>1.038703514559962</v>
       </c>
       <c r="L8">
-        <v>1.010737722654083</v>
+        <v>1.03668735564432</v>
       </c>
       <c r="M8">
-        <v>1.026371900956173</v>
+        <v>1.047119734808304</v>
       </c>
       <c r="N8">
-        <v>1.008596615199063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014753608810686</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045864480303262</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038459921990444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9823888331889926</v>
+        <v>1.003837695428718</v>
       </c>
       <c r="D9">
-        <v>1.007191272364954</v>
+        <v>1.023121854693535</v>
       </c>
       <c r="E9">
-        <v>0.9919231519430234</v>
+        <v>1.020054351180527</v>
       </c>
       <c r="F9">
-        <v>1.005749398153735</v>
+        <v>1.030564574074966</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038523410081612</v>
+        <v>1.0456297614906</v>
       </c>
       <c r="J9">
-        <v>1.008579190927091</v>
+        <v>1.029255658840631</v>
       </c>
       <c r="K9">
-        <v>1.020168743791569</v>
+        <v>1.035850612717129</v>
       </c>
       <c r="L9">
-        <v>1.005148643862113</v>
+        <v>1.032830228991342</v>
       </c>
       <c r="M9">
-        <v>1.018749879046241</v>
+        <v>1.043180489130135</v>
       </c>
       <c r="N9">
-        <v>1.006778497917059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013628694149018</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042746847808471</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036439559058179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9756093781363067</v>
+        <v>0.9987322881883781</v>
       </c>
       <c r="D10">
-        <v>1.002009642614952</v>
+        <v>1.019893163018211</v>
       </c>
       <c r="E10">
-        <v>0.9866438396435353</v>
+        <v>1.016168654303186</v>
       </c>
       <c r="F10">
-        <v>0.9990514595281598</v>
+        <v>1.026710569365215</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037007259675069</v>
+        <v>1.04454597551096</v>
       </c>
       <c r="J10">
-        <v>1.004825279017306</v>
+        <v>1.026996293686443</v>
       </c>
       <c r="K10">
-        <v>1.016342706897467</v>
+        <v>1.033912295352797</v>
       </c>
       <c r="L10">
-        <v>1.001258504950097</v>
+        <v>1.030251988891916</v>
       </c>
       <c r="M10">
-        <v>1.01343786131177</v>
+        <v>1.040613741266136</v>
       </c>
       <c r="N10">
-        <v>1.005507997488559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012868250545801</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040766738374729</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035085869386096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9725974042581582</v>
+        <v>0.9968527988726392</v>
       </c>
       <c r="D11">
-        <v>0.9997117997814907</v>
+        <v>1.018770644588582</v>
       </c>
       <c r="E11">
-        <v>0.9843079281493609</v>
+        <v>1.015104493880021</v>
       </c>
       <c r="F11">
-        <v>0.9960823729573306</v>
+        <v>1.026153868150514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036321494649472</v>
+        <v>1.044292430093241</v>
       </c>
       <c r="J11">
-        <v>1.003156330197935</v>
+        <v>1.026357093738412</v>
       </c>
       <c r="K11">
-        <v>1.014639153183763</v>
+        <v>1.033347048145455</v>
       </c>
       <c r="L11">
-        <v>0.9995319680609805</v>
+        <v>1.029747074475445</v>
       </c>
       <c r="M11">
-        <v>1.011078550097996</v>
+        <v>1.040598859059756</v>
       </c>
       <c r="N11">
-        <v>1.004942951914763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012677662124249</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041189807549293</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034719072271416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9714665476080632</v>
+        <v>0.9962821452445708</v>
       </c>
       <c r="D12">
-        <v>0.9988497784478583</v>
+        <v>1.018450674772441</v>
       </c>
       <c r="E12">
-        <v>0.983432402154449</v>
+        <v>1.014935218395526</v>
       </c>
       <c r="F12">
-        <v>0.9949686712546679</v>
+        <v>1.026353106466455</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036062246131141</v>
+        <v>1.044277753840851</v>
       </c>
       <c r="J12">
-        <v>1.002529584948126</v>
+        <v>1.026244689093585</v>
       </c>
       <c r="K12">
-        <v>1.013999048114129</v>
+        <v>1.03323272500072</v>
       </c>
       <c r="L12">
-        <v>0.9988840466150145</v>
+        <v>1.029781769880609</v>
       </c>
       <c r="M12">
-        <v>1.010192902587198</v>
+        <v>1.040992258588704</v>
       </c>
       <c r="N12">
-        <v>1.004730733052183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012659407778437</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041826342383336</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034638242061722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9717096765852451</v>
+        <v>0.99668861516014</v>
       </c>
       <c r="D13">
-        <v>0.9990350756687404</v>
+        <v>1.018738885176079</v>
       </c>
       <c r="E13">
-        <v>0.9836205673941584</v>
+        <v>1.015452063035674</v>
       </c>
       <c r="F13">
-        <v>0.9952080635876271</v>
+        <v>1.027166745969627</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036118062731539</v>
+        <v>1.044456294917275</v>
       </c>
       <c r="J13">
-        <v>1.002664337573737</v>
+        <v>1.026540646576757</v>
       </c>
       <c r="K13">
-        <v>1.014136689347701</v>
+        <v>1.033472813705258</v>
       </c>
       <c r="L13">
-        <v>0.9990233318207279</v>
+        <v>1.030246034203336</v>
       </c>
       <c r="M13">
-        <v>1.010383304335023</v>
+        <v>1.041748996064035</v>
       </c>
       <c r="N13">
-        <v>1.004776362019004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012776977428185</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042700522609612</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034805499246276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9725041771954884</v>
+        <v>0.9974157756371479</v>
       </c>
       <c r="D14">
-        <v>0.9996407204053364</v>
+        <v>1.019217388970321</v>
       </c>
       <c r="E14">
-        <v>0.9842357195018859</v>
+        <v>1.016122133835164</v>
       </c>
       <c r="F14">
-        <v>0.995990538432509</v>
+        <v>1.028011265356249</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036300158163731</v>
+        <v>1.044668529668381</v>
       </c>
       <c r="J14">
-        <v>1.003104664180304</v>
+        <v>1.026932266276326</v>
       </c>
       <c r="K14">
-        <v>1.014586393155775</v>
+        <v>1.033802276749806</v>
       </c>
       <c r="L14">
-        <v>0.9994785472079593</v>
+        <v>1.030762861811243</v>
       </c>
       <c r="M14">
-        <v>1.01100553422377</v>
+        <v>1.042439884464127</v>
       </c>
       <c r="N14">
-        <v>1.004925458060584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01292074396956</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043419499341544</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035039865549987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9729920767395563</v>
+        <v>0.9978097491297859</v>
       </c>
       <c r="D15">
-        <v>1.000012740538393</v>
+        <v>1.019471921889243</v>
       </c>
       <c r="E15">
-        <v>0.9846136816965101</v>
+        <v>1.0164445692089</v>
       </c>
       <c r="F15">
-        <v>0.9964711934284575</v>
+        <v>1.028369558688027</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036411749600029</v>
+        <v>1.044766309053319</v>
       </c>
       <c r="J15">
-        <v>1.003375050768685</v>
+        <v>1.027122287508669</v>
       </c>
       <c r="K15">
-        <v>1.014862490326287</v>
+        <v>1.03396579552072</v>
       </c>
       <c r="L15">
-        <v>0.9997581358385036</v>
+        <v>1.030992645108909</v>
       </c>
       <c r="M15">
-        <v>1.011387666503374</v>
+        <v>1.04270651950416</v>
       </c>
       <c r="N15">
-        <v>1.005017008578196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012987486516223</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043667686743958</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035161351442094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9758076129346999</v>
+        <v>0.9998851521159388</v>
       </c>
       <c r="D16">
-        <v>1.002160971247039</v>
+        <v>1.020778539841909</v>
       </c>
       <c r="E16">
-        <v>0.9867977838925911</v>
+        <v>1.017990571886404</v>
       </c>
       <c r="F16">
-        <v>0.9992470149993701</v>
+        <v>1.029879050465345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037052144333466</v>
+        <v>1.045202269345024</v>
       </c>
       <c r="J16">
-        <v>1.00493510114929</v>
+        <v>1.02802652756671</v>
       </c>
       <c r="K16">
-        <v>1.016454754624192</v>
+        <v>1.034746892441116</v>
       </c>
       <c r="L16">
-        <v>1.0013721788525</v>
+        <v>1.032006677864271</v>
       </c>
       <c r="M16">
-        <v>1.013593160379595</v>
+        <v>1.04369384431699</v>
       </c>
       <c r="N16">
-        <v>1.005545175525602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013288688090982</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044409453495408</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03571678536092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9775528559875163</v>
+        <v>1.001099901568945</v>
       </c>
       <c r="D17">
-        <v>1.003493749245724</v>
+        <v>1.021533634952222</v>
       </c>
       <c r="E17">
-        <v>0.9881541954983045</v>
+        <v>1.018828282484101</v>
       </c>
       <c r="F17">
-        <v>1.000969435664691</v>
+        <v>1.030590637479642</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037445924510962</v>
+        <v>1.045424309746163</v>
       </c>
       <c r="J17">
-        <v>1.005901838831766</v>
+        <v>1.028515877700946</v>
       </c>
       <c r="K17">
-        <v>1.01744079644085</v>
+        <v>1.03517434985594</v>
       </c>
       <c r="L17">
-        <v>1.002373162204412</v>
+        <v>1.032514045549275</v>
       </c>
       <c r="M17">
-        <v>1.014960488486544</v>
+        <v>1.044082750322851</v>
       </c>
       <c r="N17">
-        <v>1.005872423049505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013444613871032</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04458817738271</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036021604842022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.978563494842045</v>
+        <v>1.001676751103584</v>
       </c>
       <c r="D18">
-        <v>1.004265935786326</v>
+        <v>1.021868867445263</v>
       </c>
       <c r="E18">
-        <v>0.9889405750750853</v>
+        <v>1.019101473871167</v>
       </c>
       <c r="F18">
-        <v>1.001967488898178</v>
+        <v>1.030619290891889</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0376727955805</v>
+        <v>1.045472191861822</v>
       </c>
       <c r="J18">
-        <v>1.006461545934395</v>
+        <v>1.028676562120447</v>
       </c>
       <c r="K18">
-        <v>1.018011437674502</v>
+        <v>1.035320498766276</v>
       </c>
       <c r="L18">
-        <v>1.002952978899455</v>
+        <v>1.032598440161254</v>
       </c>
       <c r="M18">
-        <v>1.015752347123887</v>
+        <v>1.043929628019844</v>
       </c>
       <c r="N18">
-        <v>1.006061869111727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013483426590678</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044230162913477</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036113297380163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9789068703655851</v>
+        <v>1.001681963027635</v>
       </c>
       <c r="D19">
-        <v>1.004528360041616</v>
+        <v>1.02183762278075</v>
       </c>
       <c r="E19">
-        <v>0.9892079079735452</v>
+        <v>1.01885964757932</v>
       </c>
       <c r="F19">
-        <v>1.002306693790133</v>
+        <v>1.030018507024953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037749679180791</v>
+        <v>1.045370097312392</v>
       </c>
       <c r="J19">
-        <v>1.006651692044784</v>
+        <v>1.028547321482932</v>
       </c>
       <c r="K19">
-        <v>1.018205256781209</v>
+        <v>1.0352271828965</v>
       </c>
       <c r="L19">
-        <v>1.003150004579305</v>
+        <v>1.032297748707473</v>
       </c>
       <c r="M19">
-        <v>1.01602139878427</v>
+        <v>1.043276569888973</v>
       </c>
       <c r="N19">
-        <v>1.006126225259066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013421292853944</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043389337509979</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036053716894938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9773663704655872</v>
+        <v>1.00007312159738</v>
       </c>
       <c r="D20">
-        <v>1.003351295226459</v>
+        <v>1.02075621878668</v>
       </c>
       <c r="E20">
-        <v>0.9880091636172997</v>
+        <v>1.017189820498546</v>
       </c>
       <c r="F20">
-        <v>1.000785323057384</v>
+        <v>1.027721811074601</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037403967619237</v>
+        <v>1.044844009158164</v>
       </c>
       <c r="J20">
-        <v>1.005798550875064</v>
+        <v>1.027601224820618</v>
       </c>
       <c r="K20">
-        <v>1.017335471010152</v>
+        <v>1.034443656498533</v>
       </c>
       <c r="L20">
-        <v>1.00226618605163</v>
+        <v>1.030936995258489</v>
       </c>
       <c r="M20">
-        <v>1.014814377547724</v>
+        <v>1.041294112649183</v>
       </c>
       <c r="N20">
-        <v>1.005837461265964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013073874265624</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041294659013146</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035503651713118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9722705548666198</v>
+        <v>0.9961790532004294</v>
       </c>
       <c r="D21">
-        <v>0.9994626107964344</v>
+        <v>1.018288121531357</v>
       </c>
       <c r="E21">
-        <v>0.9840547926555558</v>
+        <v>1.014168314028416</v>
       </c>
       <c r="F21">
-        <v>0.9957604228723428</v>
+        <v>1.024631087445113</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036246661579086</v>
+        <v>1.043975020265527</v>
       </c>
       <c r="J21">
-        <v>1.002975189754883</v>
+        <v>1.025837399860482</v>
       </c>
       <c r="K21">
-        <v>1.014454171338344</v>
+        <v>1.03293111002932</v>
       </c>
       <c r="L21">
-        <v>0.9993446824466665</v>
+        <v>1.028886144753383</v>
       </c>
       <c r="M21">
-        <v>1.010822562969152</v>
+        <v>1.039160373874266</v>
       </c>
       <c r="N21">
-        <v>1.004881618269488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012475626906872</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039565199009867</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034437445827986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9689964264638378</v>
+        <v>0.9937041840516191</v>
       </c>
       <c r="D22">
-        <v>0.9969682652035312</v>
+        <v>1.01672204103058</v>
       </c>
       <c r="E22">
-        <v>0.9815228258045812</v>
+        <v>1.012277508161298</v>
       </c>
       <c r="F22">
-        <v>0.9925380144040691</v>
+        <v>1.022731096556469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035492768262485</v>
+        <v>1.043421261523258</v>
       </c>
       <c r="J22">
-        <v>1.001160395289459</v>
+        <v>1.024723215640974</v>
       </c>
       <c r="K22">
-        <v>1.012600021552959</v>
+        <v>1.031969353565734</v>
       </c>
       <c r="L22">
-        <v>0.9974694259287793</v>
+        <v>1.027609606741525</v>
       </c>
       <c r="M22">
-        <v>1.008258758334441</v>
+        <v>1.037865306596825</v>
       </c>
       <c r="N22">
-        <v>1.004267075966032</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012098314252315</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038540238027848</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03374392599938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9707389650251651</v>
+        <v>0.9950131518393889</v>
       </c>
       <c r="D23">
-        <v>0.998295372145613</v>
+        <v>1.017543892058384</v>
       </c>
       <c r="E23">
-        <v>0.9828695276298521</v>
+        <v>1.013276470428824</v>
       </c>
       <c r="F23">
-        <v>0.9942524291611362</v>
+        <v>1.023736369951322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035894954561266</v>
+        <v>1.043711216815216</v>
       </c>
       <c r="J23">
-        <v>1.002126311079904</v>
+        <v>1.02530903083372</v>
       </c>
       <c r="K23">
-        <v>1.013587077423569</v>
+        <v>1.032470677738888</v>
       </c>
       <c r="L23">
-        <v>0.9984672742817549</v>
+        <v>1.028282598015541</v>
       </c>
       <c r="M23">
-        <v>1.009623139088234</v>
+        <v>1.038549552910514</v>
       </c>
       <c r="N23">
-        <v>1.004594175873911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012295991513369</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039081774380635</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034088744815793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9774506578605264</v>
+        <v>1.000090274695727</v>
       </c>
       <c r="D24">
-        <v>1.003415680110513</v>
+        <v>1.020752437019793</v>
       </c>
       <c r="E24">
-        <v>0.9880747120654901</v>
+        <v>1.017167152001512</v>
       </c>
       <c r="F24">
-        <v>1.000868535996299</v>
+        <v>1.027652319727619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037422934820136</v>
+        <v>1.044827636638981</v>
       </c>
       <c r="J24">
-        <v>1.005845235136649</v>
+        <v>1.027584850011272</v>
       </c>
       <c r="K24">
-        <v>1.01738307692496</v>
+        <v>1.034424660846411</v>
       </c>
       <c r="L24">
-        <v>1.002314536434472</v>
+        <v>1.030899354231483</v>
       </c>
       <c r="M24">
-        <v>1.014880416317758</v>
+        <v>1.041210629126914</v>
       </c>
       <c r="N24">
-        <v>1.005853263409109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01306514220484</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041187838855647</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035462802223974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9849533902145822</v>
+        <v>1.005809363557074</v>
       </c>
       <c r="D25">
-        <v>1.009154626741292</v>
+        <v>1.0243877816878</v>
       </c>
       <c r="E25">
-        <v>0.9939281559825633</v>
+        <v>1.021579828498637</v>
       </c>
       <c r="F25">
-        <v>1.008288592400231</v>
+        <v>1.032100446654725</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03908606452244</v>
+        <v>1.046055205831047</v>
       </c>
       <c r="J25">
-        <v>1.009997964463049</v>
+        <v>1.03014278874095</v>
       </c>
       <c r="K25">
-        <v>1.021612471918385</v>
+        <v>1.036618947720768</v>
       </c>
       <c r="L25">
-        <v>1.006621466504275</v>
+        <v>1.033852133337535</v>
       </c>
       <c r="M25">
-        <v>1.02075958697234</v>
+        <v>1.044220074233392</v>
       </c>
       <c r="N25">
-        <v>1.007258486065346</v>
+        <v>1.013929594424123</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043569606696047</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037011415610441</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010220635331786</v>
+        <v>1.009897250293637</v>
       </c>
       <c r="D2">
-        <v>1.027189669367338</v>
+        <v>1.02639306587069</v>
       </c>
       <c r="E2">
-        <v>1.025005362096944</v>
+        <v>1.024752728967199</v>
       </c>
       <c r="F2">
-        <v>1.035563452113824</v>
+        <v>1.03536813037596</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046966349982515</v>
+        <v>1.046649605447528</v>
       </c>
       <c r="J2">
-        <v>1.032099887939296</v>
+        <v>1.03178591300108</v>
       </c>
       <c r="K2">
-        <v>1.038282771861736</v>
+        <v>1.037496552563803</v>
       </c>
       <c r="L2">
-        <v>1.036126986632537</v>
+        <v>1.035877662142</v>
       </c>
       <c r="M2">
-        <v>1.046548605311461</v>
+        <v>1.046355776679847</v>
       </c>
       <c r="N2">
-        <v>1.01458909041788</v>
+        <v>1.015617123724884</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045412472792013</v>
+        <v>1.045259862873859</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038139506398411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03759236017569</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022050318350748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013364229721849</v>
+        <v>1.012952999028742</v>
       </c>
       <c r="D3">
-        <v>1.029204756057785</v>
+        <v>1.028283013148119</v>
       </c>
       <c r="E3">
-        <v>1.027459578566896</v>
+        <v>1.027137427102671</v>
       </c>
       <c r="F3">
-        <v>1.038044829523248</v>
+        <v>1.037799229803031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047606748146485</v>
+        <v>1.047229848830862</v>
       </c>
       <c r="J3">
-        <v>1.033497085761881</v>
+        <v>1.033096674269377</v>
       </c>
       <c r="K3">
-        <v>1.039477110799963</v>
+        <v>1.038566358389481</v>
       </c>
       <c r="L3">
-        <v>1.037752762800093</v>
+        <v>1.037434465959465</v>
       </c>
       <c r="M3">
-        <v>1.048213004869723</v>
+        <v>1.047970269869885</v>
       </c>
       <c r="N3">
-        <v>1.015060921400528</v>
+        <v>1.015968834023504</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046729723369388</v>
+        <v>1.046537616508576</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038981340329375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038345864214726</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02223848443296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015367141907346</v>
+        <v>1.014900415525146</v>
       </c>
       <c r="D4">
-        <v>1.03049270121306</v>
+        <v>1.029491508869672</v>
       </c>
       <c r="E4">
-        <v>1.029028934242638</v>
+        <v>1.028662826498181</v>
       </c>
       <c r="F4">
-        <v>1.039632836499313</v>
+        <v>1.039355474795491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048007869504082</v>
+        <v>1.047592754316926</v>
       </c>
       <c r="J4">
-        <v>1.034385759005743</v>
+        <v>1.033930497302475</v>
       </c>
       <c r="K4">
-        <v>1.040236524810982</v>
+        <v>1.039246564483137</v>
       </c>
       <c r="L4">
-        <v>1.038789188405519</v>
+        <v>1.038427199170036</v>
       </c>
       <c r="M4">
-        <v>1.049275349050391</v>
+        <v>1.049001029474261</v>
       </c>
       <c r="N4">
-        <v>1.015361013768275</v>
+        <v>1.016192592624685</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047570489896454</v>
+        <v>1.04735338641516</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039519206918933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03882780749443</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022355851946137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016204223731369</v>
+        <v>1.015714415532266</v>
       </c>
       <c r="D5">
-        <v>1.031034013977772</v>
+        <v>1.029999730652158</v>
       </c>
       <c r="E5">
-        <v>1.02968622410503</v>
+        <v>1.029301825935361</v>
       </c>
       <c r="F5">
-        <v>1.040297699254322</v>
+        <v>1.040007128162319</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048175113873399</v>
+        <v>1.047744065882571</v>
       </c>
       <c r="J5">
-        <v>1.034758024257572</v>
+        <v>1.034279895066583</v>
       </c>
       <c r="K5">
-        <v>1.040556192566899</v>
+        <v>1.039533209400311</v>
       </c>
       <c r="L5">
-        <v>1.039223133603572</v>
+        <v>1.038842945464909</v>
       </c>
       <c r="M5">
-        <v>1.049719893801522</v>
+        <v>1.049432425736346</v>
       </c>
       <c r="N5">
-        <v>1.015486913946237</v>
+        <v>1.016286514553575</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04792231377029</v>
+        <v>1.047694804347355</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039752411459037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039038373501282</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022405206953748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016347203648436</v>
+        <v>1.015853462439911</v>
       </c>
       <c r="D6">
-        <v>1.031129070177934</v>
+        <v>1.030089195639976</v>
       </c>
       <c r="E6">
-        <v>1.029798653170862</v>
+        <v>1.029411137520239</v>
       </c>
       <c r="F6">
-        <v>1.040410779398403</v>
+        <v>1.040117957990854</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048205144949548</v>
+        <v>1.047771391926882</v>
       </c>
       <c r="J6">
-        <v>1.034823103759118</v>
+        <v>1.034341075960053</v>
       </c>
       <c r="K6">
-        <v>1.04061402009342</v>
+        <v>1.039585455725557</v>
       </c>
       <c r="L6">
-        <v>1.039298078345116</v>
+        <v>1.038914787595058</v>
       </c>
       <c r="M6">
-        <v>1.049796003163324</v>
+        <v>1.049506294653321</v>
       </c>
       <c r="N6">
-        <v>1.015509161068376</v>
+        <v>1.016303149651748</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047982548612752</v>
+        <v>1.047753266064078</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039802047618076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039084931982165</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022414714597265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015386014936243</v>
+        <v>1.014924901421322</v>
       </c>
       <c r="D7">
-        <v>1.030511695944546</v>
+        <v>1.029514283352469</v>
       </c>
       <c r="E7">
-        <v>1.029043969375711</v>
+        <v>1.028682331272333</v>
       </c>
       <c r="F7">
-        <v>1.03964626469403</v>
+        <v>1.039372056710915</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048015837440849</v>
+        <v>1.04760332306969</v>
       </c>
       <c r="J7">
-        <v>1.034398218904089</v>
+        <v>1.033948427413474</v>
       </c>
       <c r="K7">
-        <v>1.040252424030748</v>
+        <v>1.039266196761006</v>
       </c>
       <c r="L7">
-        <v>1.038801166309013</v>
+        <v>1.038443594908566</v>
       </c>
       <c r="M7">
-        <v>1.049285781050764</v>
+        <v>1.049014579498163</v>
       </c>
       <c r="N7">
-        <v>1.015365873364543</v>
+        <v>1.016223636704406</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047578746045302</v>
+        <v>1.047364110249795</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039550566782397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038863805383305</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022361235813449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011299124885784</v>
+        <v>1.010964312971568</v>
       </c>
       <c r="D8">
-        <v>1.02788851108683</v>
+        <v>1.027062559916525</v>
       </c>
       <c r="E8">
-        <v>1.025846469667518</v>
+        <v>1.02558491077449</v>
       </c>
       <c r="F8">
-        <v>1.036411385772487</v>
+        <v>1.036209379419483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047192620982677</v>
+        <v>1.046864248040954</v>
       </c>
       <c r="J8">
-        <v>1.032584564628538</v>
+        <v>1.032259174999845</v>
       </c>
       <c r="K8">
-        <v>1.038703514559962</v>
+        <v>1.037888016696596</v>
       </c>
       <c r="L8">
-        <v>1.03668735564432</v>
+        <v>1.036429121261905</v>
       </c>
       <c r="M8">
-        <v>1.047119734808304</v>
+        <v>1.046920231064127</v>
       </c>
       <c r="N8">
-        <v>1.014753608810686</v>
+        <v>1.015822912915652</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045864480303262</v>
+        <v>1.045706587612836</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038459921990444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037894340759193</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022123045236653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003837695428718</v>
+        <v>1.003717063854875</v>
       </c>
       <c r="D9">
-        <v>1.023121854693535</v>
+        <v>1.022596458335714</v>
       </c>
       <c r="E9">
-        <v>1.020054351180527</v>
+        <v>1.019962035890102</v>
       </c>
       <c r="F9">
-        <v>1.030564574074966</v>
+        <v>1.030485177040439</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.0456297614906</v>
+        <v>1.045446117728818</v>
       </c>
       <c r="J9">
-        <v>1.029255658840631</v>
+        <v>1.02913924238566</v>
       </c>
       <c r="K9">
-        <v>1.035850612717129</v>
+        <v>1.035333261353296</v>
       </c>
       <c r="L9">
-        <v>1.032830228991342</v>
+        <v>1.032739337360869</v>
       </c>
       <c r="M9">
-        <v>1.043180489130135</v>
+        <v>1.043102284925955</v>
       </c>
       <c r="N9">
-        <v>1.013628694149018</v>
+        <v>1.014994726573991</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042746847808471</v>
+        <v>1.042684954613811</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036439559058179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03608450226418</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021659616892301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9987322881883781</v>
+        <v>0.9987870698248038</v>
       </c>
       <c r="D10">
-        <v>1.019893163018211</v>
+        <v>1.019593071090487</v>
       </c>
       <c r="E10">
-        <v>1.016168654303186</v>
+        <v>1.016214731825867</v>
       </c>
       <c r="F10">
-        <v>1.026710569365215</v>
+        <v>1.026731422638307</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04454597551096</v>
+        <v>1.044474129144535</v>
       </c>
       <c r="J10">
-        <v>1.026996293686443</v>
+        <v>1.027048894179143</v>
       </c>
       <c r="K10">
-        <v>1.033912295352797</v>
+        <v>1.033617353885758</v>
       </c>
       <c r="L10">
-        <v>1.030251988891916</v>
+        <v>1.030297268420563</v>
       </c>
       <c r="M10">
-        <v>1.040613741266136</v>
+        <v>1.040634242883556</v>
       </c>
       <c r="N10">
-        <v>1.012868250545801</v>
+        <v>1.014552189210127</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040766738374729</v>
+        <v>1.040782963018245</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035085869386096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034889745160284</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021342970841366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9968527988726392</v>
+        <v>0.9970050616153596</v>
       </c>
       <c r="D11">
-        <v>1.018770644588582</v>
+        <v>1.018571733892369</v>
       </c>
       <c r="E11">
-        <v>1.015104493880021</v>
+        <v>1.015226870847472</v>
       </c>
       <c r="F11">
-        <v>1.026153868150514</v>
+        <v>1.026229727105517</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044292430093241</v>
+        <v>1.044274905428865</v>
       </c>
       <c r="J11">
-        <v>1.026357093738412</v>
+        <v>1.026502966481123</v>
       </c>
       <c r="K11">
-        <v>1.033347048145455</v>
+        <v>1.033151712069452</v>
       </c>
       <c r="L11">
-        <v>1.029747074475445</v>
+        <v>1.029867232408493</v>
       </c>
       <c r="M11">
-        <v>1.040598859059756</v>
+        <v>1.040673380538921</v>
       </c>
       <c r="N11">
-        <v>1.012677662124249</v>
+        <v>1.014651222609423</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041189807549293</v>
+        <v>1.041248753132791</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034719072271416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03459658731747</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021287012843227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9962821452445708</v>
+        <v>0.9964655647750678</v>
       </c>
       <c r="D12">
-        <v>1.018450674772441</v>
+        <v>1.018280955012047</v>
       </c>
       <c r="E12">
-        <v>1.014935218395526</v>
+        <v>1.015081437839293</v>
       </c>
       <c r="F12">
-        <v>1.026353106466455</v>
+        <v>1.026446094965141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044277753840851</v>
+        <v>1.044276093408158</v>
       </c>
       <c r="J12">
-        <v>1.026244689093585</v>
+        <v>1.026420265168725</v>
       </c>
       <c r="K12">
-        <v>1.03323272500072</v>
+        <v>1.033066105922125</v>
       </c>
       <c r="L12">
-        <v>1.029781769880609</v>
+        <v>1.029925294900278</v>
       </c>
       <c r="M12">
-        <v>1.040992258588704</v>
+        <v>1.041083582605822</v>
       </c>
       <c r="N12">
-        <v>1.012659407778437</v>
+        <v>1.014744295117543</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041826342383336</v>
+        <v>1.041898554273922</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034638242061722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034536062215146</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021292137521662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.99668861516014</v>
+        <v>0.9968453208187755</v>
       </c>
       <c r="D13">
-        <v>1.018738885176079</v>
+        <v>1.018538460071118</v>
       </c>
       <c r="E13">
-        <v>1.015452063035674</v>
+        <v>1.015576430363146</v>
       </c>
       <c r="F13">
-        <v>1.027166745969627</v>
+        <v>1.027243978868098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044456294917275</v>
+        <v>1.044437840686952</v>
       </c>
       <c r="J13">
-        <v>1.026540646576757</v>
+        <v>1.026690683170958</v>
       </c>
       <c r="K13">
-        <v>1.033472813705258</v>
+        <v>1.033276035466452</v>
       </c>
       <c r="L13">
-        <v>1.030246034203336</v>
+        <v>1.030368120413398</v>
       </c>
       <c r="M13">
-        <v>1.041748996064035</v>
+        <v>1.041824853919165</v>
       </c>
       <c r="N13">
-        <v>1.012776977428185</v>
+        <v>1.014806927555741</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042700522609612</v>
+        <v>1.042760490087131</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034805499246276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034681750389431</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021348291481927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9974157756371479</v>
+        <v>0.9975280016673619</v>
       </c>
       <c r="D14">
-        <v>1.019217388970321</v>
+        <v>1.018968767012171</v>
       </c>
       <c r="E14">
-        <v>1.016122133835164</v>
+        <v>1.016210946236002</v>
       </c>
       <c r="F14">
-        <v>1.028011265356249</v>
+        <v>1.028062939356598</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044668529668381</v>
+        <v>1.044623855625607</v>
       </c>
       <c r="J14">
-        <v>1.026932266276326</v>
+        <v>1.027039783093903</v>
       </c>
       <c r="K14">
-        <v>1.033802276749806</v>
+        <v>1.033558123793324</v>
       </c>
       <c r="L14">
-        <v>1.030762861811243</v>
+        <v>1.030850065820258</v>
       </c>
       <c r="M14">
-        <v>1.042439884464127</v>
+        <v>1.042490650448348</v>
       </c>
       <c r="N14">
-        <v>1.01292074396956</v>
+        <v>1.014838076209825</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043419499341544</v>
+        <v>1.043459625695799</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035039865549987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034882755681634</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021411130603795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9978097491297859</v>
+        <v>0.9978990129161713</v>
       </c>
       <c r="D15">
-        <v>1.019471921889243</v>
+        <v>1.019198773793982</v>
       </c>
       <c r="E15">
-        <v>1.0164445692089</v>
+        <v>1.016515189221143</v>
       </c>
       <c r="F15">
-        <v>1.028369558688027</v>
+        <v>1.028408166891986</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044766309053319</v>
+        <v>1.044708377761916</v>
       </c>
       <c r="J15">
-        <v>1.027122287508669</v>
+        <v>1.027207837679158</v>
       </c>
       <c r="K15">
-        <v>1.03396579552072</v>
+        <v>1.033697520759662</v>
       </c>
       <c r="L15">
-        <v>1.030992645108909</v>
+        <v>1.031061995948974</v>
       </c>
       <c r="M15">
-        <v>1.04270651950416</v>
+        <v>1.042744454500461</v>
       </c>
       <c r="N15">
-        <v>1.012987486516223</v>
+        <v>1.014843552107076</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043667686743958</v>
+        <v>1.043697670466597</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035161351442094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034987755715368</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021439444748566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9998851521159388</v>
+        <v>0.9998649121466858</v>
       </c>
       <c r="D16">
-        <v>1.020778539841909</v>
+        <v>1.020387168347726</v>
       </c>
       <c r="E16">
-        <v>1.017990571886404</v>
+        <v>1.017975103146274</v>
       </c>
       <c r="F16">
-        <v>1.029879050465345</v>
+        <v>1.029855823861426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045202269345024</v>
+        <v>1.045081494765629</v>
       </c>
       <c r="J16">
-        <v>1.02802652756671</v>
+        <v>1.028007088340868</v>
       </c>
       <c r="K16">
-        <v>1.034746892441116</v>
+        <v>1.034362204167166</v>
       </c>
       <c r="L16">
-        <v>1.032006677864271</v>
+        <v>1.031991475021907</v>
       </c>
       <c r="M16">
-        <v>1.04369384431699</v>
+        <v>1.043671005179949</v>
       </c>
       <c r="N16">
-        <v>1.013288688090982</v>
+        <v>1.014849568365311</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044409453495408</v>
+        <v>1.04439140099003</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03571678536092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035461181348271</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021559412756953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001099901568945</v>
+        <v>1.001025732106252</v>
       </c>
       <c r="D17">
-        <v>1.021533634952222</v>
+        <v>1.021081556776022</v>
       </c>
       <c r="E17">
-        <v>1.018828282484101</v>
+        <v>1.01877064157311</v>
       </c>
       <c r="F17">
-        <v>1.030590637479642</v>
+        <v>1.030537059103692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045424309746163</v>
+        <v>1.045272089572612</v>
       </c>
       <c r="J17">
-        <v>1.028515877700946</v>
+        <v>1.028444549928738</v>
       </c>
       <c r="K17">
-        <v>1.03517434985594</v>
+        <v>1.034729778065458</v>
       </c>
       <c r="L17">
-        <v>1.032514045549275</v>
+        <v>1.032457367799832</v>
       </c>
       <c r="M17">
-        <v>1.044082750322851</v>
+        <v>1.044030041166608</v>
       </c>
       <c r="N17">
-        <v>1.013444613871032</v>
+        <v>1.014866571828428</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04458817738271</v>
+        <v>1.044546510897859</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036021604842022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035723908906133</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021619372079417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001676751103584</v>
+        <v>1.00158330531916</v>
       </c>
       <c r="D18">
-        <v>1.021868867445263</v>
+        <v>1.021394484827235</v>
       </c>
       <c r="E18">
-        <v>1.019101473871167</v>
+        <v>1.019029074920309</v>
       </c>
       <c r="F18">
-        <v>1.030619290891889</v>
+        <v>1.030554991803777</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045472191861822</v>
+        <v>1.045308922419283</v>
       </c>
       <c r="J18">
-        <v>1.028676562120447</v>
+        <v>1.028586630442764</v>
       </c>
       <c r="K18">
-        <v>1.035320498766276</v>
+        <v>1.034853864979503</v>
       </c>
       <c r="L18">
-        <v>1.032598440161254</v>
+        <v>1.032527231488651</v>
       </c>
       <c r="M18">
-        <v>1.043929628019844</v>
+        <v>1.043866355958894</v>
       </c>
       <c r="N18">
-        <v>1.013483426590678</v>
+        <v>1.014852648841195</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044230162913477</v>
+        <v>1.044180136113006</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036113297380163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035798867944487</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021627117060735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001681963027635</v>
+        <v>1.001595416810473</v>
       </c>
       <c r="D19">
-        <v>1.02183762278075</v>
+        <v>1.021372089062766</v>
       </c>
       <c r="E19">
-        <v>1.01885964757932</v>
+        <v>1.018793191181594</v>
       </c>
       <c r="F19">
-        <v>1.030018507024953</v>
+        <v>1.029958347206091</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045370097312392</v>
+        <v>1.045211792957479</v>
       </c>
       <c r="J19">
-        <v>1.028547321482932</v>
+        <v>1.028464010804521</v>
       </c>
       <c r="K19">
-        <v>1.0352271828965</v>
+        <v>1.034769213403838</v>
       </c>
       <c r="L19">
-        <v>1.032297748707473</v>
+        <v>1.032232379710454</v>
       </c>
       <c r="M19">
-        <v>1.043276569888973</v>
+        <v>1.043217367292612</v>
       </c>
       <c r="N19">
-        <v>1.013421292853944</v>
+        <v>1.014794732206553</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043389337509979</v>
+        <v>1.043342513084436</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036053716894938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035746037835242</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021591981810166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00007312159738</v>
+        <v>1.000064546701134</v>
       </c>
       <c r="D20">
-        <v>1.02075621878668</v>
+        <v>1.020384809083233</v>
       </c>
       <c r="E20">
-        <v>1.017189820498546</v>
+        <v>1.017185742739849</v>
       </c>
       <c r="F20">
-        <v>1.027721811074601</v>
+        <v>1.027706471137647</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044844009158164</v>
+        <v>1.044734566459236</v>
       </c>
       <c r="J20">
-        <v>1.027601224820618</v>
+        <v>1.027592980408</v>
       </c>
       <c r="K20">
-        <v>1.034443656498533</v>
+        <v>1.034078442797673</v>
       </c>
       <c r="L20">
-        <v>1.030936995258489</v>
+        <v>1.030932986111287</v>
       </c>
       <c r="M20">
-        <v>1.041294112649183</v>
+        <v>1.041279024065459</v>
       </c>
       <c r="N20">
-        <v>1.013073874265624</v>
+        <v>1.014601497311128</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041294659013146</v>
+        <v>1.041282718012128</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035503651713118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035261943541759</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021430998860556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9961790532004294</v>
+        <v>0.9963896687030075</v>
       </c>
       <c r="D21">
-        <v>1.018288121531357</v>
+        <v>1.018151079749853</v>
       </c>
       <c r="E21">
-        <v>1.014168314028416</v>
+        <v>1.014338163433706</v>
       </c>
       <c r="F21">
-        <v>1.024631087445113</v>
+        <v>1.024741206848575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043975020265527</v>
+        <v>1.043992234338169</v>
       </c>
       <c r="J21">
-        <v>1.025837399860482</v>
+        <v>1.02603911577486</v>
       </c>
       <c r="K21">
-        <v>1.03293111002932</v>
+        <v>1.032796545146225</v>
       </c>
       <c r="L21">
-        <v>1.028886144753383</v>
+        <v>1.029052892959165</v>
       </c>
       <c r="M21">
-        <v>1.039160373874266</v>
+        <v>1.039268535442885</v>
       </c>
       <c r="N21">
-        <v>1.012475626906872</v>
+        <v>1.014597351925876</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039565199009867</v>
+        <v>1.039650801745513</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034437445827986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03435914153069</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021191512675664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9937041840516191</v>
+        <v>0.9940529354268238</v>
       </c>
       <c r="D22">
-        <v>1.01672204103058</v>
+        <v>1.016732910026714</v>
       </c>
       <c r="E22">
-        <v>1.012277508161298</v>
+        <v>1.012557042453741</v>
       </c>
       <c r="F22">
-        <v>1.022731096556469</v>
+        <v>1.022920610894893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043421261523258</v>
+        <v>1.043518419498783</v>
       </c>
       <c r="J22">
-        <v>1.024723215640974</v>
+        <v>1.025056388622088</v>
       </c>
       <c r="K22">
-        <v>1.031969353565734</v>
+        <v>1.031980016407577</v>
       </c>
       <c r="L22">
-        <v>1.027609606741525</v>
+        <v>1.027883779789873</v>
       </c>
       <c r="M22">
-        <v>1.037865306596825</v>
+        <v>1.0380512821034</v>
       </c>
       <c r="N22">
-        <v>1.012098314252315</v>
+        <v>1.014588973290339</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038540238027848</v>
+        <v>1.03868742555849</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03374392599938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033767002657545</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021037141625669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9950131518393889</v>
+        <v>0.9952789705535451</v>
       </c>
       <c r="D23">
-        <v>1.017543892058384</v>
+        <v>1.017469224766759</v>
       </c>
       <c r="E23">
-        <v>1.013276470428824</v>
+        <v>1.013490060558557</v>
       </c>
       <c r="F23">
-        <v>1.023736369951322</v>
+        <v>1.023878180713942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043711216815216</v>
+        <v>1.043761263865055</v>
       </c>
       <c r="J23">
-        <v>1.02530903083372</v>
+        <v>1.025563317515323</v>
       </c>
       <c r="K23">
-        <v>1.032470677738888</v>
+        <v>1.032397391238866</v>
       </c>
       <c r="L23">
-        <v>1.028282598015541</v>
+        <v>1.028492196245344</v>
       </c>
       <c r="M23">
-        <v>1.038549552910514</v>
+        <v>1.03868878305802</v>
       </c>
       <c r="N23">
-        <v>1.012295991513369</v>
+        <v>1.014549850531666</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039081774380635</v>
+        <v>1.039191965916181</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034088744815793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034051523666883</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021114250400829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000090274695727</v>
+        <v>1.000081631622658</v>
       </c>
       <c r="D24">
-        <v>1.020752437019793</v>
+        <v>1.020381003387539</v>
       </c>
       <c r="E24">
-        <v>1.017167152001512</v>
+        <v>1.01716309516406</v>
       </c>
       <c r="F24">
-        <v>1.027652319727619</v>
+        <v>1.027636983848194</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044827636638981</v>
+        <v>1.044718272814673</v>
       </c>
       <c r="J24">
-        <v>1.027584850011272</v>
+        <v>1.027576539565491</v>
       </c>
       <c r="K24">
-        <v>1.034424660846411</v>
+        <v>1.034059415733243</v>
       </c>
       <c r="L24">
-        <v>1.030899354231483</v>
+        <v>1.030895365569853</v>
       </c>
       <c r="M24">
-        <v>1.041210629126914</v>
+        <v>1.041195544256454</v>
       </c>
       <c r="N24">
-        <v>1.01306514220484</v>
+        <v>1.01459074068948</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041187838855647</v>
+        <v>1.041175900203369</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035462802223974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03521839936468</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021422921754405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005809363557074</v>
+        <v>1.005624130956474</v>
       </c>
       <c r="D25">
-        <v>1.0243877816878</v>
+        <v>1.023777498039933</v>
       </c>
       <c r="E25">
-        <v>1.021579828498637</v>
+        <v>1.021436451156744</v>
       </c>
       <c r="F25">
-        <v>1.032100446654725</v>
+        <v>1.031984108007638</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046055205831047</v>
+        <v>1.045829642721038</v>
       </c>
       <c r="J25">
-        <v>1.03014278874095</v>
+        <v>1.029963691844471</v>
       </c>
       <c r="K25">
-        <v>1.036618947720768</v>
+        <v>1.036017580870577</v>
       </c>
       <c r="L25">
-        <v>1.033852133337535</v>
+        <v>1.033710864297566</v>
       </c>
       <c r="M25">
-        <v>1.044220074233392</v>
+        <v>1.044105402364269</v>
       </c>
       <c r="N25">
-        <v>1.013929594424123</v>
+        <v>1.015184216739104</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043569606696047</v>
+        <v>1.04347885197885</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037011415610441</v>
+        <v>1.036599759492671</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021787317951218</v>
       </c>
     </row>
   </sheetData>
